--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvera\Documents\Code\h-r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -376,6 +376,30 @@
   </si>
   <si>
     <t>byobu-disable</t>
+  </si>
+  <si>
+    <t>Ctrl + Tab</t>
+  </si>
+  <si>
+    <t>Reopen</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Right Tab</t>
+  </si>
+  <si>
+    <t>Left Tab</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Tab</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + T</t>
+  </si>
+  <si>
+    <t>Browser</t>
   </si>
 </sst>
 </file>
@@ -420,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -539,12 +563,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -562,6 +617,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C9990-8DBF-4E57-B02A-453D111F7A0C}">
-  <dimension ref="B1:G39"/>
+  <dimension ref="B1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1388,23 +1450,70 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="15.75">
-      <c r="B38" s="13" t="s">
+    <row r="37" spans="2:7" ht="15.75">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="39" spans="2:7" ht="15.75">
+      <c r="B39" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15.75">
-      <c r="B39" s="13" t="s">
+    <row r="40" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B40" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="20" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="43" spans="2:7" ht="15.75">
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75">
+      <c r="B44" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75">
+      <c r="B45" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B46" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="10995" activeTab="1" xr2:uid="{C82FF86C-0C59-4029-A373-ABB0B9FB7B7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="10995" activeTab="2" xr2:uid="{C82FF86C-0C59-4029-A373-ABB0B9FB7B7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId1"/>
+    <sheet name="Shortcuts" sheetId="1" r:id="rId2"/>
+    <sheet name="Horizontal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -436,12 +437,18 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -599,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -624,6 +631,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C9990-8DBF-4E57-B02A-453D111F7A0C}">
   <dimension ref="B1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1523,4 +1539,389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D50E3B8-FF1E-4FB7-9675-4B827694BDC2}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="A9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="A10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="E14" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="E15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="E16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="15.75">
+      <c r="E17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="15.75">
+      <c r="E18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="15.75">
+      <c r="E19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="15.75">
+      <c r="E20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="15.75">
+      <c r="E21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="16.5" thickBot="1">
+      <c r="E22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId4"/>
-    <sheet name="Shortcuts" sheetId="2" r:id="rId5"/>
-    <sheet name="Horizontal" sheetId="3" r:id="rId6"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Shortcuts" sheetId="2" r:id="rId2"/>
+    <sheet name="Horizontal" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
   <si>
     <t>Hipoges portfolio forecasting</t>
   </si>
@@ -357,9 +365,6 @@
     <t>iTerm</t>
   </si>
   <si>
-    <t>¿guake?</t>
-  </si>
-  <si>
     <t>Cmd + D</t>
   </si>
   <si>
@@ -418,33 +423,26 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>Nuevo mapa Real Estate</t>
+  </si>
+  <si>
+    <t>Nuevo correo Broker leads fotocasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -469,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -960,190 +958,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,25 +1182,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffe7e6e6"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -1372,7 +1462,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1391,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1603,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,9 +1732,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1661,7 +1757,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1680,7 +1776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,7 +1802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1732,7 +1828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1758,7 +1854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,7 +1880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,7 +1906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1836,7 +1932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1862,7 +1958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,7 +1984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1914,7 +2010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1927,9 +2023,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1943,7 +2045,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1962,7 +2064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1992,7 +2094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2018,7 +2120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2044,7 +2146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2070,7 +2172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2096,7 +2198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2122,7 +2224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2148,7 +2250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2174,7 +2276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2200,7 +2302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2213,141 +2315,204 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="256" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="2">
         <v>43101</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="2">
         <v>43103</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="2">
         <v>43104</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="2">
         <v>43105</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="2">
         <v>43106</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="2">
         <v>43107</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="2">
         <v>43108</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="2">
         <v>43109</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2355,24 +2520,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.1719" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.8516" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="5" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2381,196 +2545,196 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" t="s" s="12">
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" t="s" s="13">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="13">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" t="s" s="13">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" t="s" s="13">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" t="s" s="13">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" t="s" s="13">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s" s="13">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s" s="15">
+      <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s" s="14">
+      <c r="C10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s" s="13">
+      <c r="D10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" t="s" s="13">
+      <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s" s="14">
+      <c r="C11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s" s="13">
+      <c r="D11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s" s="15">
+      <c r="E11" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" t="s" s="16">
+      <c r="B12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s" s="17">
+      <c r="C12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s" s="16">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s" s="18">
+      <c r="E12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2579,7 +2743,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2588,165 +2752,165 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s" s="8">
+      <c r="D15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s" s="10">
+      <c r="E15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" t="s" s="13">
+      <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s" s="14">
+      <c r="C16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s" s="13">
+      <c r="D16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s" s="15">
+      <c r="E16" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" t="s" s="12">
+      <c r="G16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" t="s" s="13">
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s" s="14">
+      <c r="C17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s" s="13">
+      <c r="D17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s" s="15">
+      <c r="E17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" t="s" s="13">
+      <c r="B18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s" s="14">
+      <c r="C18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s" s="13">
+      <c r="D18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s" s="15">
+      <c r="E18" s="15" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" t="s" s="13">
+      <c r="B19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s" s="14">
+      <c r="C19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s" s="13">
+      <c r="D19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s" s="15">
+      <c r="E19" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" t="s" s="13">
+      <c r="B20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s" s="14">
+      <c r="C20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s" s="13">
+      <c r="D20" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="13">
+      <c r="B21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s" s="14">
+      <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s" s="13">
+      <c r="D21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s" s="15">
+      <c r="E21" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" t="s" s="13">
+      <c r="B22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s" s="14">
+      <c r="C22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s" s="13">
+      <c r="D22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s" s="15">
+      <c r="E22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" t="s" s="13">
+      <c r="B23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s" s="14">
+      <c r="C23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s" s="13">
+      <c r="D23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s" s="14">
+      <c r="E23" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:7" ht="16.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" t="s" s="16">
+      <c r="B24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s" s="17">
+      <c r="C24" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="22"/>
@@ -2754,7 +2918,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:7" ht="16.5" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -2763,7 +2927,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2772,12 +2936,12 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" t="s" s="8">
+      <c r="B27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="24"/>
@@ -2785,44 +2949,44 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" t="s" s="13">
+      <c r="B28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s" s="14">
+      <c r="C28" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="24"/>
-      <c r="E28" t="s" s="26">
+      <c r="E28" s="26" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" t="s" s="12">
+      <c r="G28" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" t="s" s="13">
+      <c r="B29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s" s="14">
+      <c r="C29" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="24"/>
-      <c r="E29" t="s" s="26">
+      <c r="E29" s="26" t="s">
         <v>99</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="13">
+      <c r="B30" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s" s="14">
+      <c r="C30" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="24"/>
@@ -2830,12 +2994,12 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" t="s" s="13">
+      <c r="B31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s" s="14">
+      <c r="C31" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="24"/>
@@ -2843,12 +3007,12 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" t="s" s="13">
+      <c r="B32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s" s="14">
+      <c r="C32" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="24"/>
@@ -2856,12 +3020,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" t="s" s="13">
+      <c r="B33" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C33" t="s" s="14">
+      <c r="C33" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="24"/>
@@ -2869,12 +3033,12 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" t="s" s="13">
+      <c r="B34" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C34" t="s" s="14">
+      <c r="C34" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="24"/>
@@ -2882,12 +3046,12 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" t="s" s="13">
+      <c r="B35" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C35" t="s" s="14">
+      <c r="C35" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D35" s="24"/>
@@ -2895,12 +3059,12 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" t="s" s="16">
+      <c r="B36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C36" t="s" s="17">
+      <c r="C36" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="24"/>
@@ -2908,7 +3072,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -2917,96 +3081,94 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s" s="3">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="C39" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" t="s" s="3">
+      <c r="D39" s="60"/>
+      <c r="E39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s" s="3">
+      <c r="D40" s="60"/>
+      <c r="E40" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" t="s" s="3">
-        <v>116</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s" s="3">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="59"/>
+      <c r="B41" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" t="s" s="3">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="D42" s="4"/>
+      <c r="C42" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="60"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s" s="3">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="59"/>
+      <c r="B43" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3015,35 +3177,35 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="28"/>
-      <c r="B46" t="s" s="29">
+      <c r="B46" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C46" t="s" s="10">
-        <v>123</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" t="s" s="3">
+      <c r="G46" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" t="s" s="30">
+      <c r="C47" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C47" t="s" s="18">
-        <v>126</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -3052,7 +3214,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3061,53 +3223,53 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="28"/>
-      <c r="B50" t="s" s="29">
+      <c r="B50" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="C50" t="s" s="10">
-        <v>128</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" t="s" s="3">
+      <c r="G50" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="31" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" t="s" s="31">
+      <c r="C51" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C51" t="s" s="15">
-        <v>131</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="28"/>
-      <c r="B52" t="s" s="31">
+      <c r="B52" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C52" t="s" s="15">
-        <v>133</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" ht="16.5" customHeight="1">
+    <row r="53" spans="1:7" ht="16.5" customHeight="1">
       <c r="A53" s="28"/>
-      <c r="B53" t="s" s="30">
-        <v>134</v>
-      </c>
-      <c r="C53" t="s" s="18">
+      <c r="B53" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="11"/>
@@ -3117,7 +3279,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3125,447 +3287,447 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.3516" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.1719" style="32" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="32" customWidth="1"/>
     <col min="3" max="3" width="17" style="32" customWidth="1"/>
-    <col min="4" max="4" width="14.8516" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.3516" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="15.3516" style="32" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="32" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="32" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="33">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" t="s" s="33">
+      <c r="E1" s="33" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="34">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="35">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="36">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="37">
+      <c r="D2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="34">
+      <c r="E2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s" s="35">
+      <c r="F2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s" s="36">
+      <c r="G2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s" s="37">
+      <c r="H2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="38">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="39">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="40">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="41">
+      <c r="D3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="38">
+      <c r="E3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s" s="39">
+      <c r="F3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s" s="40">
+      <c r="G3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H3" t="s" s="41">
+      <c r="H3" s="41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="42">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="43">
+      <c r="B4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="44">
+      <c r="C4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="45">
+      <c r="D4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="42">
+      <c r="E4" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s" s="43">
+      <c r="F4" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s" s="44">
+      <c r="G4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s" s="45">
+      <c r="H4" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="38">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="39">
+      <c r="B5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="40">
+      <c r="C5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="41">
+      <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s" s="38">
+      <c r="E5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s" s="39">
+      <c r="F5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s" s="40">
+      <c r="G5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H5" t="s" s="41">
+      <c r="H5" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="42">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="43">
+      <c r="B6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="44">
+      <c r="C6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="45">
+      <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="42">
+      <c r="E6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s" s="43">
+      <c r="F6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s" s="44">
+      <c r="G6" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s" s="45">
+      <c r="H6" s="45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="38">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="39">
+      <c r="B7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s" s="40">
+      <c r="C7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s" s="41">
+      <c r="D7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s" s="38">
+      <c r="E7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s" s="39">
+      <c r="F7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G7" t="s" s="40">
+      <c r="G7" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="42">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="43">
+      <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s" s="44">
+      <c r="C8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s" s="45">
+      <c r="D8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s" s="42">
+      <c r="E8" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F8" t="s" s="43">
+      <c r="F8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G8" t="s" s="44">
+      <c r="G8" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H8" t="s" s="45">
+      <c r="H8" s="45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="s" s="38">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s" s="39">
+      <c r="B9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s" s="40">
+      <c r="C9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s" s="41">
+      <c r="D9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s" s="38">
+      <c r="E9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s" s="39">
+      <c r="F9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s" s="40">
+      <c r="G9" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s" s="41">
+      <c r="H9" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="42">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s" s="43">
+      <c r="B10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s" s="44">
+      <c r="C10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s" s="45">
+      <c r="D10" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s" s="42">
+      <c r="E10" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F10" t="s" s="43">
+      <c r="F10" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s" s="44">
+      <c r="G10" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s" s="45">
+      <c r="H10" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s" s="38">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="39">
+      <c r="B11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s" s="40">
+      <c r="C11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s" s="41">
+      <c r="D11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s" s="47">
+      <c r="E11" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s" s="48">
+      <c r="F11" s="48" t="s">
         <v>91</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="50"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" t="s" s="51">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s" s="52">
+      <c r="B12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s" s="53">
+      <c r="C12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s" s="54">
+      <c r="D12" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s" s="55">
+      <c r="E12" s="55" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="57"/>
-      <c r="E13" t="s" s="36">
+      <c r="E13" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F13" t="s" s="35">
+      <c r="F13" s="35" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
-      <c r="E14" t="s" s="40">
+      <c r="E14" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F14" t="s" s="39">
+      <c r="F14" s="39" t="s">
         <v>94</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" t="s" s="44">
+      <c r="E15" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s" s="43">
+      <c r="F15" s="43" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" t="s" s="40">
+      <c r="E16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F16" t="s" s="39">
+      <c r="F16" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
-      <c r="E17" t="s" s="44">
+      <c r="E17" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F17" t="s" s="43">
+      <c r="F17" s="43" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
-      <c r="E18" t="s" s="40">
+      <c r="E18" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F18" t="s" s="39">
+      <c r="F18" s="39" t="s">
         <v>103</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
-      <c r="E19" t="s" s="44">
+      <c r="E19" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s" s="43">
+      <c r="F19" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
-      <c r="E20" t="s" s="40">
+      <c r="E20" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s" s="39">
+      <c r="F20" s="39" t="s">
         <v>107</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
-      <c r="E21" t="s" s="44">
+      <c r="E21" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F21" t="s" s="43">
+      <c r="F21" s="43" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
-      <c r="E22" t="s" s="58">
+      <c r="E22" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F22" t="s" s="48">
+      <c r="F22" s="48" t="s">
         <v>111</v>
       </c>
       <c r="G22" s="21"/>
@@ -3573,7 +3735,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -302,24 +302,12 @@
     <t>New Window</t>
   </si>
   <si>
-    <t>Next Window</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>byobu-enable</t>
   </si>
   <si>
     <t>Byobu</t>
   </si>
   <si>
-    <t>Prev Window</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>byobu-disable</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>Move to Split</t>
   </si>
   <si>
-    <t>Shift + Alt + Cursor</t>
-  </si>
-  <si>
     <t>Detach (no out)</t>
   </si>
   <si>
@@ -429,6 +414,21 @@
   </si>
   <si>
     <t>Nuevo correo Broker leads fotocasa</t>
+  </si>
+  <si>
+    <t>Shift + Cursor</t>
+  </si>
+  <si>
+    <t>Move to Window</t>
+  </si>
+  <si>
+    <t>Alt + Cursor</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Cursor</t>
+  </si>
+  <si>
+    <t>Resize</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
         <v>43130</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2462,7 +2462,7 @@
         <v>43131</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="24"/>
@@ -2951,42 +2951,42 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>94</v>
+      <c r="B28" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>98</v>
+      <c r="B29" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="24"/>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="24"/>
@@ -3009,11 +3009,11 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>103</v>
+      <c r="B32" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
@@ -3022,11 +3022,11 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>105</v>
+      <c r="B33" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
@@ -3035,11 +3035,11 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>107</v>
+      <c r="B34" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
@@ -3048,11 +3048,11 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>109</v>
+      <c r="B35" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
@@ -3061,11 +3061,11 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>111</v>
+      <c r="B36" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
@@ -3093,14 +3093,14 @@
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
@@ -3108,14 +3108,14 @@
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="59"/>
       <c r="B40" s="65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3123,10 +3123,10 @@
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="65" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D41" s="60"/>
       <c r="E41" s="4"/>
@@ -3136,10 +3136,10 @@
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="59"/>
       <c r="B42" s="65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D42" s="60"/>
       <c r="E42" s="4"/>
@@ -3149,10 +3149,10 @@
     <row r="43" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="59"/>
       <c r="B43" s="67" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D43" s="60"/>
       <c r="E43" s="4"/>
@@ -3180,25 +3180,25 @@
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="28"/>
       <c r="B46" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="28"/>
       <c r="B47" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="4"/>
@@ -3226,25 +3226,25 @@
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="28"/>
       <c r="B50" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="28"/>
       <c r="B51" s="31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="4"/>
@@ -3254,10 +3254,10 @@
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="4"/>
@@ -3267,7 +3267,7 @@
     <row r="53" spans="1:7" ht="16.5" customHeight="1">
       <c r="A53" s="28"/>
       <c r="B53" s="30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>57</v>
@@ -3290,7 +3290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="E15:F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3587,7 +3589,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="19"/>
@@ -3613,10 +3615,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
       <c r="E14" s="40" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="4"/>
@@ -3627,10 +3629,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
       <c r="E15" s="44" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="4"/>
@@ -3641,7 +3643,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
       <c r="E16" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>66</v>
@@ -3655,7 +3657,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
       <c r="E17" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>74</v>
@@ -3669,10 +3671,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
       <c r="E18" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="4"/>
@@ -3683,10 +3685,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
       <c r="E19" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="4"/>
@@ -3697,10 +3699,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="4"/>
@@ -3711,10 +3713,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
       <c r="E21" s="44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="4"/>
@@ -3725,17 +3727,17 @@
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
       <c r="E22" s="58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>Hipoges portfolio forecasting</t>
   </si>
@@ -429,13 +429,16 @@
   </si>
   <si>
     <t>Resize</t>
+  </si>
+  <si>
+    <t>Correccion PT Dash remax reemplazado partner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -451,6 +454,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1104,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1174,6 +1184,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2461,7 +2472,7 @@
       <c r="A11" s="2">
         <v>43131</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="4"/>
@@ -2469,8 +2480,12 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3290,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>Hipoges portfolio forecasting</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>Correccion PT Dash remax reemplazado partner</t>
+  </si>
+  <si>
+    <t>Move to Tab</t>
+  </si>
+  <si>
+    <t>May + Cmd + Curs</t>
+  </si>
+  <si>
+    <t>May + Cmd + cursor</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1110,11 +1119,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1185,6 +1334,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2347,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2536,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV53"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3035,7 +3199,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+    <row r="33" spans="1:256" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="44" t="s">
         <v>99</v>
@@ -3048,7 +3212,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+    <row r="34" spans="1:256" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="40" t="s">
         <v>101</v>
@@ -3061,7 +3225,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+    <row r="35" spans="1:256" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="44" t="s">
         <v>103</v>
@@ -3074,7 +3238,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+    <row r="36" spans="1:256" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="58" t="s">
         <v>105</v>
@@ -3087,7 +3251,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+    <row r="37" spans="1:256" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3096,7 +3260,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="38" spans="1:256" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="61"/>
       <c r="C38" s="61"/>
@@ -3105,7 +3269,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+    <row r="39" spans="1:256" ht="15.75" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="63" t="s">
         <v>96</v>
@@ -3120,7 +3284,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+    <row r="40" spans="1:256" ht="15.75" customHeight="1">
       <c r="A40" s="59"/>
       <c r="B40" s="65" t="s">
         <v>97</v>
@@ -3135,7 +3299,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+    <row r="41" spans="1:256" ht="15.75" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="65" t="s">
         <v>111</v>
@@ -3148,7 +3312,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:256" ht="15.75" customHeight="1">
       <c r="A42" s="59"/>
       <c r="B42" s="65" t="s">
         <v>103</v>
@@ -3161,136 +3325,398 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="43" spans="1:256" ht="15.75" customHeight="1">
       <c r="A43" s="59"/>
-      <c r="B43" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>115</v>
+      <c r="B43" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>138</v>
       </c>
       <c r="D43" s="60"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="4"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="32"/>
+      <c r="AS43" s="32"/>
+      <c r="AT43" s="32"/>
+      <c r="AU43" s="32"/>
+      <c r="AV43" s="32"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="32"/>
+      <c r="AY43" s="32"/>
+      <c r="AZ43" s="32"/>
+      <c r="BA43" s="32"/>
+      <c r="BB43" s="32"/>
+      <c r="BC43" s="32"/>
+      <c r="BD43" s="32"/>
+      <c r="BE43" s="32"/>
+      <c r="BF43" s="32"/>
+      <c r="BG43" s="32"/>
+      <c r="BH43" s="32"/>
+      <c r="BI43" s="32"/>
+      <c r="BJ43" s="32"/>
+      <c r="BK43" s="32"/>
+      <c r="BL43" s="32"/>
+      <c r="BM43" s="32"/>
+      <c r="BN43" s="32"/>
+      <c r="BO43" s="32"/>
+      <c r="BP43" s="32"/>
+      <c r="BQ43" s="32"/>
+      <c r="BR43" s="32"/>
+      <c r="BS43" s="32"/>
+      <c r="BT43" s="32"/>
+      <c r="BU43" s="32"/>
+      <c r="BV43" s="32"/>
+      <c r="BW43" s="32"/>
+      <c r="BX43" s="32"/>
+      <c r="BY43" s="32"/>
+      <c r="BZ43" s="32"/>
+      <c r="CA43" s="32"/>
+      <c r="CB43" s="32"/>
+      <c r="CC43" s="32"/>
+      <c r="CD43" s="32"/>
+      <c r="CE43" s="32"/>
+      <c r="CF43" s="32"/>
+      <c r="CG43" s="32"/>
+      <c r="CH43" s="32"/>
+      <c r="CI43" s="32"/>
+      <c r="CJ43" s="32"/>
+      <c r="CK43" s="32"/>
+      <c r="CL43" s="32"/>
+      <c r="CM43" s="32"/>
+      <c r="CN43" s="32"/>
+      <c r="CO43" s="32"/>
+      <c r="CP43" s="32"/>
+      <c r="CQ43" s="32"/>
+      <c r="CR43" s="32"/>
+      <c r="CS43" s="32"/>
+      <c r="CT43" s="32"/>
+      <c r="CU43" s="32"/>
+      <c r="CV43" s="32"/>
+      <c r="CW43" s="32"/>
+      <c r="CX43" s="32"/>
+      <c r="CY43" s="32"/>
+      <c r="CZ43" s="32"/>
+      <c r="DA43" s="32"/>
+      <c r="DB43" s="32"/>
+      <c r="DC43" s="32"/>
+      <c r="DD43" s="32"/>
+      <c r="DE43" s="32"/>
+      <c r="DF43" s="32"/>
+      <c r="DG43" s="32"/>
+      <c r="DH43" s="32"/>
+      <c r="DI43" s="32"/>
+      <c r="DJ43" s="32"/>
+      <c r="DK43" s="32"/>
+      <c r="DL43" s="32"/>
+      <c r="DM43" s="32"/>
+      <c r="DN43" s="32"/>
+      <c r="DO43" s="32"/>
+      <c r="DP43" s="32"/>
+      <c r="DQ43" s="32"/>
+      <c r="DR43" s="32"/>
+      <c r="DS43" s="32"/>
+      <c r="DT43" s="32"/>
+      <c r="DU43" s="32"/>
+      <c r="DV43" s="32"/>
+      <c r="DW43" s="32"/>
+      <c r="DX43" s="32"/>
+      <c r="DY43" s="32"/>
+      <c r="DZ43" s="32"/>
+      <c r="EA43" s="32"/>
+      <c r="EB43" s="32"/>
+      <c r="EC43" s="32"/>
+      <c r="ED43" s="32"/>
+      <c r="EE43" s="32"/>
+      <c r="EF43" s="32"/>
+      <c r="EG43" s="32"/>
+      <c r="EH43" s="32"/>
+      <c r="EI43" s="32"/>
+      <c r="EJ43" s="32"/>
+      <c r="EK43" s="32"/>
+      <c r="EL43" s="32"/>
+      <c r="EM43" s="32"/>
+      <c r="EN43" s="32"/>
+      <c r="EO43" s="32"/>
+      <c r="EP43" s="32"/>
+      <c r="EQ43" s="32"/>
+      <c r="ER43" s="32"/>
+      <c r="ES43" s="32"/>
+      <c r="ET43" s="32"/>
+      <c r="EU43" s="32"/>
+      <c r="EV43" s="32"/>
+      <c r="EW43" s="32"/>
+      <c r="EX43" s="32"/>
+      <c r="EY43" s="32"/>
+      <c r="EZ43" s="32"/>
+      <c r="FA43" s="32"/>
+      <c r="FB43" s="32"/>
+      <c r="FC43" s="32"/>
+      <c r="FD43" s="32"/>
+      <c r="FE43" s="32"/>
+      <c r="FF43" s="32"/>
+      <c r="FG43" s="32"/>
+      <c r="FH43" s="32"/>
+      <c r="FI43" s="32"/>
+      <c r="FJ43" s="32"/>
+      <c r="FK43" s="32"/>
+      <c r="FL43" s="32"/>
+      <c r="FM43" s="32"/>
+      <c r="FN43" s="32"/>
+      <c r="FO43" s="32"/>
+      <c r="FP43" s="32"/>
+      <c r="FQ43" s="32"/>
+      <c r="FR43" s="32"/>
+      <c r="FS43" s="32"/>
+      <c r="FT43" s="32"/>
+      <c r="FU43" s="32"/>
+      <c r="FV43" s="32"/>
+      <c r="FW43" s="32"/>
+      <c r="FX43" s="32"/>
+      <c r="FY43" s="32"/>
+      <c r="FZ43" s="32"/>
+      <c r="GA43" s="32"/>
+      <c r="GB43" s="32"/>
+      <c r="GC43" s="32"/>
+      <c r="GD43" s="32"/>
+      <c r="GE43" s="32"/>
+      <c r="GF43" s="32"/>
+      <c r="GG43" s="32"/>
+      <c r="GH43" s="32"/>
+      <c r="GI43" s="32"/>
+      <c r="GJ43" s="32"/>
+      <c r="GK43" s="32"/>
+      <c r="GL43" s="32"/>
+      <c r="GM43" s="32"/>
+      <c r="GN43" s="32"/>
+      <c r="GO43" s="32"/>
+      <c r="GP43" s="32"/>
+      <c r="GQ43" s="32"/>
+      <c r="GR43" s="32"/>
+      <c r="GS43" s="32"/>
+      <c r="GT43" s="32"/>
+      <c r="GU43" s="32"/>
+      <c r="GV43" s="32"/>
+      <c r="GW43" s="32"/>
+      <c r="GX43" s="32"/>
+      <c r="GY43" s="32"/>
+      <c r="GZ43" s="32"/>
+      <c r="HA43" s="32"/>
+      <c r="HB43" s="32"/>
+      <c r="HC43" s="32"/>
+      <c r="HD43" s="32"/>
+      <c r="HE43" s="32"/>
+      <c r="HF43" s="32"/>
+      <c r="HG43" s="32"/>
+      <c r="HH43" s="32"/>
+      <c r="HI43" s="32"/>
+      <c r="HJ43" s="32"/>
+      <c r="HK43" s="32"/>
+      <c r="HL43" s="32"/>
+      <c r="HM43" s="32"/>
+      <c r="HN43" s="32"/>
+      <c r="HO43" s="32"/>
+      <c r="HP43" s="32"/>
+      <c r="HQ43" s="32"/>
+      <c r="HR43" s="32"/>
+      <c r="HS43" s="32"/>
+      <c r="HT43" s="32"/>
+      <c r="HU43" s="32"/>
+      <c r="HV43" s="32"/>
+      <c r="HW43" s="32"/>
+      <c r="HX43" s="32"/>
+      <c r="HY43" s="32"/>
+      <c r="HZ43" s="32"/>
+      <c r="IA43" s="32"/>
+      <c r="IB43" s="32"/>
+      <c r="IC43" s="32"/>
+      <c r="ID43" s="32"/>
+      <c r="IE43" s="32"/>
+      <c r="IF43" s="32"/>
+      <c r="IG43" s="32"/>
+      <c r="IH43" s="32"/>
+      <c r="II43" s="32"/>
+      <c r="IJ43" s="32"/>
+      <c r="IK43" s="32"/>
+      <c r="IL43" s="32"/>
+      <c r="IM43" s="32"/>
+      <c r="IN43" s="32"/>
+      <c r="IO43" s="32"/>
+      <c r="IP43" s="32"/>
+      <c r="IQ43" s="32"/>
+      <c r="IR43" s="32"/>
+      <c r="IS43" s="32"/>
+      <c r="IT43" s="32"/>
+      <c r="IU43" s="32"/>
+      <c r="IV43" s="32"/>
+    </row>
+    <row r="44" spans="1:256" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="60"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:256" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="11"/>
+    <row r="46" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:256" ht="15.75" customHeight="1">
       <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>120</v>
+      <c r="B47" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="4"/>
+      <c r="G47" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:256" ht="16.5" customHeight="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="11"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="28"/>
-      <c r="B51" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>125</v>
+      <c r="B51" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>57</v>
+      <c r="B53" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A54" s="28"/>
+      <c r="B54" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,15 +3731,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="E15:F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17" style="32" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="32" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="32" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="32" customWidth="1"/>
@@ -3610,10 +4036,10 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="57"/>
       <c r="E13" s="36" t="s">
         <v>92</v>
@@ -3625,10 +4051,13 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="72"/>
       <c r="E14" s="40" t="s">
         <v>132</v>
       </c>
@@ -3639,10 +4068,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="72"/>
       <c r="E15" s="44" t="s">
         <v>135</v>
       </c>
@@ -3653,10 +4088,13 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="72"/>
       <c r="E16" s="40" t="s">
         <v>96</v>
       </c>
@@ -3667,10 +4105,13 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="72"/>
       <c r="E17" s="44" t="s">
         <v>97</v>
       </c>
@@ -3681,10 +4122,13 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="72"/>
       <c r="E18" s="40" t="s">
         <v>98</v>
       </c>
@@ -3694,11 +4138,14 @@
       <c r="G18" s="21"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="72"/>
       <c r="E19" s="44" t="s">
         <v>99</v>
       </c>
@@ -3710,8 +4157,8 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="7"/>
       <c r="E20" s="40" t="s">
         <v>101</v>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,56 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Shortcuts" sheetId="2" r:id="rId2"/>
-    <sheet name="Horizontal" sheetId="3" r:id="rId3"/>
+    <sheet name="Shortcuts" sheetId="2" r:id="rId1"/>
+    <sheet name="Horizontal" sheetId="3" r:id="rId2"/>
+    <sheet name="paquetes" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="148">
-  <si>
-    <t>Hipoges portfolio forecasting</t>
-  </si>
-  <si>
-    <t>Permisos All assets PT para valuations</t>
-  </si>
-  <si>
-    <t>Analisis Factorial Climate Survey</t>
-  </si>
-  <si>
-    <t>RE marketing Report con mis y hams</t>
-  </si>
-  <si>
-    <t>Nuevo tipo de correo idealista</t>
-  </si>
-  <si>
-    <t>Actualización Manual DS</t>
-  </si>
-  <si>
-    <t>Control de Errores en Forecasting</t>
-  </si>
-  <si>
-    <t>Nueva cartera Brokerleads FLETA</t>
-  </si>
-  <si>
-    <t>Remax Sales Update</t>
-  </si>
-  <si>
-    <t>Nuevo mapa Real Estate</t>
-  </si>
-  <si>
-    <t>Nuevo correo Broker leads fotocasa</t>
-  </si>
-  <si>
-    <t>Correccion PT Dash remax reemplazado partner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="354">
   <si>
     <t>Console</t>
   </si>
@@ -318,9 +281,6 @@
     <t>Alt + Cursor</t>
   </si>
   <si>
-    <t>byobu-enable</t>
-  </si>
-  <si>
     <t>Byobu</t>
   </si>
   <si>
@@ -330,9 +290,6 @@
     <t>Ctrl + Alt + Cursor</t>
   </si>
   <si>
-    <t>byobu-disable</t>
-  </si>
-  <si>
     <t>Split Horizontally</t>
   </si>
   <si>
@@ -459,28 +416,681 @@
     <t>May + Cmd + cursor</t>
   </si>
   <si>
-    <t>Modificaciones forecasting themes</t>
-  </si>
-  <si>
     <t>Insert Timestamp</t>
   </si>
   <si>
     <t>ts + Shift + Tab</t>
+  </si>
+  <si>
+    <t>Kmisc</t>
+  </si>
+  <si>
+    <t>bookdown</t>
+  </si>
+  <si>
+    <t>anim.plots</t>
+  </si>
+  <si>
+    <t>alphahull</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>basictabler</t>
+  </si>
+  <si>
+    <t>bigrquery</t>
+  </si>
+  <si>
+    <t>brms</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>caret</t>
+  </si>
+  <si>
+    <t>cartography</t>
+  </si>
+  <si>
+    <t>changepoint</t>
+  </si>
+  <si>
+    <t>charlatan</t>
+  </si>
+  <si>
+    <t>choroplethr</t>
+  </si>
+  <si>
+    <t>choroplethrMaps</t>
+  </si>
+  <si>
+    <t>chunked</t>
+  </si>
+  <si>
+    <t>cleanNLP</t>
+  </si>
+  <si>
+    <t>colourpicker</t>
+  </si>
+  <si>
+    <t>condformat</t>
+  </si>
+  <si>
+    <t>confinterpret</t>
+  </si>
+  <si>
+    <t>corrr</t>
+  </si>
+  <si>
+    <t>cowplot</t>
+  </si>
+  <si>
+    <t>cr17</t>
+  </si>
+  <si>
+    <t>CRANsearcher</t>
+  </si>
+  <si>
+    <t>cshapes</t>
+  </si>
+  <si>
+    <t>ctv</t>
+  </si>
+  <si>
+    <t>d3heatmap</t>
+  </si>
+  <si>
+    <t>d3Tree</t>
+  </si>
+  <si>
+    <t>data.table</t>
+  </si>
+  <si>
+    <t>DataCombine</t>
+  </si>
+  <si>
+    <t>dataCompareR</t>
+  </si>
+  <si>
+    <t>DataExplorer</t>
+  </si>
+  <si>
+    <t>dataMaid</t>
+  </si>
+  <si>
+    <t>datapasta</t>
+  </si>
+  <si>
+    <t>dataPreparation</t>
+  </si>
+  <si>
+    <t>descriptr</t>
+  </si>
+  <si>
+    <t>desctable</t>
+  </si>
+  <si>
+    <t>DescTools</t>
+  </si>
+  <si>
+    <t>DiagrammeR</t>
+  </si>
+  <si>
+    <t>diceR</t>
+  </si>
+  <si>
+    <t>diffobj</t>
+  </si>
+  <si>
+    <t>directlabels</t>
+  </si>
+  <si>
+    <t>dygraphs</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>extrafont</t>
+  </si>
+  <si>
+    <t>factoextra</t>
+  </si>
+  <si>
+    <t>FFTrees</t>
+  </si>
+  <si>
+    <t>filesstrings</t>
+  </si>
+  <si>
+    <t>forecTheta</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>funModeling</t>
+  </si>
+  <si>
+    <t>futile.logger</t>
+  </si>
+  <si>
+    <t>gbm</t>
+  </si>
+  <si>
+    <t>gdalUtils</t>
+  </si>
+  <si>
+    <t>geofacet</t>
+  </si>
+  <si>
+    <t>geonames</t>
+  </si>
+  <si>
+    <t>geoR</t>
+  </si>
+  <si>
+    <t>geosphere</t>
+  </si>
+  <si>
+    <t>GeoXp</t>
+  </si>
+  <si>
+    <t>GGally</t>
+  </si>
+  <si>
+    <t>ggalt</t>
+  </si>
+  <si>
+    <t>ggbeeswarm</t>
+  </si>
+  <si>
+    <t>ggcorrplot</t>
+  </si>
+  <si>
+    <t>ggedit</t>
+  </si>
+  <si>
+    <t>ggforce</t>
+  </si>
+  <si>
+    <t>gghighlight</t>
+  </si>
+  <si>
+    <t>ggimage</t>
+  </si>
+  <si>
+    <t>ggiraph</t>
+  </si>
+  <si>
+    <t>ggmap</t>
+  </si>
+  <si>
+    <t>ggplotAssist</t>
+  </si>
+  <si>
+    <t>ggplotgui</t>
+  </si>
+  <si>
+    <t>ggpubr</t>
+  </si>
+  <si>
+    <t>ggraph</t>
+  </si>
+  <si>
+    <t>ggrepel</t>
+  </si>
+  <si>
+    <t>ggridges</t>
+  </si>
+  <si>
+    <t>ggsci</t>
+  </si>
+  <si>
+    <t>ggseas</t>
+  </si>
+  <si>
+    <t>ggstance</t>
+  </si>
+  <si>
+    <t>ggtern</t>
+  </si>
+  <si>
+    <t>ggThemeAssist</t>
+  </si>
+  <si>
+    <t>ggthemes</t>
+  </si>
+  <si>
+    <t>ggvis</t>
+  </si>
+  <si>
+    <t>glmnet</t>
+  </si>
+  <si>
+    <t>gmodels</t>
+  </si>
+  <si>
+    <t>googleLanguageR</t>
+  </si>
+  <si>
+    <t>gpclib</t>
+  </si>
+  <si>
+    <t>gridExtra</t>
+  </si>
+  <si>
+    <t>gtable</t>
+  </si>
+  <si>
+    <t>gtrendsR</t>
+  </si>
+  <si>
+    <t>heatmaply</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>hexbin</t>
+  </si>
+  <si>
+    <t>hexSticker</t>
+  </si>
+  <si>
+    <t>highcharter</t>
+  </si>
+  <si>
+    <t>Hmisc</t>
+  </si>
+  <si>
+    <t>hrbrthemes</t>
+  </si>
+  <si>
+    <t>htmlwidgets</t>
+  </si>
+  <si>
+    <t>igraph</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>knitr</t>
+  </si>
+  <si>
+    <t>koRpus</t>
+  </si>
+  <si>
+    <t>lambda.tools</t>
+  </si>
+  <si>
+    <t>leaflet</t>
+  </si>
+  <si>
+    <t>leaflet.minicharts</t>
+  </si>
+  <si>
+    <t>leaps</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>lessR</t>
+  </si>
+  <si>
+    <t>liftr</t>
+  </si>
+  <si>
+    <t>likert</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>linemap</t>
+  </si>
+  <si>
+    <t>liquidSVM</t>
+  </si>
+  <si>
+    <t>logging</t>
+  </si>
+  <si>
+    <t>magick</t>
+  </si>
+  <si>
+    <t>manipulate</t>
+  </si>
+  <si>
+    <t>mapdata</t>
+  </si>
+  <si>
+    <t>mapedit</t>
+  </si>
+  <si>
+    <t>mapmisc</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>mapsapi</t>
+  </si>
+  <si>
+    <t>maptools</t>
+  </si>
+  <si>
+    <t>mapview</t>
+  </si>
+  <si>
+    <t>metricsgraphics</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>missForest</t>
+  </si>
+  <si>
+    <t>mschart</t>
+  </si>
+  <si>
+    <t>naniar</t>
+  </si>
+  <si>
+    <t>naturalsort</t>
+  </si>
+  <si>
+    <t>networkD3</t>
+  </si>
+  <si>
+    <t>numform</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>pathological</t>
+  </si>
+  <si>
+    <t>pipefittr</t>
+  </si>
+  <si>
+    <t>pkggraph</t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>plotKML</t>
+  </si>
+  <si>
+    <t>plotly</t>
+  </si>
+  <si>
+    <t>plotrr</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>postGIStools</t>
+  </si>
+  <si>
+    <t>printr</t>
+  </si>
+  <si>
+    <t>profvis</t>
+  </si>
+  <si>
+    <t>qdapRegex</t>
+  </si>
+  <si>
+    <t>quantmod</t>
+  </si>
+  <si>
+    <t>questionr</t>
+  </si>
+  <si>
+    <t>R.utils</t>
+  </si>
+  <si>
+    <t>randomForest</t>
+  </si>
+  <si>
+    <t>randomForestExplainer</t>
+  </si>
+  <si>
+    <t>raster</t>
+  </si>
+  <si>
+    <t>rasterVis</t>
+  </si>
+  <si>
+    <t>reprex</t>
+  </si>
+  <si>
+    <t>revealjs</t>
+  </si>
+  <si>
+    <t>rgdal</t>
+  </si>
+  <si>
+    <t>rgeos</t>
+  </si>
+  <si>
+    <t>rgl</t>
+  </si>
+  <si>
+    <t>RgoogleMaps</t>
+  </si>
+  <si>
+    <t>rio</t>
+  </si>
+  <si>
+    <t>riverplot</t>
+  </si>
+  <si>
+    <t>rlang</t>
+  </si>
+  <si>
+    <t>rmarkdown</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>robets</t>
+  </si>
+  <si>
+    <t>rpart.plot</t>
+  </si>
+  <si>
+    <t>rpostgis</t>
+  </si>
+  <si>
+    <t>rsample</t>
+  </si>
+  <si>
+    <t>RTextTools</t>
+  </si>
+  <si>
+    <t>rts</t>
+  </si>
+  <si>
+    <t>rtweet</t>
+  </si>
+  <si>
+    <t>rvg</t>
+  </si>
+  <si>
+    <t>rworldmap</t>
+  </si>
+  <si>
+    <t>scanstatistics</t>
+  </si>
+  <si>
+    <t>scatterplot3d</t>
+  </si>
+  <si>
+    <t>sessioninfo</t>
+  </si>
+  <si>
+    <t>shapefiles</t>
+  </si>
+  <si>
+    <t>shiny</t>
+  </si>
+  <si>
+    <t>sigr</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>sinew</t>
+  </si>
+  <si>
+    <t>sjmisc</t>
+  </si>
+  <si>
+    <t>skimr</t>
+  </si>
+  <si>
+    <t>smpic</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>sparklyr</t>
+  </si>
+  <si>
+    <t>spatstat</t>
+  </si>
+  <si>
+    <t>stow</t>
+  </si>
+  <si>
+    <t>styler</t>
+  </si>
+  <si>
+    <t>sugrrants</t>
+  </si>
+  <si>
+    <t>summarytools</t>
+  </si>
+  <si>
+    <t>swatches</t>
+  </si>
+  <si>
+    <t>sweep</t>
+  </si>
+  <si>
+    <t>tabplot</t>
+  </si>
+  <si>
+    <t>tadaatoolbox</t>
+  </si>
+  <si>
+    <t>tatoo</t>
+  </si>
+  <si>
+    <t>textclean</t>
+  </si>
+  <si>
+    <t>threejs</t>
+  </si>
+  <si>
+    <t>tibbletime</t>
+  </si>
+  <si>
+    <t>tictoc</t>
+  </si>
+  <si>
+    <t>tidygraph</t>
+  </si>
+  <si>
+    <t>tidyquant</t>
+  </si>
+  <si>
+    <t>timetk</t>
+  </si>
+  <si>
+    <t>tmap</t>
+  </si>
+  <si>
+    <t>tmaptools</t>
+  </si>
+  <si>
+    <t>topicmodels</t>
+  </si>
+  <si>
+    <t>udpipe</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>visdat</t>
+  </si>
+  <si>
+    <t>visNetwork</t>
+  </si>
+  <si>
+    <t>waterfalls</t>
+  </si>
+  <si>
+    <t>withr</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>yardstick</t>
+  </si>
+  <si>
+    <t>yarrr</t>
+  </si>
+  <si>
+    <t>drake</t>
+  </si>
+  <si>
+    <t>psych</t>
+  </si>
+  <si>
+    <t>snakecase</t>
+  </si>
+  <si>
+    <t>ggsn</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>pmap</t>
+  </si>
+  <si>
+    <t>stm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,42 +1124,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,65 +1220,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -818,65 +1339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -932,67 +1394,61 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,6 +1631,29 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -1195,29 +1674,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1244,7 +1700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8CAB42F1-B9A8-4693-ABC4-F187DDB82614}" name="Tabla4" displayName="Tabla4" ref="B2:E13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8CAB42F1-B9A8-4693-ABC4-F187DDB82614}" name="Tabla4" displayName="Tabla4" ref="B2:E13" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FC2149DE-0C27-4DBA-B94E-4D978F3B93E0}" name="Console" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D40C64DF-D864-45A5-B12D-B61093C25046}" name="Ctrl + 2" dataDxfId="2"/>
@@ -1551,206 +2007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="50.42578125" style="1"/>
-    <col min="3" max="256" width="10.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43102</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43103</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43104</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>43105</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43106</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43107</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43108</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>43109</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>43130</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>43131</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>43136</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43138</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Normal"&amp;12&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C11"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,20 +2025,20 @@
   <sheetData>
     <row r="1" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2030,17 +2291,17 @@
       <c r="IV2"/>
     </row>
     <row r="3" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>20</v>
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2293,17 +2554,17 @@
       <c r="IV3"/>
     </row>
     <row r="4" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2556,17 +2817,17 @@
       <c r="IV4"/>
     </row>
     <row r="5" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>28</v>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2819,17 +3080,17 @@
       <c r="IV5"/>
     </row>
     <row r="6" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -3082,17 +3343,17 @@
       <c r="IV6"/>
     </row>
     <row r="7" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>36</v>
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -3345,17 +3606,17 @@
       <c r="IV7"/>
     </row>
     <row r="8" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -3608,17 +3869,17 @@
       <c r="IV8"/>
     </row>
     <row r="9" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>44</v>
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -3871,17 +4132,17 @@
       <c r="IV9"/>
     </row>
     <row r="10" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -4134,17 +4395,17 @@
       <c r="IV10"/>
     </row>
     <row r="11" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>52</v>
+      <c r="B11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -4397,17 +4658,17 @@
       <c r="IV11"/>
     </row>
     <row r="12" spans="2:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -4660,14 +4921,14 @@
       <c r="IV12"/>
     </row>
     <row r="13" spans="2:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="16"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -4920,17 +5181,17 @@
     </row>
     <row r="14" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>60</v>
+      <c r="B15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -5183,20 +5444,20 @@
       <c r="IV15"/>
     </row>
     <row r="16" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>64</v>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -5449,17 +5710,17 @@
       <c r="IV16"/>
     </row>
     <row r="17" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>69</v>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -5712,17 +5973,17 @@
       <c r="IV17"/>
     </row>
     <row r="18" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>73</v>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -5975,17 +6236,17 @@
       <c r="IV18"/>
     </row>
     <row r="19" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>77</v>
+      <c r="B19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6238,16 +6499,16 @@
       <c r="IV19"/>
     </row>
     <row r="20" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -6499,17 +6760,17 @@
       <c r="IV20"/>
     </row>
     <row r="21" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>84</v>
+      <c r="B21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -6762,17 +7023,17 @@
       <c r="IV21"/>
     </row>
     <row r="22" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>88</v>
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -7025,17 +7286,17 @@
       <c r="IV22"/>
     </row>
     <row r="23" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>92</v>
+      <c r="B23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -7288,14 +7549,14 @@
       <c r="IV23"/>
     </row>
     <row r="24" spans="2:256" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -7549,11 +7810,14 @@
     <row r="25" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>73</v>
+      <c r="B27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -7806,17 +8070,11 @@
       <c r="IV27"/>
     </row>
     <row r="28" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>99</v>
+      <c r="B28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -8069,14 +8327,11 @@
       <c r="IV28"/>
     </row>
     <row r="29" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>102</v>
+      <c r="B29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -8329,11 +8584,11 @@
       <c r="IV29"/>
     </row>
     <row r="30" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>69</v>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -8586,11 +8841,11 @@
       <c r="IV30"/>
     </row>
     <row r="31" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>77</v>
+      <c r="B31" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -8843,11 +9098,11 @@
       <c r="IV31"/>
     </row>
     <row r="32" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>106</v>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -9100,11 +9355,11 @@
       <c r="IV32"/>
     </row>
     <row r="33" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>108</v>
+      <c r="B33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -9357,11 +9612,11 @@
       <c r="IV33"/>
     </row>
     <row r="34" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>110</v>
+      <c r="B34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -9614,11 +9869,11 @@
       <c r="IV34"/>
     </row>
     <row r="35" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>112</v>
+      <c r="B35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -9871,11 +10126,11 @@
       <c r="IV35"/>
     </row>
     <row r="36" spans="2:256" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>114</v>
+      <c r="B36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -10130,14 +10385,14 @@
     <row r="37" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>115</v>
+      <c r="B39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -10390,14 +10645,14 @@
       <c r="IV39"/>
     </row>
     <row r="40" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
@@ -10650,11 +10905,11 @@
       <c r="IV40"/>
     </row>
     <row r="41" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>120</v>
+      <c r="B41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -10907,11 +11162,11 @@
       <c r="IV41"/>
     </row>
     <row r="42" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>121</v>
+      <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
@@ -11164,106 +11419,106 @@
       <c r="IV42"/>
     </row>
     <row r="43" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>123</v>
+      <c r="B43" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:256" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>125</v>
+      <c r="B44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:256" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>127</v>
+      <c r="B47" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:256" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>130</v>
+      <c r="B48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:5" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>132</v>
+      <c r="B51" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>60</v>
+      <c r="B53" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>142</v>
+      <c r="B56" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>143</v>
+      <c r="B58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -11278,12 +11533,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11299,479 +11554,1636 @@
     <col min="9" max="256" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="20" t="s">
+      <c r="E5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="17" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="H9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="32" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G10" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>73</v>
-      </c>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>97</v>
-      </c>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>101</v>
-      </c>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>69</v>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>77</v>
+      <c r="A17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="34" t="s">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="B18" s="17" t="s">
         <v>106</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>125</v>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>108</v>
+      <c r="E19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
+      <c r="A20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>110</v>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>112</v>
+      <c r="E21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>114</v>
+      <c r="E22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="E25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Normal"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8315D11E-ED07-4185-B067-06BFCF0B20EF}">
+  <dimension ref="A1:A221"/>
+  <sheetViews>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A221">
+    <sortCondition ref="A1:A221"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shortcuts" sheetId="1" r:id="rId4"/>
-    <sheet name="Horizontal" sheetId="2" r:id="rId5"/>
-    <sheet name="paquetes" sheetId="3" r:id="rId6"/>
+    <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
+    <sheet name="Horizontal" sheetId="2" r:id="rId2"/>
+    <sheet name="paquetes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="358">
   <si>
     <t>Console</t>
   </si>
@@ -1078,39 +1086,41 @@
   </si>
   <si>
     <t>yarrr</t>
+  </si>
+  <si>
+    <t>tmuxr</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>usethis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,8 +1139,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1472,32 +1488,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1526,107 +1516,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -1640,211 +1529,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,25 +1827,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fff2f2f2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -2073,7 +2107,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2092,7 +2126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2122,7 +2156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2148,7 +2182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2174,7 +2208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2200,7 +2234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2226,7 +2260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2252,7 +2286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2278,7 +2312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2304,7 +2338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2330,7 +2364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2343,9 +2377,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2362,7 +2402,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2381,7 +2421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2407,7 +2447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2433,7 +2473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2459,7 +2499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2485,7 +2525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2511,7 +2551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2537,7 +2577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2563,7 +2603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2589,7 +2629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2615,7 +2655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2628,9 +2668,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2644,7 +2690,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2663,7 +2709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2693,7 +2739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2719,7 +2765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2745,7 +2791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2771,7 +2817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2797,7 +2843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2823,7 +2869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2849,7 +2895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2875,7 +2921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2901,7 +2947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2914,282 +2960,41 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU59"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:C59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.8516" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.8516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.8516" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.8516" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.8516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.8516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.8516" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.8516" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.8516" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.8516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.8516" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.8516" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10.8516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.8516" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.8516" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.8516" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.8516" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.8516" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.8516" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.8516" style="1" customWidth="1"/>
-    <col min="49" max="49" width="10.8516" style="1" customWidth="1"/>
-    <col min="50" max="50" width="10.8516" style="1" customWidth="1"/>
-    <col min="51" max="51" width="10.8516" style="1" customWidth="1"/>
-    <col min="52" max="52" width="10.8516" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.8516" style="1" customWidth="1"/>
-    <col min="54" max="54" width="10.8516" style="1" customWidth="1"/>
-    <col min="55" max="55" width="10.8516" style="1" customWidth="1"/>
-    <col min="56" max="56" width="10.8516" style="1" customWidth="1"/>
-    <col min="57" max="57" width="10.8516" style="1" customWidth="1"/>
-    <col min="58" max="58" width="10.8516" style="1" customWidth="1"/>
-    <col min="59" max="59" width="10.8516" style="1" customWidth="1"/>
-    <col min="60" max="60" width="10.8516" style="1" customWidth="1"/>
-    <col min="61" max="61" width="10.8516" style="1" customWidth="1"/>
-    <col min="62" max="62" width="10.8516" style="1" customWidth="1"/>
-    <col min="63" max="63" width="10.8516" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.8516" style="1" customWidth="1"/>
-    <col min="65" max="65" width="10.8516" style="1" customWidth="1"/>
-    <col min="66" max="66" width="10.8516" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.8516" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.8516" style="1" customWidth="1"/>
-    <col min="69" max="69" width="10.8516" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.8516" style="1" customWidth="1"/>
-    <col min="71" max="71" width="10.8516" style="1" customWidth="1"/>
-    <col min="72" max="72" width="10.8516" style="1" customWidth="1"/>
-    <col min="73" max="73" width="10.8516" style="1" customWidth="1"/>
-    <col min="74" max="74" width="10.8516" style="1" customWidth="1"/>
-    <col min="75" max="75" width="10.8516" style="1" customWidth="1"/>
-    <col min="76" max="76" width="10.8516" style="1" customWidth="1"/>
-    <col min="77" max="77" width="10.8516" style="1" customWidth="1"/>
-    <col min="78" max="78" width="10.8516" style="1" customWidth="1"/>
-    <col min="79" max="79" width="10.8516" style="1" customWidth="1"/>
-    <col min="80" max="80" width="10.8516" style="1" customWidth="1"/>
-    <col min="81" max="81" width="10.8516" style="1" customWidth="1"/>
-    <col min="82" max="82" width="10.8516" style="1" customWidth="1"/>
-    <col min="83" max="83" width="10.8516" style="1" customWidth="1"/>
-    <col min="84" max="84" width="10.8516" style="1" customWidth="1"/>
-    <col min="85" max="85" width="10.8516" style="1" customWidth="1"/>
-    <col min="86" max="86" width="10.8516" style="1" customWidth="1"/>
-    <col min="87" max="87" width="10.8516" style="1" customWidth="1"/>
-    <col min="88" max="88" width="10.8516" style="1" customWidth="1"/>
-    <col min="89" max="89" width="10.8516" style="1" customWidth="1"/>
-    <col min="90" max="90" width="10.8516" style="1" customWidth="1"/>
-    <col min="91" max="91" width="10.8516" style="1" customWidth="1"/>
-    <col min="92" max="92" width="10.8516" style="1" customWidth="1"/>
-    <col min="93" max="93" width="10.8516" style="1" customWidth="1"/>
-    <col min="94" max="94" width="10.8516" style="1" customWidth="1"/>
-    <col min="95" max="95" width="10.8516" style="1" customWidth="1"/>
-    <col min="96" max="96" width="10.8516" style="1" customWidth="1"/>
-    <col min="97" max="97" width="10.8516" style="1" customWidth="1"/>
-    <col min="98" max="98" width="10.8516" style="1" customWidth="1"/>
-    <col min="99" max="99" width="10.8516" style="1" customWidth="1"/>
-    <col min="100" max="100" width="10.8516" style="1" customWidth="1"/>
-    <col min="101" max="101" width="10.8516" style="1" customWidth="1"/>
-    <col min="102" max="102" width="10.8516" style="1" customWidth="1"/>
-    <col min="103" max="103" width="10.8516" style="1" customWidth="1"/>
-    <col min="104" max="104" width="10.8516" style="1" customWidth="1"/>
-    <col min="105" max="105" width="10.8516" style="1" customWidth="1"/>
-    <col min="106" max="106" width="10.8516" style="1" customWidth="1"/>
-    <col min="107" max="107" width="10.8516" style="1" customWidth="1"/>
-    <col min="108" max="108" width="10.8516" style="1" customWidth="1"/>
-    <col min="109" max="109" width="10.8516" style="1" customWidth="1"/>
-    <col min="110" max="110" width="10.8516" style="1" customWidth="1"/>
-    <col min="111" max="111" width="10.8516" style="1" customWidth="1"/>
-    <col min="112" max="112" width="10.8516" style="1" customWidth="1"/>
-    <col min="113" max="113" width="10.8516" style="1" customWidth="1"/>
-    <col min="114" max="114" width="10.8516" style="1" customWidth="1"/>
-    <col min="115" max="115" width="10.8516" style="1" customWidth="1"/>
-    <col min="116" max="116" width="10.8516" style="1" customWidth="1"/>
-    <col min="117" max="117" width="10.8516" style="1" customWidth="1"/>
-    <col min="118" max="118" width="10.8516" style="1" customWidth="1"/>
-    <col min="119" max="119" width="10.8516" style="1" customWidth="1"/>
-    <col min="120" max="120" width="10.8516" style="1" customWidth="1"/>
-    <col min="121" max="121" width="10.8516" style="1" customWidth="1"/>
-    <col min="122" max="122" width="10.8516" style="1" customWidth="1"/>
-    <col min="123" max="123" width="10.8516" style="1" customWidth="1"/>
-    <col min="124" max="124" width="10.8516" style="1" customWidth="1"/>
-    <col min="125" max="125" width="10.8516" style="1" customWidth="1"/>
-    <col min="126" max="126" width="10.8516" style="1" customWidth="1"/>
-    <col min="127" max="127" width="10.8516" style="1" customWidth="1"/>
-    <col min="128" max="128" width="10.8516" style="1" customWidth="1"/>
-    <col min="129" max="129" width="10.8516" style="1" customWidth="1"/>
-    <col min="130" max="130" width="10.8516" style="1" customWidth="1"/>
-    <col min="131" max="131" width="10.8516" style="1" customWidth="1"/>
-    <col min="132" max="132" width="10.8516" style="1" customWidth="1"/>
-    <col min="133" max="133" width="10.8516" style="1" customWidth="1"/>
-    <col min="134" max="134" width="10.8516" style="1" customWidth="1"/>
-    <col min="135" max="135" width="10.8516" style="1" customWidth="1"/>
-    <col min="136" max="136" width="10.8516" style="1" customWidth="1"/>
-    <col min="137" max="137" width="10.8516" style="1" customWidth="1"/>
-    <col min="138" max="138" width="10.8516" style="1" customWidth="1"/>
-    <col min="139" max="139" width="10.8516" style="1" customWidth="1"/>
-    <col min="140" max="140" width="10.8516" style="1" customWidth="1"/>
-    <col min="141" max="141" width="10.8516" style="1" customWidth="1"/>
-    <col min="142" max="142" width="10.8516" style="1" customWidth="1"/>
-    <col min="143" max="143" width="10.8516" style="1" customWidth="1"/>
-    <col min="144" max="144" width="10.8516" style="1" customWidth="1"/>
-    <col min="145" max="145" width="10.8516" style="1" customWidth="1"/>
-    <col min="146" max="146" width="10.8516" style="1" customWidth="1"/>
-    <col min="147" max="147" width="10.8516" style="1" customWidth="1"/>
-    <col min="148" max="148" width="10.8516" style="1" customWidth="1"/>
-    <col min="149" max="149" width="10.8516" style="1" customWidth="1"/>
-    <col min="150" max="150" width="10.8516" style="1" customWidth="1"/>
-    <col min="151" max="151" width="10.8516" style="1" customWidth="1"/>
-    <col min="152" max="152" width="10.8516" style="1" customWidth="1"/>
-    <col min="153" max="153" width="10.8516" style="1" customWidth="1"/>
-    <col min="154" max="154" width="10.8516" style="1" customWidth="1"/>
-    <col min="155" max="155" width="10.8516" style="1" customWidth="1"/>
-    <col min="156" max="156" width="10.8516" style="1" customWidth="1"/>
-    <col min="157" max="157" width="10.8516" style="1" customWidth="1"/>
-    <col min="158" max="158" width="10.8516" style="1" customWidth="1"/>
-    <col min="159" max="159" width="10.8516" style="1" customWidth="1"/>
-    <col min="160" max="160" width="10.8516" style="1" customWidth="1"/>
-    <col min="161" max="161" width="10.8516" style="1" customWidth="1"/>
-    <col min="162" max="162" width="10.8516" style="1" customWidth="1"/>
-    <col min="163" max="163" width="10.8516" style="1" customWidth="1"/>
-    <col min="164" max="164" width="10.8516" style="1" customWidth="1"/>
-    <col min="165" max="165" width="10.8516" style="1" customWidth="1"/>
-    <col min="166" max="166" width="10.8516" style="1" customWidth="1"/>
-    <col min="167" max="167" width="10.8516" style="1" customWidth="1"/>
-    <col min="168" max="168" width="10.8516" style="1" customWidth="1"/>
-    <col min="169" max="169" width="10.8516" style="1" customWidth="1"/>
-    <col min="170" max="170" width="10.8516" style="1" customWidth="1"/>
-    <col min="171" max="171" width="10.8516" style="1" customWidth="1"/>
-    <col min="172" max="172" width="10.8516" style="1" customWidth="1"/>
-    <col min="173" max="173" width="10.8516" style="1" customWidth="1"/>
-    <col min="174" max="174" width="10.8516" style="1" customWidth="1"/>
-    <col min="175" max="175" width="10.8516" style="1" customWidth="1"/>
-    <col min="176" max="176" width="10.8516" style="1" customWidth="1"/>
-    <col min="177" max="177" width="10.8516" style="1" customWidth="1"/>
-    <col min="178" max="178" width="10.8516" style="1" customWidth="1"/>
-    <col min="179" max="179" width="10.8516" style="1" customWidth="1"/>
-    <col min="180" max="180" width="10.8516" style="1" customWidth="1"/>
-    <col min="181" max="181" width="10.8516" style="1" customWidth="1"/>
-    <col min="182" max="182" width="10.8516" style="1" customWidth="1"/>
-    <col min="183" max="183" width="10.8516" style="1" customWidth="1"/>
-    <col min="184" max="184" width="10.8516" style="1" customWidth="1"/>
-    <col min="185" max="185" width="10.8516" style="1" customWidth="1"/>
-    <col min="186" max="186" width="10.8516" style="1" customWidth="1"/>
-    <col min="187" max="187" width="10.8516" style="1" customWidth="1"/>
-    <col min="188" max="188" width="10.8516" style="1" customWidth="1"/>
-    <col min="189" max="189" width="10.8516" style="1" customWidth="1"/>
-    <col min="190" max="190" width="10.8516" style="1" customWidth="1"/>
-    <col min="191" max="191" width="10.8516" style="1" customWidth="1"/>
-    <col min="192" max="192" width="10.8516" style="1" customWidth="1"/>
-    <col min="193" max="193" width="10.8516" style="1" customWidth="1"/>
-    <col min="194" max="194" width="10.8516" style="1" customWidth="1"/>
-    <col min="195" max="195" width="10.8516" style="1" customWidth="1"/>
-    <col min="196" max="196" width="10.8516" style="1" customWidth="1"/>
-    <col min="197" max="197" width="10.8516" style="1" customWidth="1"/>
-    <col min="198" max="198" width="10.8516" style="1" customWidth="1"/>
-    <col min="199" max="199" width="10.8516" style="1" customWidth="1"/>
-    <col min="200" max="200" width="10.8516" style="1" customWidth="1"/>
-    <col min="201" max="201" width="10.8516" style="1" customWidth="1"/>
-    <col min="202" max="202" width="10.8516" style="1" customWidth="1"/>
-    <col min="203" max="203" width="10.8516" style="1" customWidth="1"/>
-    <col min="204" max="204" width="10.8516" style="1" customWidth="1"/>
-    <col min="205" max="205" width="10.8516" style="1" customWidth="1"/>
-    <col min="206" max="206" width="10.8516" style="1" customWidth="1"/>
-    <col min="207" max="207" width="10.8516" style="1" customWidth="1"/>
-    <col min="208" max="208" width="10.8516" style="1" customWidth="1"/>
-    <col min="209" max="209" width="10.8516" style="1" customWidth="1"/>
-    <col min="210" max="210" width="10.8516" style="1" customWidth="1"/>
-    <col min="211" max="211" width="10.8516" style="1" customWidth="1"/>
-    <col min="212" max="212" width="10.8516" style="1" customWidth="1"/>
-    <col min="213" max="213" width="10.8516" style="1" customWidth="1"/>
-    <col min="214" max="214" width="10.8516" style="1" customWidth="1"/>
-    <col min="215" max="215" width="10.8516" style="1" customWidth="1"/>
-    <col min="216" max="216" width="10.8516" style="1" customWidth="1"/>
-    <col min="217" max="217" width="10.8516" style="1" customWidth="1"/>
-    <col min="218" max="218" width="10.8516" style="1" customWidth="1"/>
-    <col min="219" max="219" width="10.8516" style="1" customWidth="1"/>
-    <col min="220" max="220" width="10.8516" style="1" customWidth="1"/>
-    <col min="221" max="221" width="10.8516" style="1" customWidth="1"/>
-    <col min="222" max="222" width="10.8516" style="1" customWidth="1"/>
-    <col min="223" max="223" width="10.8516" style="1" customWidth="1"/>
-    <col min="224" max="224" width="10.8516" style="1" customWidth="1"/>
-    <col min="225" max="225" width="10.8516" style="1" customWidth="1"/>
-    <col min="226" max="226" width="10.8516" style="1" customWidth="1"/>
-    <col min="227" max="227" width="10.8516" style="1" customWidth="1"/>
-    <col min="228" max="228" width="10.8516" style="1" customWidth="1"/>
-    <col min="229" max="229" width="10.8516" style="1" customWidth="1"/>
-    <col min="230" max="230" width="10.8516" style="1" customWidth="1"/>
-    <col min="231" max="231" width="10.8516" style="1" customWidth="1"/>
-    <col min="232" max="232" width="10.8516" style="1" customWidth="1"/>
-    <col min="233" max="233" width="10.8516" style="1" customWidth="1"/>
-    <col min="234" max="234" width="10.8516" style="1" customWidth="1"/>
-    <col min="235" max="235" width="10.8516" style="1" customWidth="1"/>
-    <col min="236" max="236" width="10.8516" style="1" customWidth="1"/>
-    <col min="237" max="237" width="10.8516" style="1" customWidth="1"/>
-    <col min="238" max="238" width="10.8516" style="1" customWidth="1"/>
-    <col min="239" max="239" width="10.8516" style="1" customWidth="1"/>
-    <col min="240" max="240" width="10.8516" style="1" customWidth="1"/>
-    <col min="241" max="241" width="10.8516" style="1" customWidth="1"/>
-    <col min="242" max="242" width="10.8516" style="1" customWidth="1"/>
-    <col min="243" max="243" width="10.8516" style="1" customWidth="1"/>
-    <col min="244" max="244" width="10.8516" style="1" customWidth="1"/>
-    <col min="245" max="245" width="10.8516" style="1" customWidth="1"/>
-    <col min="246" max="246" width="10.8516" style="1" customWidth="1"/>
-    <col min="247" max="247" width="10.8516" style="1" customWidth="1"/>
-    <col min="248" max="248" width="10.8516" style="1" customWidth="1"/>
-    <col min="249" max="249" width="10.8516" style="1" customWidth="1"/>
-    <col min="250" max="250" width="10.8516" style="1" customWidth="1"/>
-    <col min="251" max="251" width="10.8516" style="1" customWidth="1"/>
-    <col min="252" max="252" width="10.8516" style="1" customWidth="1"/>
-    <col min="253" max="253" width="10.8516" style="1" customWidth="1"/>
-    <col min="254" max="254" width="10.8516" style="1" customWidth="1"/>
-    <col min="255" max="255" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="255" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3446,22 +3251,22 @@
       <c r="IT1" s="4"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="9">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" t="s" s="11">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="12"/>
@@ -3713,18 +3518,18 @@
       <c r="IT2" s="12"/>
       <c r="IU2" s="13"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10"/>
@@ -3978,18 +3783,18 @@
       <c r="IT3" s="12"/>
       <c r="IU3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="10"/>
@@ -4243,18 +4048,18 @@
       <c r="IT4" s="12"/>
       <c r="IU4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s" s="16">
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="10"/>
@@ -4508,18 +4313,18 @@
       <c r="IT5" s="12"/>
       <c r="IU5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="9">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="10"/>
@@ -4773,18 +4578,18 @@
       <c r="IT6" s="12"/>
       <c r="IU6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" t="s" s="14">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s" s="16">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="10"/>
@@ -5038,18 +4843,18 @@
       <c r="IT7" s="12"/>
       <c r="IU7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="10"/>
@@ -5303,18 +5108,18 @@
       <c r="IT8" s="12"/>
       <c r="IU8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s" s="16">
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="10"/>
@@ -5568,18 +5373,18 @@
       <c r="IT9" s="12"/>
       <c r="IU9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="10"/>
@@ -5833,18 +5638,18 @@
       <c r="IT10" s="12"/>
       <c r="IU10" s="13"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" t="s" s="14">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s" s="15">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s" s="14">
+      <c r="D11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s" s="16">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="10"/>
@@ -6098,18 +5903,18 @@
       <c r="IT11" s="12"/>
       <c r="IU11" s="13"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s" s="7">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="10"/>
@@ -6363,12 +6168,12 @@
       <c r="IT12" s="12"/>
       <c r="IU12" s="13"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" t="s" s="14">
+      <c r="B13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s" s="15">
+      <c r="C13" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="14"/>
@@ -6624,7 +6429,7 @@
       <c r="IT13" s="12"/>
       <c r="IU13" s="13"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -6881,18 +6686,18 @@
       <c r="IT14" s="12"/>
       <c r="IU14" s="13"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" t="s" s="19">
+      <c r="B15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="20">
+      <c r="C15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s" s="21">
+      <c r="D15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s" s="22">
+      <c r="E15" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="23"/>
@@ -7146,22 +6951,22 @@
       <c r="IT15" s="12"/>
       <c r="IU15" s="13"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s" s="24">
+      <c r="D16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s" s="8">
+      <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" t="s" s="11">
+      <c r="G16" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="12"/>
@@ -7413,18 +7218,18 @@
       <c r="IT16" s="12"/>
       <c r="IU16" s="13"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" t="s" s="14">
+      <c r="B17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s" s="16">
+      <c r="C17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s" s="25">
+      <c r="D17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s" s="15">
+      <c r="E17" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="23"/>
@@ -7678,18 +7483,18 @@
       <c r="IT17" s="12"/>
       <c r="IU17" s="13"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s" s="9">
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s" s="24">
+      <c r="D18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s" s="8">
+      <c r="E18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="23"/>
@@ -7943,18 +7748,18 @@
       <c r="IT18" s="12"/>
       <c r="IU18" s="13"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" t="s" s="14">
+      <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s" s="16">
+      <c r="C19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s" s="25">
+      <c r="D19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s" s="15">
+      <c r="E19" s="15" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="23"/>
@@ -8208,15 +8013,15 @@
       <c r="IT19" s="12"/>
       <c r="IU19" s="13"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s" s="24">
+      <c r="D20" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="8"/>
@@ -8471,18 +8276,18 @@
       <c r="IT20" s="12"/>
       <c r="IU20" s="13"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" t="s" s="14">
+      <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s" s="16">
+      <c r="C21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s" s="25">
+      <c r="D21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s" s="15">
+      <c r="E21" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="23"/>
@@ -8736,18 +8541,18 @@
       <c r="IT21" s="12"/>
       <c r="IU21" s="13"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s" s="9">
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s" s="24">
+      <c r="D22" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E22" t="s" s="8">
+      <c r="E22" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="23"/>
@@ -9001,18 +8806,18 @@
       <c r="IT22" s="12"/>
       <c r="IU22" s="13"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" t="s" s="14">
+      <c r="B23" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s" s="16">
+      <c r="C23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s" s="25">
+      <c r="D23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s" s="15">
+      <c r="E23" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="23"/>
@@ -9266,12 +9071,12 @@
       <c r="IT23" s="12"/>
       <c r="IU23" s="13"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" t="s" s="26">
+      <c r="B24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s" s="27">
+      <c r="C24" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="28"/>
@@ -9527,7 +9332,7 @@
       <c r="IT24" s="12"/>
       <c r="IU24" s="13"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -9784,7 +9589,7 @@
       <c r="IT25" s="12"/>
       <c r="IU25" s="13"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -10041,16 +9846,16 @@
       <c r="IT26" s="12"/>
       <c r="IU26" s="13"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" t="s" s="19">
+      <c r="B27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s" s="22">
+      <c r="C27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="23"/>
-      <c r="E27" t="s" s="11">
+      <c r="E27" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="12"/>
@@ -10304,12 +10109,12 @@
       <c r="IT27" s="12"/>
       <c r="IU27" s="13"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="23"/>
@@ -10565,12 +10370,12 @@
       <c r="IT28" s="12"/>
       <c r="IU28" s="13"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" t="s" s="14">
+      <c r="B29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s" s="15">
+      <c r="C29" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="23"/>
@@ -10826,12 +10631,12 @@
       <c r="IT29" s="12"/>
       <c r="IU29" s="13"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="23"/>
@@ -11087,12 +10892,12 @@
       <c r="IT30" s="12"/>
       <c r="IU30" s="13"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" t="s" s="14">
+      <c r="B31" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s" s="15">
+      <c r="C31" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="23"/>
@@ -11348,12 +11153,12 @@
       <c r="IT31" s="12"/>
       <c r="IU31" s="13"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="23"/>
@@ -11609,12 +11414,12 @@
       <c r="IT32" s="12"/>
       <c r="IU32" s="13"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" t="s" s="14">
+      <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s" s="15">
+      <c r="C33" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D33" s="23"/>
@@ -11870,12 +11675,12 @@
       <c r="IT33" s="12"/>
       <c r="IU33" s="13"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="23"/>
@@ -12131,12 +11936,12 @@
       <c r="IT34" s="12"/>
       <c r="IU34" s="13"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" t="s" s="14">
+      <c r="B35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s" s="15">
+      <c r="C35" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D35" s="23"/>
@@ -12392,12 +12197,12 @@
       <c r="IT35" s="12"/>
       <c r="IU35" s="13"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" t="s" s="26">
+      <c r="B36" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C36" t="s" s="29">
+      <c r="C36" s="29" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="23"/>
@@ -12653,7 +12458,7 @@
       <c r="IT36" s="12"/>
       <c r="IU36" s="13"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -12910,7 +12715,7 @@
       <c r="IT37" s="12"/>
       <c r="IU37" s="13"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -13167,16 +12972,16 @@
       <c r="IT38" s="12"/>
       <c r="IU38" s="13"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" t="s" s="19">
+      <c r="B39" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s" s="22">
+      <c r="C39" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="23"/>
-      <c r="E39" t="s" s="11">
+      <c r="E39" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F39" s="12"/>
@@ -13430,16 +13235,16 @@
       <c r="IT39" s="12"/>
       <c r="IU39" s="13"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D40" s="23"/>
-      <c r="E40" t="s" s="11">
+      <c r="E40" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F40" s="12"/>
@@ -13693,12 +13498,12 @@
       <c r="IT40" s="12"/>
       <c r="IU40" s="13"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" t="s" s="14">
+      <c r="B41" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C41" t="s" s="15">
+      <c r="C41" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="23"/>
@@ -13954,12 +13759,12 @@
       <c r="IT41" s="12"/>
       <c r="IU41" s="13"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D42" s="23"/>
@@ -14215,12 +14020,12 @@
       <c r="IT42" s="12"/>
       <c r="IU42" s="13"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" t="s" s="14">
+      <c r="B43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s" s="15">
+      <c r="C43" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="23"/>
@@ -14476,12 +14281,12 @@
       <c r="IT43" s="12"/>
       <c r="IU43" s="13"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" t="s" s="26">
+      <c r="B44" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C44" t="s" s="29">
+      <c r="C44" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="23"/>
@@ -14737,7 +14542,7 @@
       <c r="IT44" s="12"/>
       <c r="IU44" s="13"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -14994,7 +14799,7 @@
       <c r="IT45" s="12"/>
       <c r="IU45" s="13"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -15251,16 +15056,16 @@
       <c r="IT46" s="12"/>
       <c r="IU46" s="13"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" t="s" s="19">
+      <c r="B47" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C47" t="s" s="22">
+      <c r="C47" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" t="s" s="11">
+      <c r="E47" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F47" s="12"/>
@@ -15514,12 +15319,12 @@
       <c r="IT47" s="12"/>
       <c r="IU47" s="13"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" t="s" s="26">
+      <c r="B48" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s" s="29">
+      <c r="C48" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D48" s="23"/>
@@ -15775,7 +15580,7 @@
       <c r="IT48" s="12"/>
       <c r="IU48" s="13"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -16032,7 +15837,7 @@
       <c r="IT49" s="12"/>
       <c r="IU49" s="13"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -16289,16 +16094,16 @@
       <c r="IT50" s="12"/>
       <c r="IU50" s="13"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" t="s" s="19">
+      <c r="B51" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C51" t="s" s="22">
+      <c r="C51" s="22" t="s">
         <v>120</v>
       </c>
       <c r="D51" s="23"/>
-      <c r="E51" t="s" s="11">
+      <c r="E51" s="11" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="12"/>
@@ -16552,12 +16357,12 @@
       <c r="IT51" s="12"/>
       <c r="IU51" s="13"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D52" s="23"/>
@@ -16813,12 +16618,12 @@
       <c r="IT52" s="12"/>
       <c r="IU52" s="13"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" t="s" s="14">
+      <c r="B53" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C53" t="s" s="15">
+      <c r="C53" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D53" s="23"/>
@@ -17074,12 +16879,12 @@
       <c r="IT53" s="12"/>
       <c r="IU53" s="13"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" t="s" s="26">
+      <c r="B54" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C54" t="s" s="29">
+      <c r="C54" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D54" s="23"/>
@@ -17335,12 +17140,12 @@
       <c r="IT54" s="12"/>
       <c r="IU54" s="13"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:255" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="12"/>
-      <c r="E55" t="s" s="11">
+      <c r="E55" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="12"/>
@@ -17594,12 +17399,12 @@
       <c r="IT55" s="12"/>
       <c r="IU55" s="13"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" t="s" s="19">
+      <c r="B56" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C56" t="s" s="22">
+      <c r="C56" s="22" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="23"/>
@@ -17855,12 +17660,12 @@
       <c r="IT56" s="12"/>
       <c r="IU56" s="13"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C57" t="s" s="8">
+      <c r="C57" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D57" s="23"/>
@@ -18116,12 +17921,12 @@
       <c r="IT57" s="12"/>
       <c r="IU57" s="13"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" t="s" s="33">
+      <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="s" s="34">
+      <c r="C58" s="15" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="23"/>
@@ -18377,270 +18182,270 @@
       <c r="IT58" s="12"/>
       <c r="IU58" s="13"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="35"/>
-      <c r="B59" t="s" s="36">
+    <row r="59" spans="1:255" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33"/>
+      <c r="B59" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C59" t="s" s="37">
+      <c r="C59" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="39"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="39"/>
-      <c r="AZ59" s="39"/>
-      <c r="BA59" s="39"/>
-      <c r="BB59" s="39"/>
-      <c r="BC59" s="39"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="39"/>
-      <c r="BF59" s="39"/>
-      <c r="BG59" s="39"/>
-      <c r="BH59" s="39"/>
-      <c r="BI59" s="39"/>
-      <c r="BJ59" s="39"/>
-      <c r="BK59" s="39"/>
-      <c r="BL59" s="39"/>
-      <c r="BM59" s="39"/>
-      <c r="BN59" s="39"/>
-      <c r="BO59" s="39"/>
-      <c r="BP59" s="39"/>
-      <c r="BQ59" s="39"/>
-      <c r="BR59" s="39"/>
-      <c r="BS59" s="39"/>
-      <c r="BT59" s="39"/>
-      <c r="BU59" s="39"/>
-      <c r="BV59" s="39"/>
-      <c r="BW59" s="39"/>
-      <c r="BX59" s="39"/>
-      <c r="BY59" s="39"/>
-      <c r="BZ59" s="39"/>
-      <c r="CA59" s="39"/>
-      <c r="CB59" s="39"/>
-      <c r="CC59" s="39"/>
-      <c r="CD59" s="39"/>
-      <c r="CE59" s="39"/>
-      <c r="CF59" s="39"/>
-      <c r="CG59" s="39"/>
-      <c r="CH59" s="39"/>
-      <c r="CI59" s="39"/>
-      <c r="CJ59" s="39"/>
-      <c r="CK59" s="39"/>
-      <c r="CL59" s="39"/>
-      <c r="CM59" s="39"/>
-      <c r="CN59" s="39"/>
-      <c r="CO59" s="39"/>
-      <c r="CP59" s="39"/>
-      <c r="CQ59" s="39"/>
-      <c r="CR59" s="39"/>
-      <c r="CS59" s="39"/>
-      <c r="CT59" s="39"/>
-      <c r="CU59" s="39"/>
-      <c r="CV59" s="39"/>
-      <c r="CW59" s="39"/>
-      <c r="CX59" s="39"/>
-      <c r="CY59" s="39"/>
-      <c r="CZ59" s="39"/>
-      <c r="DA59" s="39"/>
-      <c r="DB59" s="39"/>
-      <c r="DC59" s="39"/>
-      <c r="DD59" s="39"/>
-      <c r="DE59" s="39"/>
-      <c r="DF59" s="39"/>
-      <c r="DG59" s="39"/>
-      <c r="DH59" s="39"/>
-      <c r="DI59" s="39"/>
-      <c r="DJ59" s="39"/>
-      <c r="DK59" s="39"/>
-      <c r="DL59" s="39"/>
-      <c r="DM59" s="39"/>
-      <c r="DN59" s="39"/>
-      <c r="DO59" s="39"/>
-      <c r="DP59" s="39"/>
-      <c r="DQ59" s="39"/>
-      <c r="DR59" s="39"/>
-      <c r="DS59" s="39"/>
-      <c r="DT59" s="39"/>
-      <c r="DU59" s="39"/>
-      <c r="DV59" s="39"/>
-      <c r="DW59" s="39"/>
-      <c r="DX59" s="39"/>
-      <c r="DY59" s="39"/>
-      <c r="DZ59" s="39"/>
-      <c r="EA59" s="39"/>
-      <c r="EB59" s="39"/>
-      <c r="EC59" s="39"/>
-      <c r="ED59" s="39"/>
-      <c r="EE59" s="39"/>
-      <c r="EF59" s="39"/>
-      <c r="EG59" s="39"/>
-      <c r="EH59" s="39"/>
-      <c r="EI59" s="39"/>
-      <c r="EJ59" s="39"/>
-      <c r="EK59" s="39"/>
-      <c r="EL59" s="39"/>
-      <c r="EM59" s="39"/>
-      <c r="EN59" s="39"/>
-      <c r="EO59" s="39"/>
-      <c r="EP59" s="39"/>
-      <c r="EQ59" s="39"/>
-      <c r="ER59" s="39"/>
-      <c r="ES59" s="39"/>
-      <c r="ET59" s="39"/>
-      <c r="EU59" s="39"/>
-      <c r="EV59" s="39"/>
-      <c r="EW59" s="39"/>
-      <c r="EX59" s="39"/>
-      <c r="EY59" s="39"/>
-      <c r="EZ59" s="39"/>
-      <c r="FA59" s="39"/>
-      <c r="FB59" s="39"/>
-      <c r="FC59" s="39"/>
-      <c r="FD59" s="39"/>
-      <c r="FE59" s="39"/>
-      <c r="FF59" s="39"/>
-      <c r="FG59" s="39"/>
-      <c r="FH59" s="39"/>
-      <c r="FI59" s="39"/>
-      <c r="FJ59" s="39"/>
-      <c r="FK59" s="39"/>
-      <c r="FL59" s="39"/>
-      <c r="FM59" s="39"/>
-      <c r="FN59" s="39"/>
-      <c r="FO59" s="39"/>
-      <c r="FP59" s="39"/>
-      <c r="FQ59" s="39"/>
-      <c r="FR59" s="39"/>
-      <c r="FS59" s="39"/>
-      <c r="FT59" s="39"/>
-      <c r="FU59" s="39"/>
-      <c r="FV59" s="39"/>
-      <c r="FW59" s="39"/>
-      <c r="FX59" s="39"/>
-      <c r="FY59" s="39"/>
-      <c r="FZ59" s="39"/>
-      <c r="GA59" s="39"/>
-      <c r="GB59" s="39"/>
-      <c r="GC59" s="39"/>
-      <c r="GD59" s="39"/>
-      <c r="GE59" s="39"/>
-      <c r="GF59" s="39"/>
-      <c r="GG59" s="39"/>
-      <c r="GH59" s="39"/>
-      <c r="GI59" s="39"/>
-      <c r="GJ59" s="39"/>
-      <c r="GK59" s="39"/>
-      <c r="GL59" s="39"/>
-      <c r="GM59" s="39"/>
-      <c r="GN59" s="39"/>
-      <c r="GO59" s="39"/>
-      <c r="GP59" s="39"/>
-      <c r="GQ59" s="39"/>
-      <c r="GR59" s="39"/>
-      <c r="GS59" s="39"/>
-      <c r="GT59" s="39"/>
-      <c r="GU59" s="39"/>
-      <c r="GV59" s="39"/>
-      <c r="GW59" s="39"/>
-      <c r="GX59" s="39"/>
-      <c r="GY59" s="39"/>
-      <c r="GZ59" s="39"/>
-      <c r="HA59" s="39"/>
-      <c r="HB59" s="39"/>
-      <c r="HC59" s="39"/>
-      <c r="HD59" s="39"/>
-      <c r="HE59" s="39"/>
-      <c r="HF59" s="39"/>
-      <c r="HG59" s="39"/>
-      <c r="HH59" s="39"/>
-      <c r="HI59" s="39"/>
-      <c r="HJ59" s="39"/>
-      <c r="HK59" s="39"/>
-      <c r="HL59" s="39"/>
-      <c r="HM59" s="39"/>
-      <c r="HN59" s="39"/>
-      <c r="HO59" s="39"/>
-      <c r="HP59" s="39"/>
-      <c r="HQ59" s="39"/>
-      <c r="HR59" s="39"/>
-      <c r="HS59" s="39"/>
-      <c r="HT59" s="39"/>
-      <c r="HU59" s="39"/>
-      <c r="HV59" s="39"/>
-      <c r="HW59" s="39"/>
-      <c r="HX59" s="39"/>
-      <c r="HY59" s="39"/>
-      <c r="HZ59" s="39"/>
-      <c r="IA59" s="39"/>
-      <c r="IB59" s="39"/>
-      <c r="IC59" s="39"/>
-      <c r="ID59" s="39"/>
-      <c r="IE59" s="39"/>
-      <c r="IF59" s="39"/>
-      <c r="IG59" s="39"/>
-      <c r="IH59" s="39"/>
-      <c r="II59" s="39"/>
-      <c r="IJ59" s="39"/>
-      <c r="IK59" s="39"/>
-      <c r="IL59" s="39"/>
-      <c r="IM59" s="39"/>
-      <c r="IN59" s="39"/>
-      <c r="IO59" s="39"/>
-      <c r="IP59" s="39"/>
-      <c r="IQ59" s="39"/>
-      <c r="IR59" s="39"/>
-      <c r="IS59" s="39"/>
-      <c r="IT59" s="39"/>
-      <c r="IU59" s="40"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
+      <c r="AR59" s="35"/>
+      <c r="AS59" s="35"/>
+      <c r="AT59" s="35"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="35"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="35"/>
+      <c r="AY59" s="35"/>
+      <c r="AZ59" s="35"/>
+      <c r="BA59" s="35"/>
+      <c r="BB59" s="35"/>
+      <c r="BC59" s="35"/>
+      <c r="BD59" s="35"/>
+      <c r="BE59" s="35"/>
+      <c r="BF59" s="35"/>
+      <c r="BG59" s="35"/>
+      <c r="BH59" s="35"/>
+      <c r="BI59" s="35"/>
+      <c r="BJ59" s="35"/>
+      <c r="BK59" s="35"/>
+      <c r="BL59" s="35"/>
+      <c r="BM59" s="35"/>
+      <c r="BN59" s="35"/>
+      <c r="BO59" s="35"/>
+      <c r="BP59" s="35"/>
+      <c r="BQ59" s="35"/>
+      <c r="BR59" s="35"/>
+      <c r="BS59" s="35"/>
+      <c r="BT59" s="35"/>
+      <c r="BU59" s="35"/>
+      <c r="BV59" s="35"/>
+      <c r="BW59" s="35"/>
+      <c r="BX59" s="35"/>
+      <c r="BY59" s="35"/>
+      <c r="BZ59" s="35"/>
+      <c r="CA59" s="35"/>
+      <c r="CB59" s="35"/>
+      <c r="CC59" s="35"/>
+      <c r="CD59" s="35"/>
+      <c r="CE59" s="35"/>
+      <c r="CF59" s="35"/>
+      <c r="CG59" s="35"/>
+      <c r="CH59" s="35"/>
+      <c r="CI59" s="35"/>
+      <c r="CJ59" s="35"/>
+      <c r="CK59" s="35"/>
+      <c r="CL59" s="35"/>
+      <c r="CM59" s="35"/>
+      <c r="CN59" s="35"/>
+      <c r="CO59" s="35"/>
+      <c r="CP59" s="35"/>
+      <c r="CQ59" s="35"/>
+      <c r="CR59" s="35"/>
+      <c r="CS59" s="35"/>
+      <c r="CT59" s="35"/>
+      <c r="CU59" s="35"/>
+      <c r="CV59" s="35"/>
+      <c r="CW59" s="35"/>
+      <c r="CX59" s="35"/>
+      <c r="CY59" s="35"/>
+      <c r="CZ59" s="35"/>
+      <c r="DA59" s="35"/>
+      <c r="DB59" s="35"/>
+      <c r="DC59" s="35"/>
+      <c r="DD59" s="35"/>
+      <c r="DE59" s="35"/>
+      <c r="DF59" s="35"/>
+      <c r="DG59" s="35"/>
+      <c r="DH59" s="35"/>
+      <c r="DI59" s="35"/>
+      <c r="DJ59" s="35"/>
+      <c r="DK59" s="35"/>
+      <c r="DL59" s="35"/>
+      <c r="DM59" s="35"/>
+      <c r="DN59" s="35"/>
+      <c r="DO59" s="35"/>
+      <c r="DP59" s="35"/>
+      <c r="DQ59" s="35"/>
+      <c r="DR59" s="35"/>
+      <c r="DS59" s="35"/>
+      <c r="DT59" s="35"/>
+      <c r="DU59" s="35"/>
+      <c r="DV59" s="35"/>
+      <c r="DW59" s="35"/>
+      <c r="DX59" s="35"/>
+      <c r="DY59" s="35"/>
+      <c r="DZ59" s="35"/>
+      <c r="EA59" s="35"/>
+      <c r="EB59" s="35"/>
+      <c r="EC59" s="35"/>
+      <c r="ED59" s="35"/>
+      <c r="EE59" s="35"/>
+      <c r="EF59" s="35"/>
+      <c r="EG59" s="35"/>
+      <c r="EH59" s="35"/>
+      <c r="EI59" s="35"/>
+      <c r="EJ59" s="35"/>
+      <c r="EK59" s="35"/>
+      <c r="EL59" s="35"/>
+      <c r="EM59" s="35"/>
+      <c r="EN59" s="35"/>
+      <c r="EO59" s="35"/>
+      <c r="EP59" s="35"/>
+      <c r="EQ59" s="35"/>
+      <c r="ER59" s="35"/>
+      <c r="ES59" s="35"/>
+      <c r="ET59" s="35"/>
+      <c r="EU59" s="35"/>
+      <c r="EV59" s="35"/>
+      <c r="EW59" s="35"/>
+      <c r="EX59" s="35"/>
+      <c r="EY59" s="35"/>
+      <c r="EZ59" s="35"/>
+      <c r="FA59" s="35"/>
+      <c r="FB59" s="35"/>
+      <c r="FC59" s="35"/>
+      <c r="FD59" s="35"/>
+      <c r="FE59" s="35"/>
+      <c r="FF59" s="35"/>
+      <c r="FG59" s="35"/>
+      <c r="FH59" s="35"/>
+      <c r="FI59" s="35"/>
+      <c r="FJ59" s="35"/>
+      <c r="FK59" s="35"/>
+      <c r="FL59" s="35"/>
+      <c r="FM59" s="35"/>
+      <c r="FN59" s="35"/>
+      <c r="FO59" s="35"/>
+      <c r="FP59" s="35"/>
+      <c r="FQ59" s="35"/>
+      <c r="FR59" s="35"/>
+      <c r="FS59" s="35"/>
+      <c r="FT59" s="35"/>
+      <c r="FU59" s="35"/>
+      <c r="FV59" s="35"/>
+      <c r="FW59" s="35"/>
+      <c r="FX59" s="35"/>
+      <c r="FY59" s="35"/>
+      <c r="FZ59" s="35"/>
+      <c r="GA59" s="35"/>
+      <c r="GB59" s="35"/>
+      <c r="GC59" s="35"/>
+      <c r="GD59" s="35"/>
+      <c r="GE59" s="35"/>
+      <c r="GF59" s="35"/>
+      <c r="GG59" s="35"/>
+      <c r="GH59" s="35"/>
+      <c r="GI59" s="35"/>
+      <c r="GJ59" s="35"/>
+      <c r="GK59" s="35"/>
+      <c r="GL59" s="35"/>
+      <c r="GM59" s="35"/>
+      <c r="GN59" s="35"/>
+      <c r="GO59" s="35"/>
+      <c r="GP59" s="35"/>
+      <c r="GQ59" s="35"/>
+      <c r="GR59" s="35"/>
+      <c r="GS59" s="35"/>
+      <c r="GT59" s="35"/>
+      <c r="GU59" s="35"/>
+      <c r="GV59" s="35"/>
+      <c r="GW59" s="35"/>
+      <c r="GX59" s="35"/>
+      <c r="GY59" s="35"/>
+      <c r="GZ59" s="35"/>
+      <c r="HA59" s="35"/>
+      <c r="HB59" s="35"/>
+      <c r="HC59" s="35"/>
+      <c r="HD59" s="35"/>
+      <c r="HE59" s="35"/>
+      <c r="HF59" s="35"/>
+      <c r="HG59" s="35"/>
+      <c r="HH59" s="35"/>
+      <c r="HI59" s="35"/>
+      <c r="HJ59" s="35"/>
+      <c r="HK59" s="35"/>
+      <c r="HL59" s="35"/>
+      <c r="HM59" s="35"/>
+      <c r="HN59" s="35"/>
+      <c r="HO59" s="35"/>
+      <c r="HP59" s="35"/>
+      <c r="HQ59" s="35"/>
+      <c r="HR59" s="35"/>
+      <c r="HS59" s="35"/>
+      <c r="HT59" s="35"/>
+      <c r="HU59" s="35"/>
+      <c r="HV59" s="35"/>
+      <c r="HW59" s="35"/>
+      <c r="HX59" s="35"/>
+      <c r="HY59" s="35"/>
+      <c r="HZ59" s="35"/>
+      <c r="IA59" s="35"/>
+      <c r="IB59" s="35"/>
+      <c r="IC59" s="35"/>
+      <c r="ID59" s="35"/>
+      <c r="IE59" s="35"/>
+      <c r="IF59" s="35"/>
+      <c r="IG59" s="35"/>
+      <c r="IH59" s="35"/>
+      <c r="II59" s="35"/>
+      <c r="IJ59" s="35"/>
+      <c r="IK59" s="35"/>
+      <c r="IL59" s="35"/>
+      <c r="IM59" s="35"/>
+      <c r="IN59" s="35"/>
+      <c r="IO59" s="35"/>
+      <c r="IP59" s="35"/>
+      <c r="IQ59" s="35"/>
+      <c r="IR59" s="35"/>
+      <c r="IS59" s="35"/>
+      <c r="IT59" s="35"/>
+      <c r="IU59" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -18648,533 +18453,526 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3516" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="41" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="41" customWidth="1"/>
-    <col min="4" max="4" width="15" style="41" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="41" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="41" customWidth="1"/>
-    <col min="9" max="256" width="9.17188" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="37" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="37" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" t="s" s="42">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="44">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="44">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="45">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s" s="44">
+      <c r="D14" s="39"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s" s="45">
+      <c r="D15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s" s="44">
+      <c r="E15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="45">
+      <c r="F15" s="61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="7">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="D16" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="E16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="F16" s="45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="14">
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="E17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="F17" s="61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="7">
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s" s="8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s" s="15">
+      <c r="B23" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s" s="14">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s" s="15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s" s="8">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s" s="15">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s" s="14">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s" s="15">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s" s="26">
+      <c r="C24" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F11" t="s" s="29">
+      <c r="D24" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s" s="34">
-        <v>44</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" t="s" s="33">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s" s="34">
-        <v>46</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="54">
-        <v>104</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" t="s" s="55">
-        <v>127</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" t="s" s="56">
-        <v>86</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="19">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s" s="22">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s" s="19">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s" s="22">
-        <v>125</v>
-      </c>
-      <c r="E16" t="s" s="19">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s" s="15">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s" s="33">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s" s="34">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s" s="15">
-        <v>90</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s" s="57">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s" s="58">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s" s="14">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="B20" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="59"/>
-      <c r="E20" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="F20" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="26">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s" s="29">
-        <v>113</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="59"/>
-      <c r="E21" t="s" s="14">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s" s="15">
-        <v>94</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="59"/>
-      <c r="E22" t="s" s="14">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s" s="15">
-        <v>96</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="59"/>
-      <c r="E23" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="59"/>
-      <c r="E24" t="s" s="14">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s" s="15">
-        <v>100</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="62"/>
-      <c r="E25" t="s" s="33">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s" s="34">
-        <v>102</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="40"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="58"/>
+      <c r="E25" s="12"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511806" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -19182,2013 +18980,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV224"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.1719" style="63" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="63" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="63" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="63" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="63" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="63" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" style="39" customWidth="1"/>
+    <col min="2" max="256" width="10.85546875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="64">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="64">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="64">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="64">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="64">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="64">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="64">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="64">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="64">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="64">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="64">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="64">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="64">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="64">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="64">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="64">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="64">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="64">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="64">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="64">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="64">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="64">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="64">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="64">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="64">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="64">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="64">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="64">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="64">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="64">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="64">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="64">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="64">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="64">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="64">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="64">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="64">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="64">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="64">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="64">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="64">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="64">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="64">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="64">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="64">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="64">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="64">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="64">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="64">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="64">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="64">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="64">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="64">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="64">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="64">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="64">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="64">
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="64">
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="64">
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="64">
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="64">
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="s" s="64">
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="64">
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="64">
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="64">
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="64">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="64">
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="64">
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="64">
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="s" s="64">
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="s" s="64">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="s" s="64">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="s" s="64">
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="64">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="64">
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-    </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" t="s" s="64">
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-    </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" t="s" s="64">
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-    </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" t="s" s="64">
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-    </row>
-    <row r="79" ht="15" customHeight="1">
-      <c r="A79" t="s" s="64">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-    </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" t="s" s="64">
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-    </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="s" s="64">
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="s" s="64">
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-    </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" t="s" s="64">
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="s" s="64">
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-    </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" t="s" s="64">
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-    </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" t="s" s="64">
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-    </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" t="s" s="64">
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="64">
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-    </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" t="s" s="64">
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="64">
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" t="s" s="64">
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" t="s" s="64">
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="64">
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" t="s" s="64">
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="64">
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" t="s" s="64">
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="64">
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" t="s" s="64">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" t="s" s="64">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="64">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" t="s" s="64">
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" t="s" s="64">
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" t="s" s="64">
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" t="s" s="64">
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" t="s" s="64">
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" t="s" s="64">
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="s" s="64">
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" t="s" s="64">
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="A109" t="s" s="64">
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="A110" t="s" s="64">
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="A111" t="s" s="64">
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="A112" t="s" s="64">
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-    </row>
-    <row r="113" ht="15" customHeight="1">
-      <c r="A113" t="s" s="64">
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-    </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="A114" t="s" s="64">
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="65"/>
-    </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="A115" t="s" s="64">
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="A116" t="s" s="64">
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="65"/>
-    </row>
-    <row r="117" ht="15" customHeight="1">
-      <c r="A117" t="s" s="64">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="65"/>
-    </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="A118" t="s" s="64">
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-    </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="A119" t="s" s="64">
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="65"/>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="A120" t="s" s="64">
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="65"/>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="A121" t="s" s="64">
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="A122" t="s" s="64">
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-    </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="A123" t="s" s="64">
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-    </row>
-    <row r="124" ht="15" customHeight="1">
-      <c r="A124" t="s" s="64">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-    </row>
-    <row r="125" ht="15" customHeight="1">
-      <c r="A125" t="s" s="64">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-    </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="A126" t="s" s="64">
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="64">
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="A128" t="s" s="64">
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="A129" t="s" s="64">
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="s" s="64">
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="A131" t="s" s="64">
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="s" s="64">
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="65"/>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="s" s="64">
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="A134" t="s" s="64">
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="65"/>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="A135" t="s" s="64">
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="65"/>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="A136" t="s" s="64">
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="A137" t="s" s="64">
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="65"/>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="A138" t="s" s="64">
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="A139" t="s" s="64">
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="A140" t="s" s="64">
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="A141" t="s" s="64">
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="A142" t="s" s="64">
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="A143" t="s" s="64">
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="65"/>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="s" s="64">
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="65"/>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="s" s="64">
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="65"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="s" s="64">
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="65"/>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="s" s="64">
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="65"/>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="s" s="64">
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="65"/>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="s" s="64">
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="65"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="65"/>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="s" s="64">
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="B150" s="65"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="65"/>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="A151" t="s" s="64">
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="65"/>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="A152" t="s" s="64">
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="B152" s="65"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="65"/>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="A153" t="s" s="64">
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="65"/>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="A154" t="s" s="64">
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="65"/>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" t="s" s="64">
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="s" s="64">
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="B156" s="65"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="65"/>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="s" s="64">
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="65"/>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="s" s="64">
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="B158" s="65"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="65"/>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="A159" t="s" s="64">
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="B159" s="65"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="A160" t="s" s="64">
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="41"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B160" s="65"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="65"/>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="A161" t="s" s="64">
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="41"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="B161" s="65"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="65"/>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="A162" t="s" s="64">
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="41"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="A163" t="s" s="64">
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="41"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B163" s="65"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="s" s="64">
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="41"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="B164" s="65"/>
-      <c r="C164" s="65"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="65"/>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="s" s="64">
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="41"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="B165" s="65"/>
-      <c r="C165" s="65"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="65"/>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="s" s="64">
+      <c r="B165" s="41"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="41"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="B166" s="65"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="65"/>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="s" s="64">
+      <c r="B166" s="41"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="B167" s="65"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="65"/>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="s" s="64">
+      <c r="B167" s="41"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="41"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="65"/>
-      <c r="E168" s="65"/>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="s" s="64">
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="s" s="64">
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="41"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="B170" s="65"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="65"/>
-      <c r="E170" s="65"/>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="s" s="64">
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="B171" s="65"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="s" s="64">
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="41"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="B172" s="65"/>
-      <c r="C172" s="65"/>
-      <c r="D172" s="65"/>
-      <c r="E172" s="65"/>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="s" s="64">
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="41"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="65"/>
-      <c r="C173" s="65"/>
-      <c r="D173" s="65"/>
-      <c r="E173" s="65"/>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="s" s="64">
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="B174" s="65"/>
-      <c r="C174" s="65"/>
-      <c r="D174" s="65"/>
-      <c r="E174" s="65"/>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="s" s="64">
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="41"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="B175" s="65"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="65"/>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="s" s="64">
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B176" s="65"/>
-      <c r="C176" s="65"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="65"/>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="s" s="64">
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="41"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="B177" s="65"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="65"/>
-      <c r="E177" s="65"/>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="s" s="64">
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="B178" s="65"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="65"/>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="s" s="64">
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="41"/>
+      <c r="E178" s="41"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="B179" s="65"/>
-      <c r="C179" s="65"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="65"/>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="s" s="64">
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B180" s="65"/>
-      <c r="C180" s="65"/>
-      <c r="D180" s="65"/>
-      <c r="E180" s="65"/>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="s" s="64">
+      <c r="B180" s="41"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="41"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="65"/>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="s" s="64">
+      <c r="B181" s="41"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="B182" s="65"/>
-      <c r="C182" s="65"/>
-      <c r="D182" s="65"/>
-      <c r="E182" s="65"/>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="s" s="64">
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
+      <c r="E182" s="41"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="B183" s="65"/>
-      <c r="C183" s="65"/>
-      <c r="D183" s="65"/>
-      <c r="E183" s="65"/>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="s" s="64">
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="41"/>
+      <c r="E183" s="41"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="B184" s="65"/>
-      <c r="C184" s="65"/>
-      <c r="D184" s="65"/>
-      <c r="E184" s="65"/>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" t="s" s="64">
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
+      <c r="E184" s="41"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="B185" s="65"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="65"/>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="A186" t="s" s="64">
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="B186" s="65"/>
-      <c r="C186" s="65"/>
-      <c r="D186" s="65"/>
-      <c r="E186" s="65"/>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" t="s" s="64">
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
+      <c r="E186" s="41"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="B187" s="65"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="65"/>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="A188" t="s" s="64">
+      <c r="B187" s="41"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="41"/>
+      <c r="E187" s="41"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="B188" s="65"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="65"/>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" t="s" s="64">
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="41"/>
+      <c r="E188" s="41"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="B189" s="65"/>
-      <c r="C189" s="65"/>
-      <c r="D189" s="65"/>
-      <c r="E189" s="65"/>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="A190" t="s" s="64">
+      <c r="B189" s="41"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="41"/>
+      <c r="E189" s="41"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="B190" s="65"/>
-      <c r="C190" s="65"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="65"/>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="A191" t="s" s="64">
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B191" s="65"/>
-      <c r="C191" s="65"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="65"/>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="A192" t="s" s="64">
+      <c r="B191" s="41"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="41"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="B192" s="65"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="65"/>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="A193" t="s" s="64">
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="B193" s="65"/>
-      <c r="C193" s="65"/>
-      <c r="D193" s="65"/>
-      <c r="E193" s="65"/>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="A194" t="s" s="64">
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="41"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="B194" s="65"/>
-      <c r="C194" s="65"/>
-      <c r="D194" s="65"/>
-      <c r="E194" s="65"/>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="A195" t="s" s="64">
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="B195" s="65"/>
-      <c r="C195" s="65"/>
-      <c r="D195" s="65"/>
-      <c r="E195" s="65"/>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="A196" t="s" s="64">
+      <c r="B196" s="41"/>
+      <c r="C196" s="41"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="41"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="B196" s="65"/>
-      <c r="C196" s="65"/>
-      <c r="D196" s="65"/>
-      <c r="E196" s="65"/>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="A197" t="s" s="64">
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="B197" s="65"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="65"/>
-      <c r="E197" s="65"/>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="A198" t="s" s="64">
+      <c r="B198" s="41"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="41"/>
+      <c r="E198" s="41"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="B198" s="65"/>
-      <c r="C198" s="65"/>
-      <c r="D198" s="65"/>
-      <c r="E198" s="65"/>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="A199" t="s" s="64">
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="B199" s="65"/>
-      <c r="C199" s="65"/>
-      <c r="D199" s="65"/>
-      <c r="E199" s="65"/>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="A200" t="s" s="64">
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
+      <c r="D200" s="41"/>
+      <c r="E200" s="41"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="B200" s="65"/>
-      <c r="C200" s="65"/>
-      <c r="D200" s="65"/>
-      <c r="E200" s="65"/>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="A201" t="s" s="64">
+      <c r="B201" s="41"/>
+      <c r="C201" s="41"/>
+      <c r="D201" s="41"/>
+      <c r="E201" s="41"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="B201" s="65"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="65"/>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" t="s" s="64">
+      <c r="B202" s="41"/>
+      <c r="C202" s="41"/>
+      <c r="D202" s="41"/>
+      <c r="E202" s="41"/>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="B202" s="65"/>
-      <c r="C202" s="65"/>
-      <c r="D202" s="65"/>
-      <c r="E202" s="65"/>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="A203" t="s" s="64">
+      <c r="B203" s="41"/>
+      <c r="C203" s="41"/>
+      <c r="D203" s="41"/>
+      <c r="E203" s="41"/>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="B203" s="65"/>
-      <c r="C203" s="65"/>
-      <c r="D203" s="65"/>
-      <c r="E203" s="65"/>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="A204" t="s" s="64">
+      <c r="B204" s="41"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="41"/>
+      <c r="E204" s="41"/>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="B204" s="65"/>
-      <c r="C204" s="65"/>
-      <c r="D204" s="65"/>
-      <c r="E204" s="65"/>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="A205" t="s" s="64">
+      <c r="B205" s="41"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="41"/>
+      <c r="E205" s="41"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="B205" s="65"/>
-      <c r="C205" s="65"/>
-      <c r="D205" s="65"/>
-      <c r="E205" s="65"/>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" t="s" s="64">
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
+      <c r="D206" s="41"/>
+      <c r="E206" s="41"/>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="B206" s="65"/>
-      <c r="C206" s="65"/>
-      <c r="D206" s="65"/>
-      <c r="E206" s="65"/>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="A207" t="s" s="64">
+      <c r="B207" s="41"/>
+      <c r="C207" s="41"/>
+      <c r="D207" s="41"/>
+      <c r="E207" s="41"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="B207" s="65"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" t="s" s="64">
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41"/>
+      <c r="E208" s="41"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="B208" s="65"/>
-      <c r="C208" s="65"/>
-      <c r="D208" s="65"/>
-      <c r="E208" s="65"/>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="A209" t="s" s="64">
+      <c r="B209" s="41"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="41"/>
+      <c r="E209" s="41"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="B209" s="65"/>
-      <c r="C209" s="65"/>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" t="s" s="64">
+      <c r="B210" s="41"/>
+      <c r="C210" s="41"/>
+      <c r="D210" s="41"/>
+      <c r="E210" s="41"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B210" s="65"/>
-      <c r="C210" s="65"/>
-      <c r="D210" s="65"/>
-      <c r="E210" s="65"/>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="A211" t="s" s="64">
+      <c r="B211" s="41"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="41"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="B211" s="65"/>
-      <c r="C211" s="65"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" t="s" s="64">
+      <c r="B212" s="41"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
+      <c r="E212" s="41"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B213" s="41"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="A213" t="s" s="64">
+      <c r="B214" s="41"/>
+      <c r="C214" s="41"/>
+      <c r="D214" s="41"/>
+      <c r="E214" s="41"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="B213" s="65"/>
-      <c r="C213" s="65"/>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" t="s" s="64">
+      <c r="B215" s="41"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B216" s="41"/>
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="41"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="B214" s="65"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="A215" t="s" s="64">
+      <c r="B217" s="41"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="41"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="B215" s="65"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="A216" t="s" s="64">
+      <c r="B218" s="41"/>
+      <c r="C218" s="41"/>
+      <c r="D218" s="41"/>
+      <c r="E218" s="41"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="B216" s="65"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="65"/>
-      <c r="E216" s="65"/>
-    </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="A217" t="s" s="64">
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="41"/>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="B217" s="65"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="65"/>
-      <c r="E217" s="65"/>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="A218" t="s" s="64">
+      <c r="B220" s="41"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="41"/>
+      <c r="E220" s="41"/>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="B218" s="65"/>
-      <c r="C218" s="65"/>
-      <c r="D218" s="65"/>
-      <c r="E218" s="65"/>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="A219" t="s" s="64">
+      <c r="B221" s="41"/>
+      <c r="C221" s="41"/>
+      <c r="D221" s="41"/>
+      <c r="E221" s="41"/>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="B219" s="65"/>
-      <c r="C219" s="65"/>
-      <c r="D219" s="65"/>
-      <c r="E219" s="65"/>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="A220" t="s" s="64">
+      <c r="B222" s="41"/>
+      <c r="C222" s="41"/>
+      <c r="D222" s="41"/>
+      <c r="E222" s="41"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="B220" s="65"/>
-      <c r="C220" s="65"/>
-      <c r="D220" s="65"/>
-      <c r="E220" s="65"/>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="A221" t="s" s="64">
+      <c r="B223" s="41"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="B221" s="65"/>
-      <c r="C221" s="65"/>
-      <c r="D221" s="65"/>
-      <c r="E221" s="65"/>
+      <c r="B224" s="41"/>
+      <c r="C224" s="41"/>
+      <c r="D224" s="41"/>
+      <c r="E224" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="363">
   <si>
     <t>Console</t>
   </si>
@@ -1095,6 +1095,21 @@
   </si>
   <si>
     <t>usethis</t>
+  </si>
+  <si>
+    <t>copy / cut &amp; paste</t>
+  </si>
+  <si>
+    <t>d       cut</t>
+  </si>
+  <si>
+    <t>y        copy</t>
+  </si>
+  <si>
+    <t>p      paste</t>
+  </si>
+  <si>
+    <t>v + cursor</t>
   </si>
 </sst>
 </file>
@@ -18454,10 +18469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18953,22 +18968,87 @@
       <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="38"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>361</v>
+      </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="369">
   <si>
     <t>Console</t>
   </si>
@@ -1097,26 +1097,141 @@
     <t>usethis</t>
   </si>
   <si>
-    <t>copy / cut &amp; paste</t>
-  </si>
-  <si>
-    <t>d       cut</t>
-  </si>
-  <si>
-    <t>y        copy</t>
-  </si>
-  <si>
-    <t>p      paste</t>
-  </si>
-  <si>
-    <t>v + cursor</t>
+    <t>copy/cut &amp; paste</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> + cursor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">       cut</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">        copy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">      paste</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete lines</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>d15</t>
+  </si>
+  <si>
+    <t>Go to Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close </t>
+  </si>
+  <si>
+    <r>
+      <t>Ctrl + W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ctrl + F4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1132,6 +1247,48 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1768,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1834,6 +1991,12 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2996,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:C59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9604,7 +9767,7 @@
       <c r="IT25" s="12"/>
       <c r="IU25" s="13"/>
     </row>
-    <row r="26" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -9869,8 +10032,7 @@
       <c r="C27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="12"/>
@@ -10654,9 +10816,11 @@
       <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -10915,9 +11079,15 @@
       <c r="C31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="D31" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>131</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -11176,9 +11346,13 @@
       <c r="C32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="D32" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="39"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -11437,9 +11611,13 @@
       <c r="C33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="39"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -11698,9 +11876,13 @@
       <c r="C34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="D34" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="F34" s="39"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -18471,8 +18653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18977,57 +19159,83 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="66" t="s">
         <v>362</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>361</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>365</v>
+      </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="57" t="s">
+        <v>121</v>
+      </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="C31" s="39"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>125</v>
+      </c>
       <c r="C32" s="39"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>368</v>
+      </c>
       <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="370">
   <si>
     <t>Console</t>
   </si>
@@ -1226,12 +1226,15 @@
       <t>Ctrl + F4</t>
     </r>
   </si>
+  <si>
+    <t>Y LA BASURA????</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1289,6 +1292,13 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1925,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1997,6 +2007,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3159,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -18653,8 +18664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19219,6 +19230,9 @@
         <v>50</v>
       </c>
       <c r="C31" s="39"/>
+      <c r="D31" s="37" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
@@ -19229,7 +19243,7 @@
       </c>
       <c r="C32" s="39"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>367</v>
       </c>
@@ -19238,22 +19252,23 @@
       </c>
       <c r="C33" s="39"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86D78C8-EC55-4A89-A90F-ED46149B806C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="372">
   <si>
     <t>Console</t>
   </si>
@@ -1228,6 +1229,12 @@
   </si>
   <si>
     <t>Y LA BASURA????</t>
+  </si>
+  <si>
+    <t>Go To Terminal</t>
+  </si>
+  <si>
+    <t>Alt + Shift + T</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1884,30 +1891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
@@ -1935,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1988,8 +1971,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -10827,7 +10808,7 @@
       <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="55" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="39"/>
@@ -11622,10 +11603,10 @@
       <c r="C33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="67" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="39"/>
@@ -11887,10 +11868,10 @@
       <c r="C34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="68" t="s">
         <v>368</v>
       </c>
       <c r="F34" s="39"/>
@@ -18664,8 +18645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18681,13 +18662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>86</v>
       </c>
     </row>
@@ -18698,7 +18679,7 @@
       <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="43" t="s">
@@ -18712,22 +18693,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="59" t="s">
         <v>88</v>
       </c>
     </row>
@@ -18752,22 +18733,22 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="59" t="s">
         <v>59</v>
       </c>
     </row>
@@ -18792,22 +18773,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>94</v>
       </c>
     </row>
@@ -18832,22 +18813,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="59" t="s">
         <v>98</v>
       </c>
     </row>
@@ -18858,7 +18839,7 @@
       <c r="B10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -18872,38 +18853,38 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="59" t="s">
         <v>102</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="39"/>
@@ -18913,50 +18894,54 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>371</v>
+      </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="12"/>
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="55" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="38"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="55" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="57"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="59" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="39"/>
@@ -18985,22 +18970,22 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="59" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="39"/>
@@ -19029,22 +19014,22 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="59" t="s">
         <v>67</v>
       </c>
       <c r="H19" s="39"/>
@@ -19071,22 +19056,22 @@
       <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="59" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="39"/>
@@ -19115,22 +19100,22 @@
       <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="59" t="s">
         <v>82</v>
       </c>
       <c r="H23" s="39"/>
@@ -19155,18 +19140,18 @@
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="58"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="12"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="55" t="s">
         <v>347</v>
       </c>
       <c r="B26" s="38"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
     </row>
@@ -19174,36 +19159,36 @@
       <c r="A27" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="64" t="s">
         <v>362</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="65" t="s">
         <v>365</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="55" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="39"/>
@@ -19235,19 +19220,19 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="39"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="68" t="s">
         <v>368</v>
       </c>
       <c r="C33" s="39"/>
@@ -19256,7 +19241,7 @@
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="71"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86D78C8-EC55-4A89-A90F-ED46149B806C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1F630-0A6F-4D6D-BEAC-0E19ABCE6BFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="375">
   <si>
     <t>Console</t>
   </si>
@@ -1236,12 +1236,21 @@
   <si>
     <t>Alt + Shift + T</t>
   </si>
+  <si>
+    <t>Conemu</t>
+  </si>
+  <si>
+    <t>App + cursor(focus)</t>
+  </si>
+  <si>
+    <t>App + G (comm all)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1308,6 +1317,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1335,7 +1351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1914,11 +1930,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1989,6 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18646,7 +18674,7 @@
   <dimension ref="A1:IV37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18887,7 +18915,9 @@
       <c r="D12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="70" t="s">
+        <v>372</v>
+      </c>
       <c r="F12" s="39"/>
       <c r="G12" s="12"/>
       <c r="H12" s="39"/>
@@ -18906,8 +18936,12 @@
       <c r="D13" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>374</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="39"/>
     </row>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1F630-0A6F-4D6D-BEAC-0E19ABCE6BFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF293E-E8FA-435A-BAFC-7E68C0BBC85B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="378">
   <si>
     <t>Console</t>
   </si>
@@ -1228,9 +1228,6 @@
     </r>
   </si>
   <si>
-    <t>Y LA BASURA????</t>
-  </si>
-  <si>
     <t>Go To Terminal</t>
   </si>
   <si>
@@ -1240,17 +1237,29 @@
     <t>Conemu</t>
   </si>
   <si>
-    <t>App + cursor(focus)</t>
-  </si>
-  <si>
-    <t>App + G (comm all)</t>
+    <t>Move Focus</t>
+  </si>
+  <si>
+    <t>App + cursor</t>
+  </si>
+  <si>
+    <t>App + Shift + cursor</t>
+  </si>
+  <si>
+    <t>Resize split</t>
+  </si>
+  <si>
+    <t>App + G</t>
+  </si>
+  <si>
+    <t>Command all splits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1317,13 +1326,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1351,7 +1353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1930,22 +1932,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2016,7 +2007,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18673,8 +18663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18915,10 +18905,6 @@
       <c r="D12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="39"/>
       <c r="G12" s="12"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -18931,16 +18917,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>370</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>374</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="39"/>
@@ -19227,6 +19207,9 @@
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
+      <c r="D29" s="55" t="s">
+        <v>371</v>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
     </row>
@@ -19240,6 +19223,12 @@
       <c r="C30" s="39" t="s">
         <v>131</v>
       </c>
+      <c r="D30" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -19249,8 +19238,11 @@
         <v>50</v>
       </c>
       <c r="C31" s="39"/>
-      <c r="D31" s="37" t="s">
-        <v>369</v>
+      <c r="D31" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19261,6 +19253,12 @@
         <v>125</v>
       </c>
       <c r="C32" s="39"/>
+      <c r="D32" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF293E-E8FA-435A-BAFC-7E68C0BBC85B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5184069A-7D4E-4855-B0E1-B7E92A1B81EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="379">
   <si>
     <t>Console</t>
   </si>
@@ -1253,6 +1253,9 @@
   </si>
   <si>
     <t>Command all splits</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+R/Ctrl+F12</t>
   </si>
 </sst>
 </file>
@@ -18663,8 +18666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18672,7 +18675,7 @@
     <col min="1" max="1" width="17.28515625" style="37" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="37" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="37" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="37" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="37" customWidth="1"/>
@@ -18741,7 +18744,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>89</v>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5184069A-7D4E-4855-B0E1-B7E92A1B81EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BDE42-86CF-46D7-BA9F-E78C6A60DD1F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="382">
   <si>
     <t>Console</t>
   </si>
@@ -1257,12 +1257,21 @@
   <si>
     <t>Ctrl+Shift+R/Ctrl+F12</t>
   </si>
+  <si>
+    <t>Notepad++</t>
+  </si>
+  <si>
+    <t>multicursor</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Cursor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1320,13 +1329,6 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1939,7 +1941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2009,7 +2011,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18666,8 +18667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19263,7 +19264,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>367</v>
       </c>
@@ -19272,23 +19273,31 @@
       </c>
       <c r="C33" s="39"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BDE42-86CF-46D7-BA9F-E78C6A60DD1F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCE2F9-4CBA-4A37-9729-14E63FC6CF11}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="376">
   <si>
     <t>Console</t>
   </si>
@@ -60,9 +60,6 @@
     <t>New Section</t>
   </si>
   <si>
-    <t>Ctrl + Shift + R</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
@@ -364,21 +361,6 @@
   </si>
   <si>
     <t>Cmd + T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl + G </t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Ditto</t>
-  </si>
-  <si>
-    <t>Backspace</t>
-  </si>
-  <si>
-    <t>Up group</t>
   </si>
   <si>
     <t>Right Tab</t>
@@ -1358,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1696,17 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1941,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1978,39 +1949,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3171,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU59"/>
+  <dimension ref="A1:IU66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3182,11 +3159,11 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
     <col min="6" max="255" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3445,16 +3422,16 @@
     </row>
     <row r="2" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="10"/>
@@ -3712,16 +3689,16 @@
     </row>
     <row r="3" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="62" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10"/>
@@ -3977,17 +3954,17 @@
     </row>
     <row r="4" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
+      <c r="E4" s="65" t="s">
+        <v>372</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="12"/>
@@ -4242,17 +4219,17 @@
     </row>
     <row r="5" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="62" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="12"/>
@@ -4507,17 +4484,17 @@
     </row>
     <row r="6" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="65" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
@@ -4772,17 +4749,17 @@
     </row>
     <row r="7" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="62" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
@@ -5037,17 +5014,17 @@
     </row>
     <row r="8" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="65" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
@@ -5302,17 +5279,17 @@
     </row>
     <row r="9" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="62" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
@@ -5567,17 +5544,17 @@
     </row>
     <row r="10" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="68" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
@@ -5832,17 +5809,17 @@
     </row>
     <row r="11" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="62" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
@@ -6097,17 +6074,17 @@
     </row>
     <row r="12" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="71" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
@@ -6360,16 +6337,20 @@
       <c r="IT12" s="12"/>
       <c r="IU12" s="13"/>
     </row>
-    <row r="13" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>364</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -6621,7 +6602,7 @@
       <c r="IT13" s="12"/>
       <c r="IU13" s="13"/>
     </row>
-    <row r="14" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -6881,16 +6862,16 @@
     <row r="15" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="12"/>
@@ -7146,20 +7127,20 @@
     <row r="16" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -7413,16 +7394,16 @@
     <row r="17" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="E17" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="12"/>
@@ -7678,16 +7659,16 @@
     <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="12"/>
@@ -7943,16 +7924,16 @@
     <row r="19" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="12"/>
@@ -8208,13 +8189,13 @@
     <row r="20" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="23"/>
@@ -8471,16 +8452,16 @@
     <row r="21" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="12"/>
@@ -8736,16 +8717,16 @@
     <row r="22" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="12"/>
@@ -9001,16 +8982,16 @@
     <row r="23" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="12"/>
@@ -9266,10 +9247,10 @@
     <row r="24" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -10041,13 +10022,13 @@
     <row r="27" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -10303,10 +10284,10 @@
     <row r="28" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="12"/>
@@ -10564,10 +10545,10 @@
     <row r="29" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="12"/>
@@ -10825,16 +10806,14 @@
     <row r="30" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -11088,20 +11067,14 @@
     <row r="31" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>131</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -11347,26 +11320,22 @@
       <c r="IO31" s="12"/>
       <c r="IP31" s="12"/>
       <c r="IQ31" s="12"/>
-      <c r="IR31" s="12"/>
-      <c r="IS31" s="12"/>
-      <c r="IT31" s="12"/>
-      <c r="IU31" s="13"/>
+      <c r="IR31" s="13"/>
+      <c r="IS31"/>
+      <c r="IT31"/>
+      <c r="IU31"/>
     </row>
     <row r="32" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="39"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -11612,26 +11581,22 @@
       <c r="IO32" s="12"/>
       <c r="IP32" s="12"/>
       <c r="IQ32" s="12"/>
-      <c r="IR32" s="12"/>
-      <c r="IS32" s="12"/>
-      <c r="IT32" s="12"/>
-      <c r="IU32" s="13"/>
+      <c r="IR32" s="13"/>
+      <c r="IS32"/>
+      <c r="IT32"/>
+      <c r="IU32"/>
     </row>
     <row r="33" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="39"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -11877,26 +11842,22 @@
       <c r="IO33" s="12"/>
       <c r="IP33" s="12"/>
       <c r="IQ33" s="12"/>
-      <c r="IR33" s="12"/>
-      <c r="IS33" s="12"/>
-      <c r="IT33" s="12"/>
-      <c r="IU33" s="13"/>
+      <c r="IR33" s="13"/>
+      <c r="IS33"/>
+      <c r="IT33"/>
+      <c r="IU33"/>
     </row>
     <row r="34" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="F34" s="39"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -12142,20 +12103,20 @@
       <c r="IO34" s="12"/>
       <c r="IP34" s="12"/>
       <c r="IQ34" s="12"/>
-      <c r="IR34" s="12"/>
-      <c r="IS34" s="12"/>
-      <c r="IT34" s="12"/>
-      <c r="IU34" s="13"/>
+      <c r="IR34" s="13"/>
+      <c r="IS34"/>
+      <c r="IT34"/>
+      <c r="IU34"/>
     </row>
     <row r="35" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -12403,18 +12364,18 @@
       <c r="IO35" s="12"/>
       <c r="IP35" s="12"/>
       <c r="IQ35" s="12"/>
-      <c r="IR35" s="12"/>
-      <c r="IS35" s="12"/>
-      <c r="IT35" s="12"/>
-      <c r="IU35" s="13"/>
-    </row>
-    <row r="36" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IR35" s="13"/>
+      <c r="IS35"/>
+      <c r="IT35"/>
+      <c r="IU35"/>
+    </row>
+    <row r="36" spans="1:255" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="12"/>
@@ -13186,14 +13147,14 @@
     <row r="39" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="49" t="s">
         <v>103</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -13449,14 +13410,14 @@
     <row r="40" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -13712,13 +13673,13 @@
     <row r="41" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="D41" s="23"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -13973,13 +13934,13 @@
     <row r="42" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="23"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -14234,13 +14195,13 @@
     <row r="43" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -14492,16 +14453,16 @@
       <c r="IT43" s="12"/>
       <c r="IU43" s="13"/>
     </row>
-    <row r="44" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>113</v>
-      </c>
       <c r="D44" s="23"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -14753,12 +14714,12 @@
       <c r="IT44" s="12"/>
       <c r="IU44" s="13"/>
     </row>
-    <row r="45" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+    <row r="45" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -15010,12 +14971,18 @@
       <c r="IT45" s="12"/>
       <c r="IU45" s="13"/>
     </row>
-    <row r="46" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+    <row r="46" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -15268,17 +15235,15 @@
       <c r="IU46" s="13"/>
     </row>
     <row r="47" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>115</v>
+      <c r="A47" s="17"/>
+      <c r="B47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="E47" s="74"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -15530,16 +15495,16 @@
       <c r="IT47" s="12"/>
       <c r="IU47" s="13"/>
     </row>
-    <row r="48" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="29" t="s">
+    <row r="48" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="C48" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="D48" s="23"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -15791,12 +15756,16 @@
       <c r="IT48" s="12"/>
       <c r="IU48" s="13"/>
     </row>
-    <row r="49" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+    <row r="49" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -16048,12 +16017,14 @@
       <c r="IT49" s="12"/>
       <c r="IU49" s="13"/>
     </row>
-    <row r="50" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+    <row r="50" spans="1:255" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="49" t="s">
+        <v>121</v>
+      </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -16308,15 +16279,13 @@
     <row r="51" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="D51" s="23"/>
-      <c r="E51" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -16568,13 +16537,13 @@
       <c r="IT51" s="12"/>
       <c r="IU51" s="13"/>
     </row>
-    <row r="52" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="12"/>
@@ -16829,10 +16798,10 @@
       <c r="IT52" s="12"/>
       <c r="IU52" s="13"/>
     </row>
-    <row r="53" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+    <row r="53" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
       <c r="B53" s="14" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>125</v>
@@ -17090,15 +17059,15 @@
       <c r="IT53" s="12"/>
       <c r="IU53" s="13"/>
     </row>
-    <row r="54" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:255" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -17351,14 +17320,11 @@
       <c r="IT54" s="12"/>
       <c r="IU54" s="13"/>
     </row>
-    <row r="55" spans="1:255" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+    <row r="55" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="11" t="s">
-        <v>127</v>
-      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -17612,13 +17578,11 @@
     </row>
     <row r="56" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="23"/>
+      <c r="B56" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -17872,14 +17836,14 @@
       <c r="IU56" s="13"/>
     </row>
     <row r="57" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="23"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -17891,256 +17855,255 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="12"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="12"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="12"/>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="12"/>
-      <c r="AX57" s="12"/>
-      <c r="AY57" s="12"/>
-      <c r="AZ57" s="12"/>
-      <c r="BA57" s="12"/>
-      <c r="BB57" s="12"/>
-      <c r="BC57" s="12"/>
-      <c r="BD57" s="12"/>
-      <c r="BE57" s="12"/>
-      <c r="BF57" s="12"/>
-      <c r="BG57" s="12"/>
-      <c r="BH57" s="12"/>
-      <c r="BI57" s="12"/>
-      <c r="BJ57" s="12"/>
-      <c r="BK57" s="12"/>
-      <c r="BL57" s="12"/>
-      <c r="BM57" s="12"/>
-      <c r="BN57" s="12"/>
-      <c r="BO57" s="12"/>
-      <c r="BP57" s="12"/>
-      <c r="BQ57" s="12"/>
-      <c r="BR57" s="12"/>
-      <c r="BS57" s="12"/>
-      <c r="BT57" s="12"/>
-      <c r="BU57" s="12"/>
-      <c r="BV57" s="12"/>
-      <c r="BW57" s="12"/>
-      <c r="BX57" s="12"/>
-      <c r="BY57" s="12"/>
-      <c r="BZ57" s="12"/>
-      <c r="CA57" s="12"/>
-      <c r="CB57" s="12"/>
-      <c r="CC57" s="12"/>
-      <c r="CD57" s="12"/>
-      <c r="CE57" s="12"/>
-      <c r="CF57" s="12"/>
-      <c r="CG57" s="12"/>
-      <c r="CH57" s="12"/>
-      <c r="CI57" s="12"/>
-      <c r="CJ57" s="12"/>
-      <c r="CK57" s="12"/>
-      <c r="CL57" s="12"/>
-      <c r="CM57" s="12"/>
-      <c r="CN57" s="12"/>
-      <c r="CO57" s="12"/>
-      <c r="CP57" s="12"/>
-      <c r="CQ57" s="12"/>
-      <c r="CR57" s="12"/>
-      <c r="CS57" s="12"/>
-      <c r="CT57" s="12"/>
-      <c r="CU57" s="12"/>
-      <c r="CV57" s="12"/>
-      <c r="CW57" s="12"/>
-      <c r="CX57" s="12"/>
-      <c r="CY57" s="12"/>
-      <c r="CZ57" s="12"/>
-      <c r="DA57" s="12"/>
-      <c r="DB57" s="12"/>
-      <c r="DC57" s="12"/>
-      <c r="DD57" s="12"/>
-      <c r="DE57" s="12"/>
-      <c r="DF57" s="12"/>
-      <c r="DG57" s="12"/>
-      <c r="DH57" s="12"/>
-      <c r="DI57" s="12"/>
-      <c r="DJ57" s="12"/>
-      <c r="DK57" s="12"/>
-      <c r="DL57" s="12"/>
-      <c r="DM57" s="12"/>
-      <c r="DN57" s="12"/>
-      <c r="DO57" s="12"/>
-      <c r="DP57" s="12"/>
-      <c r="DQ57" s="12"/>
-      <c r="DR57" s="12"/>
-      <c r="DS57" s="12"/>
-      <c r="DT57" s="12"/>
-      <c r="DU57" s="12"/>
-      <c r="DV57" s="12"/>
-      <c r="DW57" s="12"/>
-      <c r="DX57" s="12"/>
-      <c r="DY57" s="12"/>
-      <c r="DZ57" s="12"/>
-      <c r="EA57" s="12"/>
-      <c r="EB57" s="12"/>
-      <c r="EC57" s="12"/>
-      <c r="ED57" s="12"/>
-      <c r="EE57" s="12"/>
-      <c r="EF57" s="12"/>
-      <c r="EG57" s="12"/>
-      <c r="EH57" s="12"/>
-      <c r="EI57" s="12"/>
-      <c r="EJ57" s="12"/>
-      <c r="EK57" s="12"/>
-      <c r="EL57" s="12"/>
-      <c r="EM57" s="12"/>
-      <c r="EN57" s="12"/>
-      <c r="EO57" s="12"/>
-      <c r="EP57" s="12"/>
-      <c r="EQ57" s="12"/>
-      <c r="ER57" s="12"/>
-      <c r="ES57" s="12"/>
-      <c r="ET57" s="12"/>
-      <c r="EU57" s="12"/>
-      <c r="EV57" s="12"/>
-      <c r="EW57" s="12"/>
-      <c r="EX57" s="12"/>
-      <c r="EY57" s="12"/>
-      <c r="EZ57" s="12"/>
-      <c r="FA57" s="12"/>
-      <c r="FB57" s="12"/>
-      <c r="FC57" s="12"/>
-      <c r="FD57" s="12"/>
-      <c r="FE57" s="12"/>
-      <c r="FF57" s="12"/>
-      <c r="FG57" s="12"/>
-      <c r="FH57" s="12"/>
-      <c r="FI57" s="12"/>
-      <c r="FJ57" s="12"/>
-      <c r="FK57" s="12"/>
-      <c r="FL57" s="12"/>
-      <c r="FM57" s="12"/>
-      <c r="FN57" s="12"/>
-      <c r="FO57" s="12"/>
-      <c r="FP57" s="12"/>
-      <c r="FQ57" s="12"/>
-      <c r="FR57" s="12"/>
-      <c r="FS57" s="12"/>
-      <c r="FT57" s="12"/>
-      <c r="FU57" s="12"/>
-      <c r="FV57" s="12"/>
-      <c r="FW57" s="12"/>
-      <c r="FX57" s="12"/>
-      <c r="FY57" s="12"/>
-      <c r="FZ57" s="12"/>
-      <c r="GA57" s="12"/>
-      <c r="GB57" s="12"/>
-      <c r="GC57" s="12"/>
-      <c r="GD57" s="12"/>
-      <c r="GE57" s="12"/>
-      <c r="GF57" s="12"/>
-      <c r="GG57" s="12"/>
-      <c r="GH57" s="12"/>
-      <c r="GI57" s="12"/>
-      <c r="GJ57" s="12"/>
-      <c r="GK57" s="12"/>
-      <c r="GL57" s="12"/>
-      <c r="GM57" s="12"/>
-      <c r="GN57" s="12"/>
-      <c r="GO57" s="12"/>
-      <c r="GP57" s="12"/>
-      <c r="GQ57" s="12"/>
-      <c r="GR57" s="12"/>
-      <c r="GS57" s="12"/>
-      <c r="GT57" s="12"/>
-      <c r="GU57" s="12"/>
-      <c r="GV57" s="12"/>
-      <c r="GW57" s="12"/>
-      <c r="GX57" s="12"/>
-      <c r="GY57" s="12"/>
-      <c r="GZ57" s="12"/>
-      <c r="HA57" s="12"/>
-      <c r="HB57" s="12"/>
-      <c r="HC57" s="12"/>
-      <c r="HD57" s="12"/>
-      <c r="HE57" s="12"/>
-      <c r="HF57" s="12"/>
-      <c r="HG57" s="12"/>
-      <c r="HH57" s="12"/>
-      <c r="HI57" s="12"/>
-      <c r="HJ57" s="12"/>
-      <c r="HK57" s="12"/>
-      <c r="HL57" s="12"/>
-      <c r="HM57" s="12"/>
-      <c r="HN57" s="12"/>
-      <c r="HO57" s="12"/>
-      <c r="HP57" s="12"/>
-      <c r="HQ57" s="12"/>
-      <c r="HR57" s="12"/>
-      <c r="HS57" s="12"/>
-      <c r="HT57" s="12"/>
-      <c r="HU57" s="12"/>
-      <c r="HV57" s="12"/>
-      <c r="HW57" s="12"/>
-      <c r="HX57" s="12"/>
-      <c r="HY57" s="12"/>
-      <c r="HZ57" s="12"/>
-      <c r="IA57" s="12"/>
-      <c r="IB57" s="12"/>
-      <c r="IC57" s="12"/>
-      <c r="ID57" s="12"/>
-      <c r="IE57" s="12"/>
-      <c r="IF57" s="12"/>
-      <c r="IG57" s="12"/>
-      <c r="IH57" s="12"/>
-      <c r="II57" s="12"/>
-      <c r="IJ57" s="12"/>
-      <c r="IK57" s="12"/>
-      <c r="IL57" s="12"/>
-      <c r="IM57" s="12"/>
-      <c r="IN57" s="12"/>
-      <c r="IO57" s="12"/>
-      <c r="IP57" s="12"/>
-      <c r="IQ57" s="12"/>
-      <c r="IR57" s="12"/>
-      <c r="IS57" s="12"/>
-      <c r="IT57" s="12"/>
-      <c r="IU57" s="13"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="34"/>
+      <c r="AM57" s="34"/>
+      <c r="AN57" s="34"/>
+      <c r="AO57" s="34"/>
+      <c r="AP57" s="34"/>
+      <c r="AQ57" s="34"/>
+      <c r="AR57" s="34"/>
+      <c r="AS57" s="34"/>
+      <c r="AT57" s="34"/>
+      <c r="AU57" s="34"/>
+      <c r="AV57" s="34"/>
+      <c r="AW57" s="34"/>
+      <c r="AX57" s="34"/>
+      <c r="AY57" s="34"/>
+      <c r="AZ57" s="34"/>
+      <c r="BA57" s="34"/>
+      <c r="BB57" s="34"/>
+      <c r="BC57" s="34"/>
+      <c r="BD57" s="34"/>
+      <c r="BE57" s="34"/>
+      <c r="BF57" s="34"/>
+      <c r="BG57" s="34"/>
+      <c r="BH57" s="34"/>
+      <c r="BI57" s="34"/>
+      <c r="BJ57" s="34"/>
+      <c r="BK57" s="34"/>
+      <c r="BL57" s="34"/>
+      <c r="BM57" s="34"/>
+      <c r="BN57" s="34"/>
+      <c r="BO57" s="34"/>
+      <c r="BP57" s="34"/>
+      <c r="BQ57" s="34"/>
+      <c r="BR57" s="34"/>
+      <c r="BS57" s="34"/>
+      <c r="BT57" s="34"/>
+      <c r="BU57" s="34"/>
+      <c r="BV57" s="34"/>
+      <c r="BW57" s="34"/>
+      <c r="BX57" s="34"/>
+      <c r="BY57" s="34"/>
+      <c r="BZ57" s="34"/>
+      <c r="CA57" s="34"/>
+      <c r="CB57" s="34"/>
+      <c r="CC57" s="34"/>
+      <c r="CD57" s="34"/>
+      <c r="CE57" s="34"/>
+      <c r="CF57" s="34"/>
+      <c r="CG57" s="34"/>
+      <c r="CH57" s="34"/>
+      <c r="CI57" s="34"/>
+      <c r="CJ57" s="34"/>
+      <c r="CK57" s="34"/>
+      <c r="CL57" s="34"/>
+      <c r="CM57" s="34"/>
+      <c r="CN57" s="34"/>
+      <c r="CO57" s="34"/>
+      <c r="CP57" s="34"/>
+      <c r="CQ57" s="34"/>
+      <c r="CR57" s="34"/>
+      <c r="CS57" s="34"/>
+      <c r="CT57" s="34"/>
+      <c r="CU57" s="34"/>
+      <c r="CV57" s="34"/>
+      <c r="CW57" s="34"/>
+      <c r="CX57" s="34"/>
+      <c r="CY57" s="34"/>
+      <c r="CZ57" s="34"/>
+      <c r="DA57" s="34"/>
+      <c r="DB57" s="34"/>
+      <c r="DC57" s="34"/>
+      <c r="DD57" s="34"/>
+      <c r="DE57" s="34"/>
+      <c r="DF57" s="34"/>
+      <c r="DG57" s="34"/>
+      <c r="DH57" s="34"/>
+      <c r="DI57" s="34"/>
+      <c r="DJ57" s="34"/>
+      <c r="DK57" s="34"/>
+      <c r="DL57" s="34"/>
+      <c r="DM57" s="34"/>
+      <c r="DN57" s="34"/>
+      <c r="DO57" s="34"/>
+      <c r="DP57" s="34"/>
+      <c r="DQ57" s="34"/>
+      <c r="DR57" s="34"/>
+      <c r="DS57" s="34"/>
+      <c r="DT57" s="34"/>
+      <c r="DU57" s="34"/>
+      <c r="DV57" s="34"/>
+      <c r="DW57" s="34"/>
+      <c r="DX57" s="34"/>
+      <c r="DY57" s="34"/>
+      <c r="DZ57" s="34"/>
+      <c r="EA57" s="34"/>
+      <c r="EB57" s="34"/>
+      <c r="EC57" s="34"/>
+      <c r="ED57" s="34"/>
+      <c r="EE57" s="34"/>
+      <c r="EF57" s="34"/>
+      <c r="EG57" s="34"/>
+      <c r="EH57" s="34"/>
+      <c r="EI57" s="34"/>
+      <c r="EJ57" s="34"/>
+      <c r="EK57" s="34"/>
+      <c r="EL57" s="34"/>
+      <c r="EM57" s="34"/>
+      <c r="EN57" s="34"/>
+      <c r="EO57" s="34"/>
+      <c r="EP57" s="34"/>
+      <c r="EQ57" s="34"/>
+      <c r="ER57" s="34"/>
+      <c r="ES57" s="34"/>
+      <c r="ET57" s="34"/>
+      <c r="EU57" s="34"/>
+      <c r="EV57" s="34"/>
+      <c r="EW57" s="34"/>
+      <c r="EX57" s="34"/>
+      <c r="EY57" s="34"/>
+      <c r="EZ57" s="34"/>
+      <c r="FA57" s="34"/>
+      <c r="FB57" s="34"/>
+      <c r="FC57" s="34"/>
+      <c r="FD57" s="34"/>
+      <c r="FE57" s="34"/>
+      <c r="FF57" s="34"/>
+      <c r="FG57" s="34"/>
+      <c r="FH57" s="34"/>
+      <c r="FI57" s="34"/>
+      <c r="FJ57" s="34"/>
+      <c r="FK57" s="34"/>
+      <c r="FL57" s="34"/>
+      <c r="FM57" s="34"/>
+      <c r="FN57" s="34"/>
+      <c r="FO57" s="34"/>
+      <c r="FP57" s="34"/>
+      <c r="FQ57" s="34"/>
+      <c r="FR57" s="34"/>
+      <c r="FS57" s="34"/>
+      <c r="FT57" s="34"/>
+      <c r="FU57" s="34"/>
+      <c r="FV57" s="34"/>
+      <c r="FW57" s="34"/>
+      <c r="FX57" s="34"/>
+      <c r="FY57" s="34"/>
+      <c r="FZ57" s="34"/>
+      <c r="GA57" s="34"/>
+      <c r="GB57" s="34"/>
+      <c r="GC57" s="34"/>
+      <c r="GD57" s="34"/>
+      <c r="GE57" s="34"/>
+      <c r="GF57" s="34"/>
+      <c r="GG57" s="34"/>
+      <c r="GH57" s="34"/>
+      <c r="GI57" s="34"/>
+      <c r="GJ57" s="34"/>
+      <c r="GK57" s="34"/>
+      <c r="GL57" s="34"/>
+      <c r="GM57" s="34"/>
+      <c r="GN57" s="34"/>
+      <c r="GO57" s="34"/>
+      <c r="GP57" s="34"/>
+      <c r="GQ57" s="34"/>
+      <c r="GR57" s="34"/>
+      <c r="GS57" s="34"/>
+      <c r="GT57" s="34"/>
+      <c r="GU57" s="34"/>
+      <c r="GV57" s="34"/>
+      <c r="GW57" s="34"/>
+      <c r="GX57" s="34"/>
+      <c r="GY57" s="34"/>
+      <c r="GZ57" s="34"/>
+      <c r="HA57" s="34"/>
+      <c r="HB57" s="34"/>
+      <c r="HC57" s="34"/>
+      <c r="HD57" s="34"/>
+      <c r="HE57" s="34"/>
+      <c r="HF57" s="34"/>
+      <c r="HG57" s="34"/>
+      <c r="HH57" s="34"/>
+      <c r="HI57" s="34"/>
+      <c r="HJ57" s="34"/>
+      <c r="HK57" s="34"/>
+      <c r="HL57" s="34"/>
+      <c r="HM57" s="34"/>
+      <c r="HN57" s="34"/>
+      <c r="HO57" s="34"/>
+      <c r="HP57" s="34"/>
+      <c r="HQ57" s="34"/>
+      <c r="HR57" s="34"/>
+      <c r="HS57" s="34"/>
+      <c r="HT57" s="34"/>
+      <c r="HU57" s="34"/>
+      <c r="HV57" s="34"/>
+      <c r="HW57" s="34"/>
+      <c r="HX57" s="34"/>
+      <c r="HY57" s="34"/>
+      <c r="HZ57" s="34"/>
+      <c r="IA57" s="34"/>
+      <c r="IB57" s="34"/>
+      <c r="IC57" s="34"/>
+      <c r="ID57" s="34"/>
+      <c r="IE57" s="34"/>
+      <c r="IF57" s="34"/>
+      <c r="IG57" s="34"/>
+      <c r="IH57" s="34"/>
+      <c r="II57" s="34"/>
+      <c r="IJ57" s="34"/>
+      <c r="IK57" s="34"/>
+      <c r="IL57" s="34"/>
+      <c r="IM57" s="34"/>
+      <c r="IN57" s="34"/>
+      <c r="IO57" s="34"/>
+      <c r="IP57" s="34"/>
+      <c r="IQ57" s="34"/>
+      <c r="IR57" s="34"/>
+      <c r="IS57" s="34"/>
+      <c r="IT57" s="34"/>
+      <c r="IU57" s="35"/>
     </row>
     <row r="58" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="23"/>
+      <c r="B58" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -18152,507 +18115,95 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="12"/>
-      <c r="AW58" s="12"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="12"/>
-      <c r="AZ58" s="12"/>
-      <c r="BA58" s="12"/>
-      <c r="BB58" s="12"/>
-      <c r="BC58" s="12"/>
-      <c r="BD58" s="12"/>
-      <c r="BE58" s="12"/>
-      <c r="BF58" s="12"/>
-      <c r="BG58" s="12"/>
-      <c r="BH58" s="12"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="12"/>
-      <c r="BK58" s="12"/>
-      <c r="BL58" s="12"/>
-      <c r="BM58" s="12"/>
-      <c r="BN58" s="12"/>
-      <c r="BO58" s="12"/>
-      <c r="BP58" s="12"/>
-      <c r="BQ58" s="12"/>
-      <c r="BR58" s="12"/>
-      <c r="BS58" s="12"/>
-      <c r="BT58" s="12"/>
-      <c r="BU58" s="12"/>
-      <c r="BV58" s="12"/>
-      <c r="BW58" s="12"/>
-      <c r="BX58" s="12"/>
-      <c r="BY58" s="12"/>
-      <c r="BZ58" s="12"/>
-      <c r="CA58" s="12"/>
-      <c r="CB58" s="12"/>
-      <c r="CC58" s="12"/>
-      <c r="CD58" s="12"/>
-      <c r="CE58" s="12"/>
-      <c r="CF58" s="12"/>
-      <c r="CG58" s="12"/>
-      <c r="CH58" s="12"/>
-      <c r="CI58" s="12"/>
-      <c r="CJ58" s="12"/>
-      <c r="CK58" s="12"/>
-      <c r="CL58" s="12"/>
-      <c r="CM58" s="12"/>
-      <c r="CN58" s="12"/>
-      <c r="CO58" s="12"/>
-      <c r="CP58" s="12"/>
-      <c r="CQ58" s="12"/>
-      <c r="CR58" s="12"/>
-      <c r="CS58" s="12"/>
-      <c r="CT58" s="12"/>
-      <c r="CU58" s="12"/>
-      <c r="CV58" s="12"/>
-      <c r="CW58" s="12"/>
-      <c r="CX58" s="12"/>
-      <c r="CY58" s="12"/>
-      <c r="CZ58" s="12"/>
-      <c r="DA58" s="12"/>
-      <c r="DB58" s="12"/>
-      <c r="DC58" s="12"/>
-      <c r="DD58" s="12"/>
-      <c r="DE58" s="12"/>
-      <c r="DF58" s="12"/>
-      <c r="DG58" s="12"/>
-      <c r="DH58" s="12"/>
-      <c r="DI58" s="12"/>
-      <c r="DJ58" s="12"/>
-      <c r="DK58" s="12"/>
-      <c r="DL58" s="12"/>
-      <c r="DM58" s="12"/>
-      <c r="DN58" s="12"/>
-      <c r="DO58" s="12"/>
-      <c r="DP58" s="12"/>
-      <c r="DQ58" s="12"/>
-      <c r="DR58" s="12"/>
-      <c r="DS58" s="12"/>
-      <c r="DT58" s="12"/>
-      <c r="DU58" s="12"/>
-      <c r="DV58" s="12"/>
-      <c r="DW58" s="12"/>
-      <c r="DX58" s="12"/>
-      <c r="DY58" s="12"/>
-      <c r="DZ58" s="12"/>
-      <c r="EA58" s="12"/>
-      <c r="EB58" s="12"/>
-      <c r="EC58" s="12"/>
-      <c r="ED58" s="12"/>
-      <c r="EE58" s="12"/>
-      <c r="EF58" s="12"/>
-      <c r="EG58" s="12"/>
-      <c r="EH58" s="12"/>
-      <c r="EI58" s="12"/>
-      <c r="EJ58" s="12"/>
-      <c r="EK58" s="12"/>
-      <c r="EL58" s="12"/>
-      <c r="EM58" s="12"/>
-      <c r="EN58" s="12"/>
-      <c r="EO58" s="12"/>
-      <c r="EP58" s="12"/>
-      <c r="EQ58" s="12"/>
-      <c r="ER58" s="12"/>
-      <c r="ES58" s="12"/>
-      <c r="ET58" s="12"/>
-      <c r="EU58" s="12"/>
-      <c r="EV58" s="12"/>
-      <c r="EW58" s="12"/>
-      <c r="EX58" s="12"/>
-      <c r="EY58" s="12"/>
-      <c r="EZ58" s="12"/>
-      <c r="FA58" s="12"/>
-      <c r="FB58" s="12"/>
-      <c r="FC58" s="12"/>
-      <c r="FD58" s="12"/>
-      <c r="FE58" s="12"/>
-      <c r="FF58" s="12"/>
-      <c r="FG58" s="12"/>
-      <c r="FH58" s="12"/>
-      <c r="FI58" s="12"/>
-      <c r="FJ58" s="12"/>
-      <c r="FK58" s="12"/>
-      <c r="FL58" s="12"/>
-      <c r="FM58" s="12"/>
-      <c r="FN58" s="12"/>
-      <c r="FO58" s="12"/>
-      <c r="FP58" s="12"/>
-      <c r="FQ58" s="12"/>
-      <c r="FR58" s="12"/>
-      <c r="FS58" s="12"/>
-      <c r="FT58" s="12"/>
-      <c r="FU58" s="12"/>
-      <c r="FV58" s="12"/>
-      <c r="FW58" s="12"/>
-      <c r="FX58" s="12"/>
-      <c r="FY58" s="12"/>
-      <c r="FZ58" s="12"/>
-      <c r="GA58" s="12"/>
-      <c r="GB58" s="12"/>
-      <c r="GC58" s="12"/>
-      <c r="GD58" s="12"/>
-      <c r="GE58" s="12"/>
-      <c r="GF58" s="12"/>
-      <c r="GG58" s="12"/>
-      <c r="GH58" s="12"/>
-      <c r="GI58" s="12"/>
-      <c r="GJ58" s="12"/>
-      <c r="GK58" s="12"/>
-      <c r="GL58" s="12"/>
-      <c r="GM58" s="12"/>
-      <c r="GN58" s="12"/>
-      <c r="GO58" s="12"/>
-      <c r="GP58" s="12"/>
-      <c r="GQ58" s="12"/>
-      <c r="GR58" s="12"/>
-      <c r="GS58" s="12"/>
-      <c r="GT58" s="12"/>
-      <c r="GU58" s="12"/>
-      <c r="GV58" s="12"/>
-      <c r="GW58" s="12"/>
-      <c r="GX58" s="12"/>
-      <c r="GY58" s="12"/>
-      <c r="GZ58" s="12"/>
-      <c r="HA58" s="12"/>
-      <c r="HB58" s="12"/>
-      <c r="HC58" s="12"/>
-      <c r="HD58" s="12"/>
-      <c r="HE58" s="12"/>
-      <c r="HF58" s="12"/>
-      <c r="HG58" s="12"/>
-      <c r="HH58" s="12"/>
-      <c r="HI58" s="12"/>
-      <c r="HJ58" s="12"/>
-      <c r="HK58" s="12"/>
-      <c r="HL58" s="12"/>
-      <c r="HM58" s="12"/>
-      <c r="HN58" s="12"/>
-      <c r="HO58" s="12"/>
-      <c r="HP58" s="12"/>
-      <c r="HQ58" s="12"/>
-      <c r="HR58" s="12"/>
-      <c r="HS58" s="12"/>
-      <c r="HT58" s="12"/>
-      <c r="HU58" s="12"/>
-      <c r="HV58" s="12"/>
-      <c r="HW58" s="12"/>
-      <c r="HX58" s="12"/>
-      <c r="HY58" s="12"/>
-      <c r="HZ58" s="12"/>
-      <c r="IA58" s="12"/>
-      <c r="IB58" s="12"/>
-      <c r="IC58" s="12"/>
-      <c r="ID58" s="12"/>
-      <c r="IE58" s="12"/>
-      <c r="IF58" s="12"/>
-      <c r="IG58" s="12"/>
-      <c r="IH58" s="12"/>
-      <c r="II58" s="12"/>
-      <c r="IJ58" s="12"/>
-      <c r="IK58" s="12"/>
-      <c r="IL58" s="12"/>
-      <c r="IM58" s="12"/>
-      <c r="IN58" s="12"/>
-      <c r="IO58" s="12"/>
-      <c r="IP58" s="12"/>
-      <c r="IQ58" s="12"/>
-      <c r="IR58" s="12"/>
-      <c r="IS58" s="12"/>
-      <c r="IT58" s="12"/>
-      <c r="IU58" s="13"/>
-    </row>
-    <row r="59" spans="1:255" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="35"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
-      <c r="AR59" s="35"/>
-      <c r="AS59" s="35"/>
-      <c r="AT59" s="35"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="35"/>
-      <c r="AW59" s="35"/>
-      <c r="AX59" s="35"/>
-      <c r="AY59" s="35"/>
-      <c r="AZ59" s="35"/>
-      <c r="BA59" s="35"/>
-      <c r="BB59" s="35"/>
-      <c r="BC59" s="35"/>
-      <c r="BD59" s="35"/>
-      <c r="BE59" s="35"/>
-      <c r="BF59" s="35"/>
-      <c r="BG59" s="35"/>
-      <c r="BH59" s="35"/>
-      <c r="BI59" s="35"/>
-      <c r="BJ59" s="35"/>
-      <c r="BK59" s="35"/>
-      <c r="BL59" s="35"/>
-      <c r="BM59" s="35"/>
-      <c r="BN59" s="35"/>
-      <c r="BO59" s="35"/>
-      <c r="BP59" s="35"/>
-      <c r="BQ59" s="35"/>
-      <c r="BR59" s="35"/>
-      <c r="BS59" s="35"/>
-      <c r="BT59" s="35"/>
-      <c r="BU59" s="35"/>
-      <c r="BV59" s="35"/>
-      <c r="BW59" s="35"/>
-      <c r="BX59" s="35"/>
-      <c r="BY59" s="35"/>
-      <c r="BZ59" s="35"/>
-      <c r="CA59" s="35"/>
-      <c r="CB59" s="35"/>
-      <c r="CC59" s="35"/>
-      <c r="CD59" s="35"/>
-      <c r="CE59" s="35"/>
-      <c r="CF59" s="35"/>
-      <c r="CG59" s="35"/>
-      <c r="CH59" s="35"/>
-      <c r="CI59" s="35"/>
-      <c r="CJ59" s="35"/>
-      <c r="CK59" s="35"/>
-      <c r="CL59" s="35"/>
-      <c r="CM59" s="35"/>
-      <c r="CN59" s="35"/>
-      <c r="CO59" s="35"/>
-      <c r="CP59" s="35"/>
-      <c r="CQ59" s="35"/>
-      <c r="CR59" s="35"/>
-      <c r="CS59" s="35"/>
-      <c r="CT59" s="35"/>
-      <c r="CU59" s="35"/>
-      <c r="CV59" s="35"/>
-      <c r="CW59" s="35"/>
-      <c r="CX59" s="35"/>
-      <c r="CY59" s="35"/>
-      <c r="CZ59" s="35"/>
-      <c r="DA59" s="35"/>
-      <c r="DB59" s="35"/>
-      <c r="DC59" s="35"/>
-      <c r="DD59" s="35"/>
-      <c r="DE59" s="35"/>
-      <c r="DF59" s="35"/>
-      <c r="DG59" s="35"/>
-      <c r="DH59" s="35"/>
-      <c r="DI59" s="35"/>
-      <c r="DJ59" s="35"/>
-      <c r="DK59" s="35"/>
-      <c r="DL59" s="35"/>
-      <c r="DM59" s="35"/>
-      <c r="DN59" s="35"/>
-      <c r="DO59" s="35"/>
-      <c r="DP59" s="35"/>
-      <c r="DQ59" s="35"/>
-      <c r="DR59" s="35"/>
-      <c r="DS59" s="35"/>
-      <c r="DT59" s="35"/>
-      <c r="DU59" s="35"/>
-      <c r="DV59" s="35"/>
-      <c r="DW59" s="35"/>
-      <c r="DX59" s="35"/>
-      <c r="DY59" s="35"/>
-      <c r="DZ59" s="35"/>
-      <c r="EA59" s="35"/>
-      <c r="EB59" s="35"/>
-      <c r="EC59" s="35"/>
-      <c r="ED59" s="35"/>
-      <c r="EE59" s="35"/>
-      <c r="EF59" s="35"/>
-      <c r="EG59" s="35"/>
-      <c r="EH59" s="35"/>
-      <c r="EI59" s="35"/>
-      <c r="EJ59" s="35"/>
-      <c r="EK59" s="35"/>
-      <c r="EL59" s="35"/>
-      <c r="EM59" s="35"/>
-      <c r="EN59" s="35"/>
-      <c r="EO59" s="35"/>
-      <c r="EP59" s="35"/>
-      <c r="EQ59" s="35"/>
-      <c r="ER59" s="35"/>
-      <c r="ES59" s="35"/>
-      <c r="ET59" s="35"/>
-      <c r="EU59" s="35"/>
-      <c r="EV59" s="35"/>
-      <c r="EW59" s="35"/>
-      <c r="EX59" s="35"/>
-      <c r="EY59" s="35"/>
-      <c r="EZ59" s="35"/>
-      <c r="FA59" s="35"/>
-      <c r="FB59" s="35"/>
-      <c r="FC59" s="35"/>
-      <c r="FD59" s="35"/>
-      <c r="FE59" s="35"/>
-      <c r="FF59" s="35"/>
-      <c r="FG59" s="35"/>
-      <c r="FH59" s="35"/>
-      <c r="FI59" s="35"/>
-      <c r="FJ59" s="35"/>
-      <c r="FK59" s="35"/>
-      <c r="FL59" s="35"/>
-      <c r="FM59" s="35"/>
-      <c r="FN59" s="35"/>
-      <c r="FO59" s="35"/>
-      <c r="FP59" s="35"/>
-      <c r="FQ59" s="35"/>
-      <c r="FR59" s="35"/>
-      <c r="FS59" s="35"/>
-      <c r="FT59" s="35"/>
-      <c r="FU59" s="35"/>
-      <c r="FV59" s="35"/>
-      <c r="FW59" s="35"/>
-      <c r="FX59" s="35"/>
-      <c r="FY59" s="35"/>
-      <c r="FZ59" s="35"/>
-      <c r="GA59" s="35"/>
-      <c r="GB59" s="35"/>
-      <c r="GC59" s="35"/>
-      <c r="GD59" s="35"/>
-      <c r="GE59" s="35"/>
-      <c r="GF59" s="35"/>
-      <c r="GG59" s="35"/>
-      <c r="GH59" s="35"/>
-      <c r="GI59" s="35"/>
-      <c r="GJ59" s="35"/>
-      <c r="GK59" s="35"/>
-      <c r="GL59" s="35"/>
-      <c r="GM59" s="35"/>
-      <c r="GN59" s="35"/>
-      <c r="GO59" s="35"/>
-      <c r="GP59" s="35"/>
-      <c r="GQ59" s="35"/>
-      <c r="GR59" s="35"/>
-      <c r="GS59" s="35"/>
-      <c r="GT59" s="35"/>
-      <c r="GU59" s="35"/>
-      <c r="GV59" s="35"/>
-      <c r="GW59" s="35"/>
-      <c r="GX59" s="35"/>
-      <c r="GY59" s="35"/>
-      <c r="GZ59" s="35"/>
-      <c r="HA59" s="35"/>
-      <c r="HB59" s="35"/>
-      <c r="HC59" s="35"/>
-      <c r="HD59" s="35"/>
-      <c r="HE59" s="35"/>
-      <c r="HF59" s="35"/>
-      <c r="HG59" s="35"/>
-      <c r="HH59" s="35"/>
-      <c r="HI59" s="35"/>
-      <c r="HJ59" s="35"/>
-      <c r="HK59" s="35"/>
-      <c r="HL59" s="35"/>
-      <c r="HM59" s="35"/>
-      <c r="HN59" s="35"/>
-      <c r="HO59" s="35"/>
-      <c r="HP59" s="35"/>
-      <c r="HQ59" s="35"/>
-      <c r="HR59" s="35"/>
-      <c r="HS59" s="35"/>
-      <c r="HT59" s="35"/>
-      <c r="HU59" s="35"/>
-      <c r="HV59" s="35"/>
-      <c r="HW59" s="35"/>
-      <c r="HX59" s="35"/>
-      <c r="HY59" s="35"/>
-      <c r="HZ59" s="35"/>
-      <c r="IA59" s="35"/>
-      <c r="IB59" s="35"/>
-      <c r="IC59" s="35"/>
-      <c r="ID59" s="35"/>
-      <c r="IE59" s="35"/>
-      <c r="IF59" s="35"/>
-      <c r="IG59" s="35"/>
-      <c r="IH59" s="35"/>
-      <c r="II59" s="35"/>
-      <c r="IJ59" s="35"/>
-      <c r="IK59" s="35"/>
-      <c r="IL59" s="35"/>
-      <c r="IM59" s="35"/>
-      <c r="IN59" s="35"/>
-      <c r="IO59" s="35"/>
-      <c r="IP59" s="35"/>
-      <c r="IQ59" s="35"/>
-      <c r="IR59" s="35"/>
-      <c r="IS59" s="35"/>
-      <c r="IT59" s="35"/>
-      <c r="IU59" s="36"/>
+    </row>
+    <row r="59" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+    </row>
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="D66" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -18667,640 +18218,640 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="37" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="37" customWidth="1"/>
-    <col min="9" max="256" width="9.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="36" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="58" t="s">
+      <c r="F3" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="59" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="45" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="F5" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="B6" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="F6" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="B7" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="59" t="s">
+      <c r="F7" s="52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="59" t="s">
+      <c r="B8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="F8" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="45" t="s">
+      <c r="B9" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="59" t="s">
+      <c r="F9" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="59" t="s">
+      <c r="B10" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="48" t="s">
+      <c r="F10" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="45" t="s">
+      <c r="B11" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="58" t="s">
+      <c r="F11" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>102</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="C12" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="D12" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="B13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="C13" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="D15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="49"/>
+      <c r="E25" s="12"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="62" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="56"/>
-      <c r="E25" s="12"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D27" s="63" t="s">
+      <c r="E32" s="52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="B33" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="58" t="s">
+      <c r="C33" s="51"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="E30" s="59" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="44" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E35" s="52" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="C33" s="39"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="55" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>381</v>
-      </c>
-    </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -19321,2025 +18872,2025 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="39" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" style="38" customWidth="1"/>
+    <col min="2" max="256" width="10.85546875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40" t="s">
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40" t="s">
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40" t="s">
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40" t="s">
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40" t="s">
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40" t="s">
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40" t="s">
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40" t="s">
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40" t="s">
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40" t="s">
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40" t="s">
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-    </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40" t="s">
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-    </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40" t="s">
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-    </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40" t="s">
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40" t="s">
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-    </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-    </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-    </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-    </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40" t="s">
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40" t="s">
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40" t="s">
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-    </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40" t="s">
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40" t="s">
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40" t="s">
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40" t="s">
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="40"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40" t="s">
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40" t="s">
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40" t="s">
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40" t="s">
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B133" s="41"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40" t="s">
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40" t="s">
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="41"/>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40" t="s">
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="41"/>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40" t="s">
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40" t="s">
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40" t="s">
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="41"/>
-    </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40" t="s">
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="40"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="41"/>
-    </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40" t="s">
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="41"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="41"/>
-    </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40" t="s">
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
-    </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="40" t="s">
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="40"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40" t="s">
+      <c r="B149" s="40"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="40"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="41"/>
-      <c r="E144" s="41"/>
-    </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40" t="s">
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="41"/>
-    </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40" t="s">
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
-    </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40" t="s">
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-    </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40" t="s">
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="40"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="41"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
-    </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-    </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40" t="s">
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="41"/>
-    </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40" t="s">
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
-    </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40" t="s">
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="B152" s="41"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="41"/>
-    </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40" t="s">
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-    </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40" t="s">
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="41"/>
-    </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40" t="s">
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="41"/>
-    </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40" t="s">
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="B156" s="41"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="41"/>
-    </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="40" t="s">
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="41"/>
-      <c r="E157" s="41"/>
-    </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40" t="s">
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="40"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-    </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40" t="s">
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="40"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="41"/>
-    </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40" t="s">
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="40"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="41"/>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40" t="s">
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="40"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="41"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40" t="s">
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="40"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="41"/>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40" t="s">
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="41"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="41"/>
-    </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40" t="s">
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="B165" s="41"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="41"/>
-      <c r="E165" s="41"/>
-    </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40" t="s">
+      <c r="B171" s="40"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="B166" s="41"/>
-      <c r="C166" s="41"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="41"/>
-    </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40" t="s">
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="41"/>
-    </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40" t="s">
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="41"/>
-    </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40" t="s">
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="B169" s="41"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="41"/>
-    </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40" t="s">
+      <c r="B175" s="40"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-    </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="40" t="s">
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="41"/>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="41"/>
-      <c r="E172" s="41"/>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40" t="s">
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-    </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40" t="s">
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="B174" s="41"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="41"/>
-      <c r="E174" s="41"/>
-    </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40" t="s">
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="40"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
-      <c r="D175" s="41"/>
-      <c r="E175" s="41"/>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
+      <c r="B181" s="40"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="40"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="B176" s="41"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="41"/>
-      <c r="E176" s="41"/>
-    </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40" t="s">
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="40"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="B177" s="41"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40" t="s">
+      <c r="B183" s="40"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="B178" s="41"/>
-      <c r="C178" s="41"/>
-      <c r="D178" s="41"/>
-      <c r="E178" s="41"/>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40" t="s">
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="41"/>
-      <c r="E179" s="41"/>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40" t="s">
+      <c r="B185" s="40"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B180" s="41"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="41"/>
-      <c r="E180" s="41"/>
-    </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40" t="s">
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="41"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="41"/>
-      <c r="E181" s="41"/>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40" t="s">
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="B182" s="41"/>
-      <c r="C182" s="41"/>
-      <c r="D182" s="41"/>
-      <c r="E182" s="41"/>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40" t="s">
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="B183" s="41"/>
-      <c r="C183" s="41"/>
-      <c r="D183" s="41"/>
-      <c r="E183" s="41"/>
-    </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40" t="s">
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="40"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="B184" s="41"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="41"/>
-      <c r="E184" s="41"/>
-    </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="40" t="s">
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="41"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40" t="s">
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="B186" s="41"/>
-      <c r="C186" s="41"/>
-      <c r="D186" s="41"/>
-      <c r="E186" s="41"/>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40" t="s">
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="40"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="40"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="B187" s="41"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="41"/>
-      <c r="E187" s="41"/>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40" t="s">
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B188" s="41"/>
-      <c r="C188" s="41"/>
-      <c r="D188" s="41"/>
-      <c r="E188" s="41"/>
-    </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40" t="s">
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="B189" s="41"/>
-      <c r="C189" s="41"/>
-      <c r="D189" s="41"/>
-      <c r="E189" s="41"/>
-    </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40" t="s">
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="B190" s="41"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="41"/>
-      <c r="E190" s="41"/>
-    </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40" t="s">
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="40"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B191" s="41"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="41"/>
-      <c r="E191" s="41"/>
-    </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40" t="s">
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="40"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="B192" s="41"/>
-      <c r="C192" s="41"/>
-      <c r="D192" s="41"/>
-      <c r="E192" s="41"/>
-    </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="B193" s="41"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="41"/>
-      <c r="E193" s="41"/>
-    </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40" t="s">
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="40"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="41"/>
-      <c r="E194" s="41"/>
-    </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40" t="s">
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="40"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="41"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
-    </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40" t="s">
+      <c r="B201" s="40"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="B196" s="41"/>
-      <c r="C196" s="41"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="41"/>
-    </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40" t="s">
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="40"/>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="B197" s="41"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="41"/>
-      <c r="E197" s="41"/>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40" t="s">
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="40"/>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B198" s="41"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="41"/>
-      <c r="E198" s="41"/>
-    </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="40" t="s">
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="B199" s="41"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="41"/>
-      <c r="E199" s="41"/>
-    </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40" t="s">
+      <c r="B205" s="40"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="40"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="41"/>
-      <c r="E200" s="41"/>
-    </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40" t="s">
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="40"/>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="41"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="41"/>
-    </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40" t="s">
+      <c r="B207" s="40"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="40"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="41"/>
-      <c r="E202" s="41"/>
-    </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40" t="s">
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="40"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="B203" s="41"/>
-      <c r="C203" s="41"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="41"/>
-    </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40" t="s">
+      <c r="B209" s="40"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="40"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="41"/>
-      <c r="E204" s="41"/>
-    </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40" t="s">
+      <c r="B210" s="40"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="40"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="B205" s="41"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="41"/>
-      <c r="E205" s="41"/>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40" t="s">
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="40"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="41"/>
-      <c r="E206" s="41"/>
-    </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40" t="s">
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B213" s="40"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="40"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B207" s="41"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="41"/>
-    </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40" t="s">
+      <c r="B214" s="40"/>
+      <c r="C214" s="40"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="40"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41"/>
-      <c r="E208" s="41"/>
-    </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40" t="s">
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="40"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B216" s="40"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="40"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="B209" s="41"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="41"/>
-      <c r="E209" s="41"/>
-    </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40" t="s">
+      <c r="B217" s="40"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="40"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="B210" s="41"/>
-      <c r="C210" s="41"/>
-      <c r="D210" s="41"/>
-      <c r="E210" s="41"/>
-    </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40" t="s">
+      <c r="B218" s="40"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="40"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="B211" s="41"/>
-      <c r="C211" s="41"/>
-      <c r="D211" s="41"/>
-      <c r="E211" s="41"/>
-    </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40" t="s">
+      <c r="B219" s="40"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="B212" s="41"/>
-      <c r="C212" s="41"/>
-      <c r="D212" s="41"/>
-      <c r="E212" s="41"/>
-    </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="B213" s="41"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="41"/>
-    </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40" t="s">
+      <c r="B220" s="40"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="40"/>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B214" s="41"/>
-      <c r="C214" s="41"/>
-      <c r="D214" s="41"/>
-      <c r="E214" s="41"/>
-    </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40" t="s">
+      <c r="B221" s="40"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="40"/>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="B215" s="41"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="41"/>
-      <c r="E215" s="41"/>
-    </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="B216" s="41"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="41"/>
-    </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40" t="s">
+      <c r="B222" s="40"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="40"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="41"/>
-    </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40" t="s">
+      <c r="B223" s="40"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B218" s="41"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="41"/>
-    </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B219" s="41"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="41"/>
-    </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="B220" s="41"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="41"/>
-      <c r="E220" s="41"/>
-    </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B221" s="41"/>
-      <c r="C221" s="41"/>
-      <c r="D221" s="41"/>
-      <c r="E221" s="41"/>
-    </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B222" s="41"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="41"/>
-      <c r="E222" s="41"/>
-    </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="B223" s="41"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="41"/>
-    </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="B224" s="41"/>
-      <c r="C224" s="41"/>
-      <c r="D224" s="41"/>
-      <c r="E224" s="41"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCE2F9-4CBA-4A37-9729-14E63FC6CF11}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C5AC6C-CD7D-4B6C-BC32-BDDEFC56D455}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="399">
   <si>
     <t>Console</t>
   </si>
@@ -1247,6 +1247,75 @@
   </si>
   <si>
     <t>Alt+Shift+Cursor</t>
+  </si>
+  <si>
+    <t>emacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M` </t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>C-x C-c</t>
+  </si>
+  <si>
+    <t>salir</t>
+  </si>
+  <si>
+    <t>C-x C-s</t>
+  </si>
+  <si>
+    <t>guardar</t>
+  </si>
+  <si>
+    <t>C-x C-f Find (open) a file</t>
+  </si>
+  <si>
+    <t>C-x C-s Save the buffer</t>
+  </si>
+  <si>
+    <t>C-x b Switch buffer</t>
+  </si>
+  <si>
+    <t>C-x k Kill (close) a buffer</t>
+  </si>
+  <si>
+    <t>C-x C-b Display all open buffers</t>
+  </si>
+  <si>
+    <t>C-x C-c Exits Emacs</t>
+  </si>
+  <si>
+    <t>ESC ESC ESC Exits out of prompts,</t>
+  </si>
+  <si>
+    <t>regions, prefix arguments and</t>
+  </si>
+  <si>
+    <t>returns to just one window</t>
+  </si>
+  <si>
+    <t>C-/ Undo changes</t>
+  </si>
+  <si>
+    <t>M-x ido-mode</t>
+  </si>
+  <si>
+    <t>C-x 0 Deletes the active window</t>
+  </si>
+  <si>
+    <t>C-x 1 Deletes other windows</t>
+  </si>
+  <si>
+    <t>C-x 2 Split window below</t>
+  </si>
+  <si>
+    <t>C-x 3 Split window right</t>
+  </si>
+  <si>
+    <t>C-x o Switch active window</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1988,6 +2057,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18216,10 +18286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV37"/>
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18833,7 +18903,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="38" t="s">
+        <v>376</v>
+      </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="51" t="s">
@@ -18849,9 +18921,110 @@
       <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="75" t="s">
+        <v>393</v>
+      </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C5AC6C-CD7D-4B6C-BC32-BDDEFC56D455}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B392153-970A-43DC-B384-B584D5D537EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1380,6 +1380,13 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1981,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2058,6 +2065,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18289,7 +18297,7 @@
   <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18903,7 +18911,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="76" t="s">
         <v>376</v>
       </c>
       <c r="B35" s="38"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B392153-970A-43DC-B384-B584D5D537EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE21A9B-2AC1-4404-B2FD-4ABBCF85962D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
     <sheet name="Horizontal" sheetId="2" r:id="rId2"/>
-    <sheet name="paquetes" sheetId="3" r:id="rId3"/>
+    <sheet name="emacs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="213">
   <si>
     <t>Console</t>
   </si>
@@ -408,676 +408,7 @@
     <t>Cmd + cursor</t>
   </si>
   <si>
-    <t>alphahull</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>anim.plots</t>
-  </si>
-  <si>
-    <t>animation</t>
-  </si>
-  <si>
-    <t>basictabler</t>
-  </si>
-  <si>
-    <t>bigrquery</t>
-  </si>
-  <si>
-    <t>bookdown</t>
-  </si>
-  <si>
-    <t>brms</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>caret</t>
-  </si>
-  <si>
-    <t>cartography</t>
-  </si>
-  <si>
-    <t>changepoint</t>
-  </si>
-  <si>
-    <t>charlatan</t>
-  </si>
-  <si>
-    <t>choroplethr</t>
-  </si>
-  <si>
-    <t>choroplethrMaps</t>
-  </si>
-  <si>
-    <t>chunked</t>
-  </si>
-  <si>
-    <t>cleanNLP</t>
-  </si>
-  <si>
-    <t>colourpicker</t>
-  </si>
-  <si>
-    <t>condformat</t>
-  </si>
-  <si>
-    <t>confinterpret</t>
-  </si>
-  <si>
-    <t>corrr</t>
-  </si>
-  <si>
-    <t>cowplot</t>
-  </si>
-  <si>
-    <t>cr17</t>
-  </si>
-  <si>
-    <t>CRANsearcher</t>
-  </si>
-  <si>
-    <t>cshapes</t>
-  </si>
-  <si>
-    <t>ctv</t>
-  </si>
-  <si>
-    <t>d3heatmap</t>
-  </si>
-  <si>
-    <t>d3Tree</t>
-  </si>
-  <si>
-    <t>data.table</t>
-  </si>
-  <si>
-    <t>DataCombine</t>
-  </si>
-  <si>
-    <t>dataCompareR</t>
-  </si>
-  <si>
-    <t>DataExplorer</t>
-  </si>
-  <si>
-    <t>dataMaid</t>
-  </si>
-  <si>
-    <t>datapasta</t>
-  </si>
-  <si>
-    <t>dataPreparation</t>
-  </si>
-  <si>
-    <t>descriptr</t>
-  </si>
-  <si>
-    <t>desctable</t>
-  </si>
-  <si>
-    <t>DescTools</t>
-  </si>
-  <si>
-    <t>DiagrammeR</t>
-  </si>
-  <si>
-    <t>diceR</t>
-  </si>
-  <si>
-    <t>diffobj</t>
-  </si>
-  <si>
-    <t>directlabels</t>
-  </si>
-  <si>
-    <t>drake</t>
-  </si>
-  <si>
-    <t>dygraphs</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>extrafont</t>
-  </si>
-  <si>
-    <t>factoextra</t>
-  </si>
-  <si>
-    <t>FFTrees</t>
-  </si>
-  <si>
-    <t>filesstrings</t>
-  </si>
-  <si>
-    <t>forecTheta</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>funModeling</t>
-  </si>
-  <si>
-    <t>futile.logger</t>
-  </si>
-  <si>
-    <t>gbm</t>
-  </si>
-  <si>
-    <t>gdalUtils</t>
-  </si>
-  <si>
-    <t>geofacet</t>
-  </si>
-  <si>
-    <t>geonames</t>
-  </si>
-  <si>
-    <t>geoR</t>
-  </si>
-  <si>
-    <t>geosphere</t>
-  </si>
-  <si>
-    <t>GeoXp</t>
-  </si>
-  <si>
-    <t>GGally</t>
-  </si>
-  <si>
-    <t>ggalt</t>
-  </si>
-  <si>
-    <t>ggbeeswarm</t>
-  </si>
-  <si>
-    <t>ggcorrplot</t>
-  </si>
-  <si>
-    <t>ggedit</t>
-  </si>
-  <si>
-    <t>ggforce</t>
-  </si>
-  <si>
-    <t>gghighlight</t>
-  </si>
-  <si>
-    <t>ggimage</t>
-  </si>
-  <si>
-    <t>ggiraph</t>
-  </si>
-  <si>
-    <t>ggmap</t>
-  </si>
-  <si>
-    <t>ggplotAssist</t>
-  </si>
-  <si>
-    <t>ggplotgui</t>
-  </si>
-  <si>
-    <t>ggpubr</t>
-  </si>
-  <si>
-    <t>ggraph</t>
-  </si>
-  <si>
-    <t>ggrepel</t>
-  </si>
-  <si>
-    <t>ggridges</t>
-  </si>
-  <si>
-    <t>ggsci</t>
-  </si>
-  <si>
-    <t>ggseas</t>
-  </si>
-  <si>
-    <t>ggsn</t>
-  </si>
-  <si>
-    <t>ggstance</t>
-  </si>
-  <si>
-    <t>ggtern</t>
-  </si>
-  <si>
-    <t>ggThemeAssist</t>
-  </si>
-  <si>
-    <t>ggthemes</t>
-  </si>
-  <si>
-    <t>ggvis</t>
-  </si>
-  <si>
-    <t>glmnet</t>
-  </si>
-  <si>
-    <t>gmodels</t>
-  </si>
-  <si>
-    <t>googleLanguageR</t>
-  </si>
-  <si>
-    <t>gpclib</t>
-  </si>
-  <si>
-    <t>gridExtra</t>
-  </si>
-  <si>
-    <t>gtable</t>
-  </si>
-  <si>
-    <t>gtrendsR</t>
-  </si>
-  <si>
-    <t>heatmaply</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>hexbin</t>
-  </si>
-  <si>
-    <t>hexSticker</t>
-  </si>
-  <si>
-    <t>highcharter</t>
-  </si>
-  <si>
-    <t>Hmisc</t>
-  </si>
-  <si>
-    <t>hrbrthemes</t>
-  </si>
-  <si>
-    <t>htmlwidgets</t>
-  </si>
-  <si>
-    <t>igraph</t>
-  </si>
-  <si>
-    <t>janitor</t>
-  </si>
-  <si>
-    <t>Kmisc</t>
-  </si>
-  <si>
-    <t>knitr</t>
-  </si>
-  <si>
-    <t>koRpus</t>
-  </si>
-  <si>
-    <t>lambda.tools</t>
-  </si>
-  <si>
-    <t>leaflet</t>
-  </si>
-  <si>
-    <t>leaflet.minicharts</t>
-  </si>
-  <si>
-    <t>leaps</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>lessR</t>
-  </si>
-  <si>
-    <t>liftr</t>
-  </si>
-  <si>
-    <t>likert</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>linemap</t>
-  </si>
-  <si>
-    <t>liquidSVM</t>
-  </si>
-  <si>
-    <t>logging</t>
-  </si>
-  <si>
-    <t>magick</t>
-  </si>
-  <si>
-    <t>manipulate</t>
-  </si>
-  <si>
-    <t>mapdata</t>
-  </si>
-  <si>
-    <t>mapedit</t>
-  </si>
-  <si>
-    <t>mapmisc</t>
-  </si>
-  <si>
-    <t>maps</t>
-  </si>
-  <si>
-    <t>mapsapi</t>
-  </si>
-  <si>
-    <t>maptools</t>
-  </si>
-  <si>
-    <t>mapview</t>
-  </si>
-  <si>
-    <t>metricsgraphics</t>
-  </si>
-  <si>
-    <t>mi</t>
-  </si>
-  <si>
-    <t>missForest</t>
-  </si>
-  <si>
-    <t>mschart</t>
-  </si>
-  <si>
-    <t>naniar</t>
-  </si>
-  <si>
-    <t>naturalsort</t>
-  </si>
-  <si>
-    <t>networkD3</t>
-  </si>
-  <si>
-    <t>numform</t>
-  </si>
-  <si>
-    <t>outliers</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>pathological</t>
-  </si>
-  <si>
-    <t>pipefittr</t>
-  </si>
-  <si>
-    <t>pkggraph</t>
-  </si>
-  <si>
-    <t>placement</t>
-  </si>
-  <si>
-    <t>plotKML</t>
-  </si>
-  <si>
-    <t>plotly</t>
-  </si>
-  <si>
-    <t>plotrr</t>
-  </si>
-  <si>
-    <t>pmap</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>postGIStools</t>
-  </si>
-  <si>
-    <t>printr</t>
-  </si>
-  <si>
-    <t>profvis</t>
-  </si>
-  <si>
-    <t>psych</t>
-  </si>
-  <si>
-    <t>qdapRegex</t>
-  </si>
-  <si>
-    <t>quantmod</t>
-  </si>
-  <si>
-    <t>questionr</t>
-  </si>
-  <si>
-    <t>R.utils</t>
-  </si>
-  <si>
-    <t>randomForest</t>
-  </si>
-  <si>
-    <t>randomForestExplainer</t>
-  </si>
-  <si>
-    <t>raster</t>
-  </si>
-  <si>
-    <t>rasterVis</t>
-  </si>
-  <si>
-    <t>reprex</t>
-  </si>
-  <si>
-    <t>revealjs</t>
-  </si>
-  <si>
-    <t>rgdal</t>
-  </si>
-  <si>
-    <t>rgeos</t>
-  </si>
-  <si>
-    <t>rgl</t>
-  </si>
-  <si>
-    <t>RgoogleMaps</t>
-  </si>
-  <si>
-    <t>rio</t>
-  </si>
-  <si>
-    <t>riverplot</t>
-  </si>
-  <si>
-    <t>rlang</t>
-  </si>
-  <si>
-    <t>rmarkdown</t>
-  </si>
-  <si>
-    <t>rms</t>
-  </si>
-  <si>
-    <t>robets</t>
-  </si>
-  <si>
-    <t>rpart.plot</t>
-  </si>
-  <si>
-    <t>rpostgis</t>
-  </si>
-  <si>
-    <t>rsample</t>
-  </si>
-  <si>
-    <t>RTextTools</t>
-  </si>
-  <si>
-    <t>rts</t>
-  </si>
-  <si>
-    <t>rtweet</t>
-  </si>
-  <si>
-    <t>rvg</t>
-  </si>
-  <si>
-    <t>rworldmap</t>
-  </si>
-  <si>
-    <t>scanstatistics</t>
-  </si>
-  <si>
-    <t>scatterplot3d</t>
-  </si>
-  <si>
-    <t>sessioninfo</t>
-  </si>
-  <si>
-    <t>shapefiles</t>
-  </si>
-  <si>
-    <t>shiny</t>
-  </si>
-  <si>
-    <t>sigr</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>sinew</t>
-  </si>
-  <si>
-    <t>sjmisc</t>
-  </si>
-  <si>
-    <t>skimr</t>
-  </si>
-  <si>
-    <t>smpic</t>
-  </si>
-  <si>
-    <t>snakecase</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>sparklyr</t>
-  </si>
-  <si>
-    <t>spatstat</t>
-  </si>
-  <si>
-    <t>stm</t>
-  </si>
-  <si>
-    <t>stow</t>
-  </si>
-  <si>
-    <t>styler</t>
-  </si>
-  <si>
-    <t>sugrrants</t>
-  </si>
-  <si>
-    <t>summarytools</t>
-  </si>
-  <si>
-    <t>swatches</t>
-  </si>
-  <si>
-    <t>sweep</t>
-  </si>
-  <si>
-    <t>tabplot</t>
-  </si>
-  <si>
-    <t>tadaatoolbox</t>
-  </si>
-  <si>
-    <t>tatoo</t>
-  </si>
-  <si>
-    <t>textclean</t>
-  </si>
-  <si>
-    <t>threejs</t>
-  </si>
-  <si>
-    <t>tibbletime</t>
-  </si>
-  <si>
-    <t>tictoc</t>
-  </si>
-  <si>
-    <t>tidygraph</t>
-  </si>
-  <si>
-    <t>tidyquant</t>
-  </si>
-  <si>
-    <t>timetk</t>
-  </si>
-  <si>
-    <t>tmap</t>
-  </si>
-  <si>
-    <t>tmaptools</t>
-  </si>
-  <si>
-    <t>topicmodels</t>
-  </si>
-  <si>
-    <t>udpipe</t>
-  </si>
-  <si>
     <t>VIM</t>
-  </si>
-  <si>
-    <t>visdat</t>
-  </si>
-  <si>
-    <t>visNetwork</t>
-  </si>
-  <si>
-    <t>waterfalls</t>
-  </si>
-  <si>
-    <t>withr</t>
-  </si>
-  <si>
-    <t>xgboost</t>
-  </si>
-  <si>
-    <t>yardstick</t>
-  </si>
-  <si>
-    <t>yarrr</t>
-  </si>
-  <si>
-    <t>tmuxr</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>usethis</t>
   </si>
   <si>
     <t>copy/cut &amp; paste</t>
@@ -1258,71 +589,182 @@
     <t>menu</t>
   </si>
   <si>
-    <t>C-x C-c</t>
-  </si>
-  <si>
-    <t>salir</t>
-  </si>
-  <si>
     <t>C-x C-s</t>
   </si>
   <si>
     <t>guardar</t>
   </si>
   <si>
-    <t>C-x C-f Find (open) a file</t>
-  </si>
-  <si>
-    <t>C-x C-s Save the buffer</t>
-  </si>
-  <si>
-    <t>C-x b Switch buffer</t>
-  </si>
-  <si>
-    <t>C-x k Kill (close) a buffer</t>
-  </si>
-  <si>
-    <t>C-x C-b Display all open buffers</t>
-  </si>
-  <si>
-    <t>C-x C-c Exits Emacs</t>
-  </si>
-  <si>
-    <t>ESC ESC ESC Exits out of prompts,</t>
-  </si>
-  <si>
-    <t>regions, prefix arguments and</t>
-  </si>
-  <si>
-    <t>returns to just one window</t>
-  </si>
-  <si>
-    <t>C-/ Undo changes</t>
-  </si>
-  <si>
-    <t>M-x ido-mode</t>
-  </si>
-  <si>
-    <t>C-x 0 Deletes the active window</t>
-  </si>
-  <si>
-    <t>C-x 1 Deletes other windows</t>
-  </si>
-  <si>
-    <t>C-x 2 Split window below</t>
-  </si>
-  <si>
-    <t>C-x 3 Split window right</t>
-  </si>
-  <si>
-    <t>C-x o Switch active window</t>
+    <t xml:space="preserve">C-x C-f </t>
+  </si>
+  <si>
+    <t>Find (open) a file</t>
+  </si>
+  <si>
+    <t>Save the buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x b </t>
+  </si>
+  <si>
+    <t>Switch buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x k </t>
+  </si>
+  <si>
+    <t>Kill (close) a buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x C-b </t>
+  </si>
+  <si>
+    <t>Display all open buffers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x C-c </t>
+  </si>
+  <si>
+    <t>Exits Emacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-g </t>
+  </si>
+  <si>
+    <t>Undo changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x 0 </t>
+  </si>
+  <si>
+    <t>Deletes the active window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x 1 </t>
+  </si>
+  <si>
+    <t>Deletes other windows</t>
+  </si>
+  <si>
+    <t>C-x 2</t>
+  </si>
+  <si>
+    <t>Split window below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x 3 </t>
+  </si>
+  <si>
+    <t>Split window right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x o </t>
+  </si>
+  <si>
+    <t>Switch active window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x 4 C-f </t>
+  </si>
+  <si>
+    <t>Finds a file in the other window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-x 4 0 </t>
+  </si>
+  <si>
+    <t>Kills the buffer and window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-f </t>
+  </si>
+  <si>
+    <t>Move forward by s-expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-b </t>
+  </si>
+  <si>
+    <t>Move backward by s-expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-h </t>
+  </si>
+  <si>
+    <t>Marks the next paragraph</t>
+  </si>
+  <si>
+    <t>Marks the whole buffer</t>
+  </si>
+  <si>
+    <t>Marks the next s-expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-&lt;SPC&gt;, C-g </t>
+  </si>
+  <si>
+    <t>Deactivates the region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-x grep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-s </t>
+  </si>
+  <si>
+    <t>Begins a regexp incremental search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-s </t>
+  </si>
+  <si>
+    <t>Begins an incremental search</t>
+  </si>
+  <si>
+    <t>C-x h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-&lt;SPC&gt;  / C-M-@ </t>
+  </si>
+  <si>
+    <t>Prompts for arguments to grep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-w </t>
+  </si>
+  <si>
+    <t>Kill active region cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-w </t>
+  </si>
+  <si>
+    <t>Copy to kill ring copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-w </t>
+  </si>
+  <si>
+    <t>Append kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-y </t>
+  </si>
+  <si>
+    <t>Yank last kill paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-y </t>
+  </si>
+  <si>
+    <t>Cycle through kill ring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1386,6 +828,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1988,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2047,25 +1496,26 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3228,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3500,16 +2950,16 @@
     </row>
     <row r="2" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="10"/>
@@ -3767,16 +3217,16 @@
     </row>
     <row r="3" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="68" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10"/>
@@ -4032,17 +3482,17 @@
     </row>
     <row r="4" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>372</v>
+      <c r="E4" s="54" t="s">
+        <v>149</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="12"/>
@@ -4297,16 +3747,16 @@
     </row>
     <row r="5" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="68" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="10"/>
@@ -4562,16 +4012,16 @@
     </row>
     <row r="6" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="54" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10"/>
@@ -4827,16 +4277,16 @@
     </row>
     <row r="7" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="10"/>
@@ -5092,16 +4542,16 @@
     </row>
     <row r="8" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="10"/>
@@ -5357,16 +4807,16 @@
     </row>
     <row r="9" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="68" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="10"/>
@@ -5622,16 +5072,16 @@
     </row>
     <row r="10" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="72" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="10"/>
@@ -5887,16 +5337,16 @@
     </row>
     <row r="11" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="68" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="10"/>
@@ -6152,16 +5602,16 @@
     </row>
     <row r="12" spans="1:255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="75" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="10"/>
@@ -6417,17 +5867,17 @@
     </row>
     <row r="13" spans="1:255" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>364</v>
+      <c r="D13" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>141</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
@@ -13757,7 +13207,7 @@
         <v>107</v>
       </c>
       <c r="D41" s="23"/>
-      <c r="E41" s="74"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -14018,7 +13468,7 @@
         <v>108</v>
       </c>
       <c r="D42" s="23"/>
-      <c r="E42" s="74"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -14279,7 +13729,7 @@
         <v>110</v>
       </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="74"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -14540,7 +13990,7 @@
         <v>112</v>
       </c>
       <c r="D44" s="23"/>
-      <c r="E44" s="74"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -14797,7 +14247,7 @@
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="74"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -15321,7 +14771,7 @@
         <v>117</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" s="74"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -15582,7 +15032,7 @@
         <v>119</v>
       </c>
       <c r="D48" s="23"/>
-      <c r="E48" s="74"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -15843,7 +15293,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="23"/>
-      <c r="E49" s="74"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -17657,7 +17107,7 @@
     <row r="56" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="48" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="12"/>
@@ -17916,10 +17366,10 @@
     <row r="57" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="51" t="s">
-        <v>367</v>
+        <v>144</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -18176,10 +17626,10 @@
     </row>
     <row r="58" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="43" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>369</v>
+        <v>146</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -18196,10 +17646,10 @@
     </row>
     <row r="59" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="51" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>371</v>
+        <v>148</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -18232,21 +17682,21 @@
     </row>
     <row r="61" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="48" t="s">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="C61" s="38"/>
     </row>
     <row r="62" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="51" t="s">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>375</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="48" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
@@ -18255,30 +17705,30 @@
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="56" t="s">
-        <v>357</v>
+        <v>134</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
@@ -18294,10 +17744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV55"/>
+  <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18324,16 +17774,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="41" t="s">
@@ -18344,16 +17794,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="68" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="51" t="s">
@@ -18364,17 +17814,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>372</v>
+      <c r="D4" s="54" t="s">
+        <v>149</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>88</v>
@@ -18384,16 +17834,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="68" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="51" t="s">
@@ -18404,16 +17854,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="54" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="43" t="s">
@@ -18424,16 +17874,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="51" t="s">
@@ -18444,16 +17894,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="43" t="s">
@@ -18464,16 +17914,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="68" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="51" t="s">
@@ -18484,16 +17934,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="43" t="s">
@@ -18504,16 +17954,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="68" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="51" t="s">
@@ -18526,16 +17976,16 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="75" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="12"/>
@@ -18543,17 +17993,17 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>364</v>
+      <c r="C13" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>141</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="38"/>
@@ -18794,7 +18244,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="B26" s="37"/>
       <c r="D26" s="50"/>
@@ -18804,32 +18254,32 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
-        <v>357</v>
+        <v>134</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
@@ -18841,14 +18291,14 @@
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="48" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>114</v>
@@ -18857,10 +18307,10 @@
         <v>125</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>367</v>
+        <v>144</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18872,10 +18322,10 @@
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>369</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18887,18 +18337,18 @@
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>371</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="C33" s="51"/>
     </row>
@@ -18907,20 +18357,17 @@
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="48" t="s">
-        <v>373</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>376</v>
-      </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="51" t="s">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>375</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18929,110 +18376,112 @@
       <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
-        <v>393</v>
+      <c r="A37" s="59" t="s">
+        <v>153</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>378</v>
+      <c r="A38" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>380</v>
+      <c r="A39" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>382</v>
+      <c r="A40" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>383</v>
+      <c r="A41" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>384</v>
+      <c r="A42" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>385</v>
+      <c r="A43" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>386</v>
+      <c r="A44" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>398</v>
-      </c>
+      <c r="C45" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -19047,2035 +18496,1108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV224"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="38" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="38" customWidth="1"/>
+    <col min="5" max="256" width="10.85546875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="D8" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="D10" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="C11" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="C12" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="C13" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="B14" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="C14" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="C15" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="B16" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
+      <c r="C16" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
+      <c r="D16" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
-        <v>228</v>
-      </c>
+      <c r="A101" s="39"/>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A102" s="39"/>
       <c r="B102" s="40"/>
       <c r="C102" s="40"/>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="39" t="s">
-        <v>230</v>
-      </c>
+      <c r="A103" s="39"/>
       <c r="B103" s="40"/>
       <c r="C103" s="40"/>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
-        <v>231</v>
-      </c>
+      <c r="A104" s="39"/>
       <c r="B104" s="40"/>
       <c r="C104" s="40"/>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39" t="s">
-        <v>232</v>
-      </c>
+      <c r="A105" s="39"/>
       <c r="B105" s="40"/>
       <c r="C105" s="40"/>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
-        <v>233</v>
-      </c>
+      <c r="A106" s="39"/>
       <c r="B106" s="40"/>
       <c r="C106" s="40"/>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
-        <v>234</v>
-      </c>
+      <c r="A107" s="39"/>
       <c r="B107" s="40"/>
       <c r="C107" s="40"/>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
-        <v>235</v>
-      </c>
+      <c r="A108" s="39"/>
       <c r="B108" s="40"/>
       <c r="C108" s="40"/>
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
-        <v>236</v>
-      </c>
+      <c r="A109" s="39"/>
       <c r="B109" s="40"/>
       <c r="C109" s="40"/>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>237</v>
-      </c>
+      <c r="A110" s="39"/>
       <c r="B110" s="40"/>
       <c r="C110" s="40"/>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
-        <v>238</v>
-      </c>
+      <c r="A111" s="39"/>
       <c r="B111" s="40"/>
       <c r="C111" s="40"/>
       <c r="D111" s="40"/>
       <c r="E111" s="40"/>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
-        <v>239</v>
-      </c>
+      <c r="A112" s="39"/>
       <c r="B112" s="40"/>
       <c r="C112" s="40"/>
       <c r="D112" s="40"/>
       <c r="E112" s="40"/>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
-        <v>240</v>
-      </c>
+      <c r="A113" s="39"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
       <c r="D113" s="40"/>
       <c r="E113" s="40"/>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
-        <v>241</v>
-      </c>
+      <c r="A114" s="39"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
       <c r="D114" s="40"/>
       <c r="E114" s="40"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>242</v>
-      </c>
+      <c r="A115" s="39"/>
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
       <c r="D115" s="40"/>
       <c r="E115" s="40"/>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
-        <v>243</v>
-      </c>
+      <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
       <c r="D116" s="40"/>
       <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>244</v>
-      </c>
+      <c r="A117" s="39"/>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
       <c r="D117" s="40"/>
       <c r="E117" s="40"/>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
-        <v>245</v>
-      </c>
+      <c r="A118" s="39"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40"/>
       <c r="D118" s="40"/>
       <c r="E118" s="40"/>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
-        <v>246</v>
-      </c>
+      <c r="A119" s="39"/>
       <c r="B119" s="40"/>
       <c r="C119" s="40"/>
       <c r="D119" s="40"/>
       <c r="E119" s="40"/>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
-        <v>247</v>
-      </c>
+      <c r="A120" s="39"/>
       <c r="B120" s="40"/>
       <c r="C120" s="40"/>
       <c r="D120" s="40"/>
       <c r="E120" s="40"/>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>248</v>
-      </c>
+      <c r="A121" s="39"/>
       <c r="B121" s="40"/>
       <c r="C121" s="40"/>
       <c r="D121" s="40"/>
       <c r="E121" s="40"/>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
-        <v>249</v>
-      </c>
+      <c r="A122" s="39"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
       <c r="D122" s="40"/>
       <c r="E122" s="40"/>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
-        <v>250</v>
-      </c>
+      <c r="A123" s="39"/>
       <c r="B123" s="40"/>
       <c r="C123" s="40"/>
       <c r="D123" s="40"/>
       <c r="E123" s="40"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>251</v>
-      </c>
+      <c r="A124" s="39"/>
       <c r="B124" s="40"/>
       <c r="C124" s="40"/>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
-        <v>252</v>
-      </c>
+      <c r="A125" s="39"/>
       <c r="B125" s="40"/>
       <c r="C125" s="40"/>
       <c r="D125" s="40"/>
       <c r="E125" s="40"/>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
-        <v>253</v>
-      </c>
+      <c r="A126" s="39"/>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
       <c r="D126" s="40"/>
       <c r="E126" s="40"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
-        <v>254</v>
-      </c>
+      <c r="A127" s="39"/>
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
       <c r="D127" s="40"/>
       <c r="E127" s="40"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
-        <v>255</v>
-      </c>
+      <c r="A128" s="39"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
       <c r="D128" s="40"/>
       <c r="E128" s="40"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
-        <v>256</v>
-      </c>
+      <c r="A129" s="39"/>
       <c r="B129" s="40"/>
       <c r="C129" s="40"/>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
-        <v>257</v>
-      </c>
+      <c r="A130" s="39"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="s">
-        <v>258</v>
-      </c>
+      <c r="A131" s="39"/>
       <c r="B131" s="40"/>
       <c r="C131" s="40"/>
       <c r="D131" s="40"/>
       <c r="E131" s="40"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
-        <v>259</v>
-      </c>
+      <c r="A132" s="39"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
       <c r="D132" s="40"/>
       <c r="E132" s="40"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
-        <v>260</v>
-      </c>
+      <c r="A133" s="39"/>
       <c r="B133" s="40"/>
       <c r="C133" s="40"/>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
-        <v>261</v>
-      </c>
+      <c r="A134" s="39"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
-        <v>262</v>
-      </c>
+      <c r="A135" s="39"/>
       <c r="B135" s="40"/>
       <c r="C135" s="40"/>
       <c r="D135" s="40"/>
       <c r="E135" s="40"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
-        <v>263</v>
-      </c>
+      <c r="A136" s="39"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="39" t="s">
-        <v>264</v>
-      </c>
+      <c r="A137" s="39"/>
       <c r="B137" s="40"/>
       <c r="C137" s="40"/>
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
-        <v>265</v>
-      </c>
+      <c r="A138" s="39"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="39" t="s">
-        <v>266</v>
-      </c>
+      <c r="A139" s="39"/>
       <c r="B139" s="40"/>
       <c r="C139" s="40"/>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="39" t="s">
-        <v>267</v>
-      </c>
+      <c r="A140" s="39"/>
       <c r="B140" s="40"/>
       <c r="C140" s="40"/>
       <c r="D140" s="40"/>
       <c r="E140" s="40"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="39" t="s">
-        <v>268</v>
-      </c>
+      <c r="A141" s="39"/>
       <c r="B141" s="40"/>
       <c r="C141" s="40"/>
       <c r="D141" s="40"/>
       <c r="E141" s="40"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="39" t="s">
-        <v>269</v>
-      </c>
+      <c r="A142" s="39"/>
       <c r="B142" s="40"/>
       <c r="C142" s="40"/>
       <c r="D142" s="40"/>
       <c r="E142" s="40"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="39" t="s">
-        <v>270</v>
-      </c>
+      <c r="A143" s="39"/>
       <c r="B143" s="40"/>
       <c r="C143" s="40"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="39" t="s">
-        <v>271</v>
-      </c>
+      <c r="A144" s="39"/>
       <c r="B144" s="40"/>
       <c r="C144" s="40"/>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
-        <v>272</v>
-      </c>
+      <c r="A145" s="39"/>
       <c r="B145" s="40"/>
       <c r="C145" s="40"/>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="39" t="s">
-        <v>273</v>
-      </c>
+      <c r="A146" s="39"/>
       <c r="B146" s="40"/>
       <c r="C146" s="40"/>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="39" t="s">
-        <v>274</v>
-      </c>
+      <c r="A147" s="39"/>
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="40"/>
       <c r="E147" s="40"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="39" t="s">
-        <v>275</v>
-      </c>
+      <c r="A148" s="39"/>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
       <c r="D148" s="40"/>
       <c r="E148" s="40"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="39" t="s">
-        <v>276</v>
-      </c>
+      <c r="A149" s="39"/>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="39" t="s">
-        <v>277</v>
-      </c>
+      <c r="A150" s="39"/>
       <c r="B150" s="40"/>
       <c r="C150" s="40"/>
       <c r="D150" s="40"/>
       <c r="E150" s="40"/>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="39" t="s">
-        <v>278</v>
-      </c>
+      <c r="A151" s="39"/>
       <c r="B151" s="40"/>
       <c r="C151" s="40"/>
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="39" t="s">
-        <v>279</v>
-      </c>
+      <c r="A152" s="39"/>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="39" t="s">
-        <v>280</v>
-      </c>
+      <c r="A153" s="39"/>
       <c r="B153" s="40"/>
       <c r="C153" s="40"/>
       <c r="D153" s="40"/>
       <c r="E153" s="40"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="39" t="s">
-        <v>281</v>
-      </c>
+      <c r="A154" s="39"/>
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
       <c r="D154" s="40"/>
       <c r="E154" s="40"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
-        <v>282</v>
-      </c>
+      <c r="A155" s="39"/>
       <c r="B155" s="40"/>
       <c r="C155" s="40"/>
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="39" t="s">
-        <v>283</v>
-      </c>
+      <c r="A156" s="39"/>
       <c r="B156" s="40"/>
       <c r="C156" s="40"/>
       <c r="D156" s="40"/>
       <c r="E156" s="40"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="39" t="s">
-        <v>284</v>
-      </c>
+      <c r="A157" s="39"/>
       <c r="B157" s="40"/>
       <c r="C157" s="40"/>
       <c r="D157" s="40"/>
       <c r="E157" s="40"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="39" t="s">
-        <v>285</v>
-      </c>
+      <c r="A158" s="39"/>
       <c r="B158" s="40"/>
       <c r="C158" s="40"/>
       <c r="D158" s="40"/>
       <c r="E158" s="40"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="39" t="s">
-        <v>286</v>
-      </c>
+      <c r="A159" s="39"/>
       <c r="B159" s="40"/>
       <c r="C159" s="40"/>
       <c r="D159" s="40"/>
       <c r="E159" s="40"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="39" t="s">
-        <v>287</v>
-      </c>
+      <c r="A160" s="39"/>
       <c r="B160" s="40"/>
       <c r="C160" s="40"/>
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="39" t="s">
-        <v>288</v>
-      </c>
+      <c r="A161" s="39"/>
       <c r="B161" s="40"/>
       <c r="C161" s="40"/>
       <c r="D161" s="40"/>
       <c r="E161" s="40"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="39" t="s">
-        <v>289</v>
-      </c>
+      <c r="A162" s="39"/>
       <c r="B162" s="40"/>
       <c r="C162" s="40"/>
       <c r="D162" s="40"/>
       <c r="E162" s="40"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="39" t="s">
-        <v>290</v>
-      </c>
+      <c r="A163" s="39"/>
       <c r="B163" s="40"/>
       <c r="C163" s="40"/>
       <c r="D163" s="40"/>
       <c r="E163" s="40"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="39" t="s">
-        <v>291</v>
-      </c>
+      <c r="A164" s="39"/>
       <c r="B164" s="40"/>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
       <c r="E164" s="40"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="39" t="s">
-        <v>292</v>
-      </c>
+      <c r="A165" s="39"/>
       <c r="B165" s="40"/>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
       <c r="E165" s="40"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
-        <v>293</v>
-      </c>
+      <c r="A166" s="39"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
       <c r="E166" s="40"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="39" t="s">
-        <v>294</v>
-      </c>
+      <c r="A167" s="39"/>
       <c r="B167" s="40"/>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="39" t="s">
-        <v>295</v>
-      </c>
+      <c r="A168" s="39"/>
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
       <c r="D168" s="40"/>
       <c r="E168" s="40"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="39" t="s">
-        <v>296</v>
-      </c>
+      <c r="A169" s="39"/>
       <c r="B169" s="40"/>
       <c r="C169" s="40"/>
       <c r="D169" s="40"/>
       <c r="E169" s="40"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="39" t="s">
-        <v>297</v>
-      </c>
+      <c r="A170" s="39"/>
       <c r="B170" s="40"/>
       <c r="C170" s="40"/>
       <c r="D170" s="40"/>
       <c r="E170" s="40"/>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="39" t="s">
-        <v>298</v>
-      </c>
+      <c r="A171" s="39"/>
       <c r="B171" s="40"/>
       <c r="C171" s="40"/>
       <c r="D171" s="40"/>
       <c r="E171" s="40"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="39" t="s">
-        <v>299</v>
-      </c>
+      <c r="A172" s="39"/>
       <c r="B172" s="40"/>
       <c r="C172" s="40"/>
       <c r="D172" s="40"/>
       <c r="E172" s="40"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="39" t="s">
-        <v>300</v>
-      </c>
+      <c r="A173" s="39"/>
       <c r="B173" s="40"/>
       <c r="C173" s="40"/>
       <c r="D173" s="40"/>
       <c r="E173" s="40"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="39" t="s">
-        <v>301</v>
-      </c>
+      <c r="A174" s="39"/>
       <c r="B174" s="40"/>
       <c r="C174" s="40"/>
       <c r="D174" s="40"/>
       <c r="E174" s="40"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="39" t="s">
-        <v>302</v>
-      </c>
+      <c r="A175" s="39"/>
       <c r="B175" s="40"/>
       <c r="C175" s="40"/>
       <c r="D175" s="40"/>
       <c r="E175" s="40"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="39" t="s">
-        <v>303</v>
-      </c>
+      <c r="A176" s="39"/>
       <c r="B176" s="40"/>
       <c r="C176" s="40"/>
       <c r="D176" s="40"/>
       <c r="E176" s="40"/>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="39" t="s">
-        <v>304</v>
-      </c>
+      <c r="A177" s="39"/>
       <c r="B177" s="40"/>
       <c r="C177" s="40"/>
       <c r="D177" s="40"/>
       <c r="E177" s="40"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="39" t="s">
-        <v>305</v>
-      </c>
+      <c r="A178" s="39"/>
       <c r="B178" s="40"/>
       <c r="C178" s="40"/>
       <c r="D178" s="40"/>
       <c r="E178" s="40"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="A179" s="39"/>
       <c r="B179" s="40"/>
       <c r="C179" s="40"/>
       <c r="D179" s="40"/>
       <c r="E179" s="40"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="39" t="s">
-        <v>307</v>
-      </c>
+      <c r="A180" s="39"/>
       <c r="B180" s="40"/>
       <c r="C180" s="40"/>
       <c r="D180" s="40"/>
       <c r="E180" s="40"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="39" t="s">
-        <v>308</v>
-      </c>
+      <c r="A181" s="39"/>
       <c r="B181" s="40"/>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
       <c r="E181" s="40"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="39" t="s">
-        <v>309</v>
-      </c>
+      <c r="A182" s="39"/>
       <c r="B182" s="40"/>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
       <c r="E182" s="40"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="39" t="s">
-        <v>310</v>
-      </c>
+      <c r="A183" s="39"/>
       <c r="B183" s="40"/>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
       <c r="E183" s="40"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="39" t="s">
-        <v>311</v>
-      </c>
+      <c r="A184" s="39"/>
       <c r="B184" s="40"/>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
       <c r="E184" s="40"/>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="39" t="s">
-        <v>312</v>
-      </c>
+      <c r="A185" s="39"/>
       <c r="B185" s="40"/>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
       <c r="E185" s="40"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="39" t="s">
-        <v>313</v>
-      </c>
+      <c r="A186" s="39"/>
       <c r="B186" s="40"/>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
       <c r="E186" s="40"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="39" t="s">
-        <v>314</v>
-      </c>
+      <c r="A187" s="39"/>
       <c r="B187" s="40"/>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
       <c r="E187" s="40"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="39" t="s">
-        <v>315</v>
-      </c>
+      <c r="A188" s="39"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
       <c r="E188" s="40"/>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="39" t="s">
-        <v>316</v>
-      </c>
+      <c r="A189" s="39"/>
       <c r="B189" s="40"/>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
       <c r="E189" s="40"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="39" t="s">
-        <v>317</v>
-      </c>
+      <c r="A190" s="39"/>
       <c r="B190" s="40"/>
       <c r="C190" s="40"/>
       <c r="D190" s="40"/>
       <c r="E190" s="40"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="39" t="s">
-        <v>318</v>
-      </c>
+      <c r="A191" s="39"/>
       <c r="B191" s="40"/>
       <c r="C191" s="40"/>
       <c r="D191" s="40"/>
       <c r="E191" s="40"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="39" t="s">
-        <v>319</v>
-      </c>
+      <c r="A192" s="39"/>
       <c r="B192" s="40"/>
       <c r="C192" s="40"/>
       <c r="D192" s="40"/>
       <c r="E192" s="40"/>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="39" t="s">
-        <v>350</v>
-      </c>
+      <c r="A193" s="39"/>
       <c r="B193" s="40"/>
       <c r="C193" s="40"/>
       <c r="D193" s="40"/>
       <c r="E193" s="40"/>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="39" t="s">
-        <v>320</v>
-      </c>
+      <c r="A194" s="39"/>
       <c r="B194" s="40"/>
       <c r="C194" s="40"/>
       <c r="D194" s="40"/>
       <c r="E194" s="40"/>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="A195" s="39"/>
       <c r="B195" s="40"/>
       <c r="C195" s="40"/>
       <c r="D195" s="40"/>
       <c r="E195" s="40"/>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="39" t="s">
-        <v>322</v>
-      </c>
+      <c r="A196" s="39"/>
       <c r="B196" s="40"/>
       <c r="C196" s="40"/>
       <c r="D196" s="40"/>
       <c r="E196" s="40"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="39" t="s">
-        <v>323</v>
-      </c>
+      <c r="A197" s="39"/>
       <c r="B197" s="40"/>
       <c r="C197" s="40"/>
       <c r="D197" s="40"/>
       <c r="E197" s="40"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="39" t="s">
-        <v>324</v>
-      </c>
+      <c r="A198" s="39"/>
       <c r="B198" s="40"/>
       <c r="C198" s="40"/>
       <c r="D198" s="40"/>
       <c r="E198" s="40"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="39" t="s">
-        <v>325</v>
-      </c>
+      <c r="A199" s="39"/>
       <c r="B199" s="40"/>
       <c r="C199" s="40"/>
       <c r="D199" s="40"/>
       <c r="E199" s="40"/>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="39" t="s">
-        <v>326</v>
-      </c>
+      <c r="A200" s="39"/>
       <c r="B200" s="40"/>
       <c r="C200" s="40"/>
       <c r="D200" s="40"/>
       <c r="E200" s="40"/>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="39" t="s">
-        <v>327</v>
-      </c>
+      <c r="A201" s="39"/>
       <c r="B201" s="40"/>
       <c r="C201" s="40"/>
       <c r="D201" s="40"/>
       <c r="E201" s="40"/>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="39" t="s">
-        <v>328</v>
-      </c>
+      <c r="A202" s="39"/>
       <c r="B202" s="40"/>
       <c r="C202" s="40"/>
       <c r="D202" s="40"/>
       <c r="E202" s="40"/>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="39" t="s">
-        <v>329</v>
-      </c>
+      <c r="A203" s="39"/>
       <c r="B203" s="40"/>
       <c r="C203" s="40"/>
       <c r="D203" s="40"/>
       <c r="E203" s="40"/>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="39" t="s">
-        <v>330</v>
-      </c>
+      <c r="A204" s="39"/>
       <c r="B204" s="40"/>
       <c r="C204" s="40"/>
       <c r="D204" s="40"/>
       <c r="E204" s="40"/>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="39" t="s">
-        <v>331</v>
-      </c>
+      <c r="A205" s="39"/>
       <c r="B205" s="40"/>
       <c r="C205" s="40"/>
       <c r="D205" s="40"/>
       <c r="E205" s="40"/>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="39" t="s">
-        <v>332</v>
-      </c>
+      <c r="A206" s="39"/>
       <c r="B206" s="40"/>
       <c r="C206" s="40"/>
       <c r="D206" s="40"/>
       <c r="E206" s="40"/>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="39" t="s">
-        <v>333</v>
-      </c>
+      <c r="A207" s="39"/>
       <c r="B207" s="40"/>
       <c r="C207" s="40"/>
       <c r="D207" s="40"/>
       <c r="E207" s="40"/>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="39" t="s">
-        <v>334</v>
-      </c>
+      <c r="A208" s="39"/>
       <c r="B208" s="40"/>
       <c r="C208" s="40"/>
       <c r="D208" s="40"/>
       <c r="E208" s="40"/>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="39" t="s">
-        <v>335</v>
-      </c>
+      <c r="A209" s="39"/>
       <c r="B209" s="40"/>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
       <c r="E209" s="40"/>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="39" t="s">
-        <v>336</v>
-      </c>
+      <c r="A210" s="39"/>
       <c r="B210" s="40"/>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
       <c r="E210" s="40"/>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="39" t="s">
-        <v>337</v>
-      </c>
+      <c r="A211" s="39"/>
       <c r="B211" s="40"/>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
       <c r="E211" s="40"/>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="39" t="s">
-        <v>338</v>
-      </c>
+      <c r="A212" s="39"/>
       <c r="B212" s="40"/>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
       <c r="E212" s="40"/>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="39" t="s">
-        <v>349</v>
-      </c>
+      <c r="A213" s="39"/>
       <c r="B213" s="40"/>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
       <c r="E213" s="40"/>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="39" t="s">
-        <v>339</v>
-      </c>
+      <c r="A214" s="39"/>
       <c r="B214" s="40"/>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
       <c r="E214" s="40"/>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="39" t="s">
-        <v>340</v>
-      </c>
+      <c r="A215" s="39"/>
       <c r="B215" s="40"/>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
       <c r="E215" s="40"/>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="39" t="s">
-        <v>351</v>
-      </c>
+      <c r="A216" s="39"/>
       <c r="B216" s="40"/>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
       <c r="E216" s="40"/>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="39" t="s">
-        <v>341</v>
-      </c>
+      <c r="A217" s="39"/>
       <c r="B217" s="40"/>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
       <c r="E217" s="40"/>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="39" t="s">
-        <v>342</v>
-      </c>
+      <c r="A218" s="39"/>
       <c r="B218" s="40"/>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
       <c r="E218" s="40"/>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="39" t="s">
-        <v>343</v>
-      </c>
+      <c r="A219" s="39"/>
       <c r="B219" s="40"/>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
       <c r="E219" s="40"/>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="39" t="s">
-        <v>344</v>
-      </c>
+      <c r="A220" s="39"/>
       <c r="B220" s="40"/>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
       <c r="E220" s="40"/>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="39" t="s">
-        <v>345</v>
-      </c>
+      <c r="A221" s="39"/>
       <c r="B221" s="40"/>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
       <c r="E221" s="40"/>
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="39" t="s">
-        <v>346</v>
-      </c>
+      <c r="A222" s="39"/>
       <c r="B222" s="40"/>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
       <c r="E222" s="40"/>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="39" t="s">
-        <v>347</v>
-      </c>
+      <c r="A223" s="39"/>
       <c r="B223" s="40"/>
       <c r="C223" s="40"/>
       <c r="D223" s="40"/>
       <c r="E223" s="40"/>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="39" t="s">
-        <v>348</v>
-      </c>
+      <c r="A224" s="39"/>
       <c r="B224" s="40"/>
       <c r="C224" s="40"/>
       <c r="D224" s="40"/>
       <c r="E224" s="40"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7F5E9B-6506-4983-A323-8A43761AE0BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C5147-911E-4707-813C-90B0E8DA69B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="216">
-  <si>
-    <t>Console</t>
-  </si>
-  <si>
-    <t>Ctrl + 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -64,12 +58,6 @@
     <t>New Section</t>
   </si>
   <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>Ctrl + 5</t>
-  </si>
-  <si>
     <t>Next Tab</t>
   </si>
   <si>
@@ -106,12 +94,6 @@
     <t>Alt + L</t>
   </si>
   <si>
-    <t>Reformat</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + A</t>
-  </si>
-  <si>
     <t>Go to line</t>
   </si>
   <si>
@@ -140,12 +122,6 @@
   </si>
   <si>
     <t>Ctrl + Shift + F12</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Ctrl + 1</t>
   </si>
   <si>
     <t>Navigate Back</t>
@@ -563,9 +539,6 @@
     <t>Alt+Shift+Cursor</t>
   </si>
   <si>
-    <t>emacs</t>
-  </si>
-  <si>
     <t xml:space="preserve">M` </t>
   </si>
   <si>
@@ -784,12 +757,24 @@
   <si>
     <t>&amp; proced-toggle-auto-update</t>
   </si>
+  <si>
+    <t>Definir: App + W / E</t>
+  </si>
+  <si>
+    <t>split horiz / vert</t>
+  </si>
+  <si>
+    <t>Definir: Win + F12</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -870,6 +855,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -897,7 +889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -934,36 +926,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -987,147 +949,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1135,37 +961,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2343,145 +2156,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="B8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="19" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
@@ -2505,89 +2318,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="B10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2598,286 +2411,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV224"/>
+  <dimension ref="A2:IV225"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="A3" sqref="A3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="4" customWidth="1"/>
     <col min="5" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="C6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="D8" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="19" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="D11" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="B12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="34" t="s">
+      <c r="C15" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="35" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="C29" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -3740,9 +3536,16 @@
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
     </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
+    <hyperlink ref="A14" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -3767,89 +3570,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>103</v>
+      <c r="A1" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>119</v>
+      <c r="A11" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3860,279 +3663,762 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV25"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="2" customWidth="1"/>
     <col min="9" max="256" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
+      <c r="CV7" s="4"/>
+      <c r="CW7" s="4"/>
+      <c r="CX7" s="4"/>
+      <c r="CY7" s="4"/>
+      <c r="CZ7" s="4"/>
+      <c r="DA7" s="4"/>
+      <c r="DB7" s="4"/>
+      <c r="DC7" s="4"/>
+      <c r="DD7" s="4"/>
+      <c r="DE7" s="4"/>
+      <c r="DF7" s="4"/>
+      <c r="DG7" s="4"/>
+      <c r="DH7" s="4"/>
+      <c r="DI7" s="4"/>
+      <c r="DJ7" s="4"/>
+      <c r="DK7" s="4"/>
+      <c r="DL7" s="4"/>
+      <c r="DM7" s="4"/>
+      <c r="DN7" s="4"/>
+      <c r="DO7" s="4"/>
+      <c r="DP7" s="4"/>
+      <c r="DQ7" s="4"/>
+      <c r="DR7" s="4"/>
+      <c r="DS7" s="4"/>
+      <c r="DT7" s="4"/>
+      <c r="DU7" s="4"/>
+      <c r="DV7" s="4"/>
+      <c r="DW7" s="4"/>
+      <c r="DX7" s="4"/>
+      <c r="DY7" s="4"/>
+      <c r="DZ7" s="4"/>
+      <c r="EA7" s="4"/>
+      <c r="EB7" s="4"/>
+      <c r="EC7" s="4"/>
+      <c r="ED7" s="4"/>
+      <c r="EE7" s="4"/>
+      <c r="EF7" s="4"/>
+      <c r="EG7" s="4"/>
+      <c r="EH7" s="4"/>
+      <c r="EI7" s="4"/>
+      <c r="EJ7" s="4"/>
+      <c r="EK7" s="4"/>
+      <c r="EL7" s="4"/>
+      <c r="EM7" s="4"/>
+      <c r="EN7" s="4"/>
+      <c r="EO7" s="4"/>
+      <c r="EP7" s="4"/>
+      <c r="EQ7" s="4"/>
+      <c r="ER7" s="4"/>
+      <c r="ES7" s="4"/>
+      <c r="ET7" s="4"/>
+      <c r="EU7" s="4"/>
+      <c r="EV7" s="4"/>
+      <c r="EW7" s="4"/>
+      <c r="EX7" s="4"/>
+      <c r="EY7" s="4"/>
+      <c r="EZ7" s="4"/>
+      <c r="FA7" s="4"/>
+      <c r="FB7" s="4"/>
+      <c r="FC7" s="4"/>
+      <c r="FD7" s="4"/>
+      <c r="FE7" s="4"/>
+      <c r="FF7" s="4"/>
+      <c r="FG7" s="4"/>
+      <c r="FH7" s="4"/>
+      <c r="FI7" s="4"/>
+      <c r="FJ7" s="4"/>
+      <c r="FK7" s="4"/>
+      <c r="FL7" s="4"/>
+      <c r="FM7" s="4"/>
+      <c r="FN7" s="4"/>
+      <c r="FO7" s="4"/>
+      <c r="FP7" s="4"/>
+      <c r="FQ7" s="4"/>
+      <c r="FR7" s="4"/>
+      <c r="FS7" s="4"/>
+      <c r="FT7" s="4"/>
+      <c r="FU7" s="4"/>
+      <c r="FV7" s="4"/>
+      <c r="FW7" s="4"/>
+      <c r="FX7" s="4"/>
+      <c r="FY7" s="4"/>
+      <c r="FZ7" s="4"/>
+      <c r="GA7" s="4"/>
+      <c r="GB7" s="4"/>
+      <c r="GC7" s="4"/>
+      <c r="GD7" s="4"/>
+      <c r="GE7" s="4"/>
+      <c r="GF7" s="4"/>
+      <c r="GG7" s="4"/>
+      <c r="GH7" s="4"/>
+      <c r="GI7" s="4"/>
+      <c r="GJ7" s="4"/>
+      <c r="GK7" s="4"/>
+      <c r="GL7" s="4"/>
+      <c r="GM7" s="4"/>
+      <c r="GN7" s="4"/>
+      <c r="GO7" s="4"/>
+      <c r="GP7" s="4"/>
+      <c r="GQ7" s="4"/>
+      <c r="GR7" s="4"/>
+      <c r="GS7" s="4"/>
+      <c r="GT7" s="4"/>
+      <c r="GU7" s="4"/>
+      <c r="GV7" s="4"/>
+      <c r="GW7" s="4"/>
+      <c r="GX7" s="4"/>
+      <c r="GY7" s="4"/>
+      <c r="GZ7" s="4"/>
+      <c r="HA7" s="4"/>
+      <c r="HB7" s="4"/>
+      <c r="HC7" s="4"/>
+      <c r="HD7" s="4"/>
+      <c r="HE7" s="4"/>
+      <c r="HF7" s="4"/>
+      <c r="HG7" s="4"/>
+      <c r="HH7" s="4"/>
+      <c r="HI7" s="4"/>
+      <c r="HJ7" s="4"/>
+      <c r="HK7" s="4"/>
+      <c r="HL7" s="4"/>
+      <c r="HM7" s="4"/>
+      <c r="HN7" s="4"/>
+      <c r="HO7" s="4"/>
+      <c r="HP7" s="4"/>
+      <c r="HQ7" s="4"/>
+      <c r="HR7" s="4"/>
+      <c r="HS7" s="4"/>
+      <c r="HT7" s="4"/>
+      <c r="HU7" s="4"/>
+      <c r="HV7" s="4"/>
+      <c r="HW7" s="4"/>
+      <c r="HX7" s="4"/>
+      <c r="HY7" s="4"/>
+      <c r="HZ7" s="4"/>
+      <c r="IA7" s="4"/>
+      <c r="IB7" s="4"/>
+      <c r="IC7" s="4"/>
+      <c r="ID7" s="4"/>
+      <c r="IE7" s="4"/>
+      <c r="IF7" s="4"/>
+      <c r="IG7" s="4"/>
+      <c r="IH7" s="4"/>
+      <c r="II7" s="4"/>
+      <c r="IJ7" s="4"/>
+      <c r="IK7" s="4"/>
+      <c r="IL7" s="4"/>
+      <c r="IM7" s="4"/>
+      <c r="IN7" s="4"/>
+      <c r="IO7" s="4"/>
+      <c r="IP7" s="4"/>
+      <c r="IQ7" s="4"/>
+      <c r="IR7" s="4"/>
+      <c r="IS7" s="4"/>
+      <c r="IT7" s="4"/>
+      <c r="IU7" s="4"/>
+      <c r="IV7" s="4"/>
+    </row>
+    <row r="8" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="CT10" s="4"/>
+      <c r="CU10" s="4"/>
+      <c r="CV10" s="4"/>
+      <c r="CW10" s="4"/>
+      <c r="CX10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="4"/>
+      <c r="DA10" s="4"/>
+      <c r="DB10" s="4"/>
+      <c r="DC10" s="4"/>
+      <c r="DD10" s="4"/>
+      <c r="DE10" s="4"/>
+      <c r="DF10" s="4"/>
+      <c r="DG10" s="4"/>
+      <c r="DH10" s="4"/>
+      <c r="DI10" s="4"/>
+      <c r="DJ10" s="4"/>
+      <c r="DK10" s="4"/>
+      <c r="DL10" s="4"/>
+      <c r="DM10" s="4"/>
+      <c r="DN10" s="4"/>
+      <c r="DO10" s="4"/>
+      <c r="DP10" s="4"/>
+      <c r="DQ10" s="4"/>
+      <c r="DR10" s="4"/>
+      <c r="DS10" s="4"/>
+      <c r="DT10" s="4"/>
+      <c r="DU10" s="4"/>
+      <c r="DV10" s="4"/>
+      <c r="DW10" s="4"/>
+      <c r="DX10" s="4"/>
+      <c r="DY10" s="4"/>
+      <c r="DZ10" s="4"/>
+      <c r="EA10" s="4"/>
+      <c r="EB10" s="4"/>
+      <c r="EC10" s="4"/>
+      <c r="ED10" s="4"/>
+      <c r="EE10" s="4"/>
+      <c r="EF10" s="4"/>
+      <c r="EG10" s="4"/>
+      <c r="EH10" s="4"/>
+      <c r="EI10" s="4"/>
+      <c r="EJ10" s="4"/>
+      <c r="EK10" s="4"/>
+      <c r="EL10" s="4"/>
+      <c r="EM10" s="4"/>
+      <c r="EN10" s="4"/>
+      <c r="EO10" s="4"/>
+      <c r="EP10" s="4"/>
+      <c r="EQ10" s="4"/>
+      <c r="ER10" s="4"/>
+      <c r="ES10" s="4"/>
+      <c r="ET10" s="4"/>
+      <c r="EU10" s="4"/>
+      <c r="EV10" s="4"/>
+      <c r="EW10" s="4"/>
+      <c r="EX10" s="4"/>
+      <c r="EY10" s="4"/>
+      <c r="EZ10" s="4"/>
+      <c r="FA10" s="4"/>
+      <c r="FB10" s="4"/>
+      <c r="FC10" s="4"/>
+      <c r="FD10" s="4"/>
+      <c r="FE10" s="4"/>
+      <c r="FF10" s="4"/>
+      <c r="FG10" s="4"/>
+      <c r="FH10" s="4"/>
+      <c r="FI10" s="4"/>
+      <c r="FJ10" s="4"/>
+      <c r="FK10" s="4"/>
+      <c r="FL10" s="4"/>
+      <c r="FM10" s="4"/>
+      <c r="FN10" s="4"/>
+      <c r="FO10" s="4"/>
+      <c r="FP10" s="4"/>
+      <c r="FQ10" s="4"/>
+      <c r="FR10" s="4"/>
+      <c r="FS10" s="4"/>
+      <c r="FT10" s="4"/>
+      <c r="FU10" s="4"/>
+      <c r="FV10" s="4"/>
+      <c r="FW10" s="4"/>
+      <c r="FX10" s="4"/>
+      <c r="FY10" s="4"/>
+      <c r="FZ10" s="4"/>
+      <c r="GA10" s="4"/>
+      <c r="GB10" s="4"/>
+      <c r="GC10" s="4"/>
+      <c r="GD10" s="4"/>
+      <c r="GE10" s="4"/>
+      <c r="GF10" s="4"/>
+      <c r="GG10" s="4"/>
+      <c r="GH10" s="4"/>
+      <c r="GI10" s="4"/>
+      <c r="GJ10" s="4"/>
+      <c r="GK10" s="4"/>
+      <c r="GL10" s="4"/>
+      <c r="GM10" s="4"/>
+      <c r="GN10" s="4"/>
+      <c r="GO10" s="4"/>
+      <c r="GP10" s="4"/>
+      <c r="GQ10" s="4"/>
+      <c r="GR10" s="4"/>
+      <c r="GS10" s="4"/>
+      <c r="GT10" s="4"/>
+      <c r="GU10" s="4"/>
+      <c r="GV10" s="4"/>
+      <c r="GW10" s="4"/>
+      <c r="GX10" s="4"/>
+      <c r="GY10" s="4"/>
+      <c r="GZ10" s="4"/>
+      <c r="HA10" s="4"/>
+      <c r="HB10" s="4"/>
+      <c r="HC10" s="4"/>
+      <c r="HD10" s="4"/>
+      <c r="HE10" s="4"/>
+      <c r="HF10" s="4"/>
+      <c r="HG10" s="4"/>
+      <c r="HH10" s="4"/>
+      <c r="HI10" s="4"/>
+      <c r="HJ10" s="4"/>
+      <c r="HK10" s="4"/>
+      <c r="HL10" s="4"/>
+      <c r="HM10" s="4"/>
+      <c r="HN10" s="4"/>
+      <c r="HO10" s="4"/>
+      <c r="HP10" s="4"/>
+      <c r="HQ10" s="4"/>
+      <c r="HR10" s="4"/>
+      <c r="HS10" s="4"/>
+      <c r="HT10" s="4"/>
+      <c r="HU10" s="4"/>
+      <c r="HV10" s="4"/>
+      <c r="HW10" s="4"/>
+      <c r="HX10" s="4"/>
+      <c r="HY10" s="4"/>
+      <c r="HZ10" s="4"/>
+      <c r="IA10" s="4"/>
+      <c r="IB10" s="4"/>
+      <c r="IC10" s="4"/>
+      <c r="ID10" s="4"/>
+      <c r="IE10" s="4"/>
+      <c r="IF10" s="4"/>
+      <c r="IG10" s="4"/>
+      <c r="IH10" s="4"/>
+      <c r="II10" s="4"/>
+      <c r="IJ10" s="4"/>
+      <c r="IK10" s="4"/>
+      <c r="IL10" s="4"/>
+      <c r="IM10" s="4"/>
+      <c r="IN10" s="4"/>
+      <c r="IO10" s="4"/>
+      <c r="IP10" s="4"/>
+      <c r="IQ10" s="4"/>
+      <c r="IR10" s="4"/>
+      <c r="IS10" s="4"/>
+      <c r="IT10" s="4"/>
+      <c r="IU10" s="4"/>
+      <c r="IV10" s="4"/>
+    </row>
+    <row r="11" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>134</v>
-      </c>
+    <row r="12" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+    </row>
+    <row r="15" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>126</v>
-      </c>
+    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>129</v>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="E25" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -4145,10 +4431,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2186A-9602-4BAA-A42F-66AD1BBF5209}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,33 +4444,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>135</v>
+      <c r="A1" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>136</v>
+      <c r="A2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>138</v>
+      <c r="A3" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>141</v>
+      <c r="A4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4207,49 +4509,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>112</v>
+      <c r="A1" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>118</v>
+      <c r="A2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>109</v>
+      <c r="A3" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="A4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>131</v>
+      <c r="A5" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C5147-911E-4707-813C-90B0E8DA69B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171718C-A1EC-4417-BE10-9B15B0BF9C77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="219">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -686,13 +686,7 @@
     <t xml:space="preserve">C-w </t>
   </si>
   <si>
-    <t>Kill active region cut</t>
-  </si>
-  <si>
     <t xml:space="preserve">M-w </t>
-  </si>
-  <si>
-    <t>Copy to kill ring copy</t>
   </si>
   <si>
     <t xml:space="preserve">C-M-w </t>
@@ -769,12 +763,75 @@
   <si>
     <t>Quake</t>
   </si>
+  <si>
+    <t>close all other buffers</t>
+  </si>
+  <si>
+    <t>agenda mode</t>
+  </si>
+  <si>
+    <t>C-c a</t>
+  </si>
+  <si>
+    <t>Kill active region - cut</t>
+  </si>
+  <si>
+    <t>Copy to kill ring - copy</t>
+  </si>
+  <si>
+    <r>
+      <t>C-x C-b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to list all buffers </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to mark buffers for kill (D appears next to buffer) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to execute kill</t>
+    </r>
+  </si>
+  <si>
+    <t>spacemacs</t>
+  </si>
+  <si>
+    <t>move to window M-m [0-9]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -861,6 +918,18 @@
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -953,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -981,6 +1050,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2413,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV225"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2659,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>176</v>
@@ -2605,10 +2679,10 @@
         <v>178</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,63 +2690,97 @@
         <v>186</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,7 +3773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4475,18 +4583,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171718C-A1EC-4417-BE10-9B15B0BF9C77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A5D0E-7DFC-4021-BA38-B004D3A23331}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,18 @@
     <sheet name="atom" sheetId="6" r:id="rId1"/>
     <sheet name="byobu" sheetId="4" r:id="rId2"/>
     <sheet name="emacs" sheetId="3" r:id="rId3"/>
-    <sheet name="iTerm" sheetId="5" r:id="rId4"/>
-    <sheet name="Rstudio" sheetId="2" r:id="rId5"/>
-    <sheet name="conemu" sheetId="8" r:id="rId6"/>
-    <sheet name="browser" sheetId="7" r:id="rId7"/>
+    <sheet name="spacemacs" sheetId="9" r:id="rId4"/>
+    <sheet name="iTerm" sheetId="5" r:id="rId5"/>
+    <sheet name="Rstudio" sheetId="2" r:id="rId6"/>
+    <sheet name="conemu" sheetId="8" r:id="rId7"/>
+    <sheet name="browser" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="235">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -548,18 +549,6 @@
     <t>C-x C-s</t>
   </si>
   <si>
-    <t>guardar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-x C-f </t>
-  </si>
-  <si>
-    <t>Find (open) a file</t>
-  </si>
-  <si>
-    <t>Save the buffer</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-x b </t>
   </si>
   <si>
@@ -743,9 +732,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C-M-&lt;SPC&gt;/ C-M-@ </t>
-  </si>
-  <si>
     <t xml:space="preserve">M-x proced </t>
   </si>
   <si>
@@ -764,9 +750,6 @@
     <t>Quake</t>
   </si>
   <si>
-    <t>close all other buffers</t>
-  </si>
-  <si>
     <t>agenda mode</t>
   </si>
   <si>
@@ -779,59 +762,132 @@
     <t>Copy to kill ring - copy</t>
   </si>
   <si>
+    <t>Alt + Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move to window </t>
+  </si>
+  <si>
+    <t>M-m [0-9]</t>
+  </si>
+  <si>
+    <t>spacemacs root</t>
+  </si>
+  <si>
+    <t>M-m</t>
+  </si>
+  <si>
+    <t>C-spc</t>
+  </si>
+  <si>
+    <t>mark buffer for kill</t>
+  </si>
+  <si>
+    <t>M-S-d</t>
+  </si>
+  <si>
+    <t>Kill selected</t>
+  </si>
+  <si>
+    <t>C-x u</t>
+  </si>
+  <si>
+    <t>undo last change</t>
+  </si>
+  <si>
+    <t>C-x C-b</t>
+  </si>
+  <si>
+    <t>M-x</t>
+  </si>
+  <si>
+    <t>C-x z</t>
+  </si>
+  <si>
+    <t>eval-buffer</t>
+  </si>
+  <si>
+    <t>repeat (z z z….)</t>
+  </si>
+  <si>
+    <t>C-x { }</t>
+  </si>
+  <si>
+    <t>wide / narrow window (^ larger)</t>
+  </si>
+  <si>
+    <t>menu/next/prev/back</t>
+  </si>
+  <si>
+    <t>m/n/p/back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-M-&lt;SPC&gt;/C-M-@ </t>
+  </si>
+  <si>
     <r>
-      <t>C-x C-b</t>
+      <t xml:space="preserve">list buffers </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF242729"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t> to list all buffers </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>k</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF242729"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t> to mark buffers for kill (D appears next to buffer) </t>
+      <t xml:space="preserve"> mark / </t>
     </r>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>x</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF242729"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t> to execute kill</t>
+      <t xml:space="preserve"> execute</t>
     </r>
   </si>
   <si>
-    <t>spacemacs</t>
-  </si>
-  <si>
-    <t>move to window M-m [0-9]</t>
+    <t>Save buffer C-x C-w save as</t>
+  </si>
+  <si>
+    <t>C-x C-v</t>
+  </si>
+  <si>
+    <t>Replace buffer contents</t>
+  </si>
+  <si>
+    <t>Insert content into buffer</t>
+  </si>
+  <si>
+    <t>C-x i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -921,15 +977,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF242729"/>
-      <name val="Consolas"/>
+      <color rgb="FF444444"/>
+      <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242729"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1022,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1050,11 +1100,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2487,15 +2533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="4" customWidth="1"/>
     <col min="5" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
@@ -2505,30 +2551,30 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2536,63 +2582,63 @@
         <v>140</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>138</v>
@@ -2603,184 +2649,219 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>210</v>
+      <c r="A20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,6 +3745,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF71BC8-F7C3-4DB6-8620-8C7CB5E27098}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54979A9E-5E76-4250-B736-AA03D7D6CAB9}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3769,7 +3907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
@@ -4537,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2186A-9602-4BAA-A42F-66AD1BBF5209}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4583,18 +4721,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4602,7 +4740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99839666-62E0-4D7C-B7FF-6055F88B2EDA}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A5D0E-7DFC-4021-BA38-B004D3A23331}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5194FE2-DE2B-4080-8384-DC9D822772C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="241">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -567,12 +567,6 @@
     <t>Display all open buffers</t>
   </si>
   <si>
-    <t xml:space="preserve">C-x C-c </t>
-  </si>
-  <si>
-    <t>Exits Emacs</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-g </t>
   </si>
   <si>
@@ -814,12 +808,6 @@
   </si>
   <si>
     <t>wide / narrow window (^ larger)</t>
-  </si>
-  <si>
-    <t>menu/next/prev/back</t>
-  </si>
-  <si>
-    <t>m/n/p/back</t>
   </si>
   <si>
     <t xml:space="preserve">C-M-&lt;SPC&gt;/C-M-@ </t>
@@ -881,6 +869,36 @@
   </si>
   <si>
     <t>C-x i</t>
+  </si>
+  <si>
+    <t>m/n/p/u/back</t>
+  </si>
+  <si>
+    <t>menu/next/prev/up/back</t>
+  </si>
+  <si>
+    <t>C-x g</t>
+  </si>
+  <si>
+    <t>Magit status1</t>
+  </si>
+  <si>
+    <t>C-c [</t>
+  </si>
+  <si>
+    <t>add Org file to agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-c . </t>
+  </si>
+  <si>
+    <t>add task to calendar</t>
+  </si>
+  <si>
+    <t>C-a C-e</t>
+  </si>
+  <si>
+    <t>Export agenda</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2552,7 @@
   <dimension ref="A2:IV225"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D25" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2551,30 +2569,30 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,13 +2600,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,10 +2617,10 @@
         <v>142</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,10 +2631,10 @@
         <v>144</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,24 +2645,24 @@
         <v>146</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,10 +2673,10 @@
         <v>166</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,32 +2687,32 @@
         <v>168</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>170</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>176</v>
@@ -2705,86 +2723,86 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>190</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,77 +2810,98 @@
         <v>217</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
+      <c r="A25" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>198</v>
-      </c>
       <c r="C29" s="17" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -3725,16 +3764,14 @@
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="B225" s="6"/>
+    <row r="225" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
+    <hyperlink ref="A13" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -3761,38 +3798,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3911,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4721,18 +4758,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5194FE2-DE2B-4080-8384-DC9D822772C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C0456-A777-421F-B9EC-4D755029F54B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -899,6 +899,12 @@
   </si>
   <si>
     <t>Export agenda</t>
+  </si>
+  <si>
+    <t>C-c h</t>
+  </si>
+  <si>
+    <t>from helm-find-files session</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1119,6 +1125,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2551,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2887,6 +2896,14 @@
       </c>
       <c r="D25" s="19" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C0456-A777-421F-B9EC-4D755029F54B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBFDC9A-5FAD-4CFF-B448-745E062ECD3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="249">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -905,6 +905,24 @@
   </si>
   <si>
     <t>from helm-find-files session</t>
+  </si>
+  <si>
+    <t>s - u - c</t>
+  </si>
+  <si>
+    <t>Stage - Unstage - Commit</t>
+  </si>
+  <si>
+    <t>C-c C-c</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>P - p</t>
+  </si>
+  <si>
+    <t>Push</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1126,6 +1144,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2558,25 +2579,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:IV225"/>
+  <dimension ref="A2:IV221"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="4" customWidth="1"/>
-    <col min="5" max="256" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="4" customWidth="1"/>
+    <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>227</v>
       </c>
@@ -2589,8 +2612,14 @@
       <c r="D3" s="19" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -2603,8 +2632,14 @@
       <c r="D4" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>140</v>
       </c>
@@ -2617,8 +2652,14 @@
       <c r="D5" s="19" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>141</v>
       </c>
@@ -2631,8 +2672,14 @@
       <c r="D6" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
@@ -2645,8 +2692,14 @@
       <c r="D7" s="19" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>145</v>
       </c>
@@ -2659,8 +2712,14 @@
       <c r="D8" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>163</v>
       </c>
@@ -2673,8 +2732,14 @@
       <c r="D9" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>165</v>
       </c>
@@ -2687,8 +2752,14 @@
       <c r="D10" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>167</v>
       </c>
@@ -2701,8 +2772,14 @@
       <c r="D11" s="19" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>178</v>
       </c>
@@ -2715,8 +2792,10 @@
       <c r="D12" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>224</v>
       </c>
@@ -2729,8 +2808,14 @@
       <c r="D13" s="19" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>171</v>
       </c>
@@ -2743,8 +2828,10 @@
       <c r="D14" s="18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>180</v>
       </c>
@@ -2757,8 +2844,10 @@
       <c r="D15" s="19" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>181</v>
       </c>
@@ -2771,8 +2860,10 @@
       <c r="D16" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>195</v>
       </c>
@@ -2785,8 +2876,10 @@
       <c r="D17" s="19" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>189</v>
       </c>
@@ -2800,7 +2893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>215</v>
       </c>
@@ -2814,7 +2907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>217</v>
       </c>
@@ -2828,7 +2921,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>231</v>
       </c>
@@ -2836,18 +2929,18 @@
         <v>232</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>213</v>
@@ -2856,69 +2949,53 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="17" t="s">
         <v>197</v>
       </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -3754,37 +3831,9 @@
       <c r="E220" s="6"/>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
-    </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-    </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-    </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-    </row>
-    <row r="225" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBFDC9A-5FAD-4CFF-B448-745E062ECD3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25AD0F-1F9A-4493-B7A6-D1CB1B58381D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="247">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -546,9 +546,6 @@
     <t>menu</t>
   </si>
   <si>
-    <t>C-x C-s</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-x b </t>
   </si>
   <si>
@@ -558,15 +555,9 @@
     <t xml:space="preserve">C-x k </t>
   </si>
   <si>
-    <t>Kill (close) a buffer</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-x C-b </t>
   </si>
   <si>
-    <t>Display all open buffers</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-g </t>
   </si>
   <si>
@@ -576,15 +567,9 @@
     <t xml:space="preserve">C-x 0 </t>
   </si>
   <si>
-    <t>Deletes the active window</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-x 1 </t>
   </si>
   <si>
-    <t>Deletes other windows</t>
-  </si>
-  <si>
     <t>C-x 2</t>
   </si>
   <si>
@@ -606,66 +591,30 @@
     <t xml:space="preserve">C-x 4 C-f </t>
   </si>
   <si>
-    <t>Finds a file in the other window</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-x 4 0 </t>
   </si>
   <si>
-    <t>Kills the buffer and window</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-M-f </t>
   </si>
   <si>
-    <t>Move forward by s-expression</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-M-b </t>
   </si>
   <si>
-    <t>Move backward by s-expression</t>
-  </si>
-  <si>
     <t xml:space="preserve">M-h </t>
   </si>
   <si>
-    <t>Marks the next paragraph</t>
-  </si>
-  <si>
-    <t>Marks the whole buffer</t>
-  </si>
-  <si>
-    <t>Marks the next s-expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-&lt;SPC&gt;, C-g </t>
-  </si>
-  <si>
-    <t>Deactivates the region</t>
-  </si>
-  <si>
     <t xml:space="preserve">M-x grep </t>
   </si>
   <si>
     <t xml:space="preserve">C-M-s </t>
   </si>
   <si>
-    <t>Begins a regexp incremental search</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-s </t>
   </si>
   <si>
-    <t>Begins an incremental search</t>
-  </si>
-  <si>
     <t>C-x h</t>
   </si>
   <si>
-    <t>Prompts for arguments to grep</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-w </t>
   </si>
   <si>
@@ -696,13 +645,7 @@
     <t>C-x r b</t>
   </si>
   <si>
-    <t>jump to a bookmark</t>
-  </si>
-  <si>
     <t>C-x r l</t>
-  </si>
-  <si>
-    <t>list your bookmarks</t>
   </si>
   <si>
     <t xml:space="preserve">M-x </t>
@@ -750,12 +693,6 @@
     <t>C-c a</t>
   </si>
   <si>
-    <t>Kill active region - cut</t>
-  </si>
-  <si>
-    <t>Copy to kill ring - copy</t>
-  </si>
-  <si>
     <t>Alt + Number</t>
   </si>
   <si>
@@ -783,12 +720,6 @@
     <t>Kill selected</t>
   </si>
   <si>
-    <t>C-x u</t>
-  </si>
-  <si>
-    <t>undo last change</t>
-  </si>
-  <si>
     <t>C-x C-b</t>
   </si>
   <si>
@@ -807,14 +738,101 @@
     <t>C-x { }</t>
   </si>
   <si>
-    <t>wide / narrow window (^ larger)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-M-&lt;SPC&gt;/C-M-@ </t>
+    <t>C-x C-v</t>
+  </si>
+  <si>
+    <t>Insert content into buffer</t>
+  </si>
+  <si>
+    <t>C-x i</t>
+  </si>
+  <si>
+    <t>m/n/p/u/back</t>
+  </si>
+  <si>
+    <t>menu/next/prev/up/back</t>
+  </si>
+  <si>
+    <t>C-x g</t>
+  </si>
+  <si>
+    <t>Magit status1</t>
+  </si>
+  <si>
+    <t>C-c [</t>
+  </si>
+  <si>
+    <t>add Org file to agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-c . </t>
+  </si>
+  <si>
+    <t>add task to calendar</t>
+  </si>
+  <si>
+    <t>C-a C-e</t>
+  </si>
+  <si>
+    <t>Export agenda</t>
+  </si>
+  <si>
+    <t>C-c h</t>
+  </si>
+  <si>
+    <t>from helm-find-files session</t>
+  </si>
+  <si>
+    <t>s - u - c</t>
+  </si>
+  <si>
+    <t>Stage - Unstage - Commit</t>
+  </si>
+  <si>
+    <t>C-c C-c</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>P - p</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Replace bufffer contents</t>
+  </si>
+  <si>
+    <t>C-x C-w</t>
+  </si>
+  <si>
+    <t>save as</t>
+  </si>
+  <si>
+    <t>Kill a buffer</t>
+  </si>
+  <si>
+    <t>show all open buffers</t>
+  </si>
+  <si>
+    <t>forward s-expression</t>
+  </si>
+  <si>
+    <t>backward s-expression</t>
+  </si>
+  <si>
+    <t>Kill region - cut</t>
+  </si>
+  <si>
+    <t>to kill ring - copy</t>
+  </si>
+  <si>
+    <t>jump to bookmark</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">list buffers </t>
+      <t xml:space="preserve">list  </t>
     </r>
     <r>
       <rPr>
@@ -856,73 +874,49 @@
     </r>
   </si>
   <si>
-    <t>Save buffer C-x C-w save as</t>
-  </si>
-  <si>
-    <t>C-x C-v</t>
-  </si>
-  <si>
-    <t>Replace buffer contents</t>
-  </si>
-  <si>
-    <t>Insert content into buffer</t>
-  </si>
-  <si>
-    <t>C-x i</t>
-  </si>
-  <si>
-    <t>m/n/p/u/back</t>
-  </si>
-  <si>
-    <t>menu/next/prev/up/back</t>
-  </si>
-  <si>
-    <t>C-x g</t>
-  </si>
-  <si>
-    <t>Magit status1</t>
-  </si>
-  <si>
-    <t>C-c [</t>
-  </si>
-  <si>
-    <t>add Org file to agenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-c . </t>
-  </si>
-  <si>
-    <t>add task to calendar</t>
-  </si>
-  <si>
-    <t>C-a C-e</t>
-  </si>
-  <si>
-    <t>Export agenda</t>
-  </si>
-  <si>
-    <t>C-c h</t>
-  </si>
-  <si>
-    <t>from helm-find-files session</t>
-  </si>
-  <si>
-    <t>s - u - c</t>
-  </si>
-  <si>
-    <t>Stage - Unstage - Commit</t>
-  </si>
-  <si>
-    <t>C-c C-c</t>
-  </si>
-  <si>
-    <t>Commit</t>
-  </si>
-  <si>
-    <t>P - p</t>
-  </si>
-  <si>
-    <t>Push</t>
+    <t>C-M-&lt;SPC&gt;</t>
+  </si>
+  <si>
+    <t>Deactivates region C-g</t>
+  </si>
+  <si>
+    <t>C-&lt;SPC&gt;</t>
+  </si>
+  <si>
+    <t>Mark next paragraph</t>
+  </si>
+  <si>
+    <t>Mark whole buffer</t>
+  </si>
+  <si>
+    <t>Mark next s-expression C-M-@</t>
+  </si>
+  <si>
+    <t>Delete active window</t>
+  </si>
+  <si>
+    <t>Delete other windows</t>
+  </si>
+  <si>
+    <t>file in the other window</t>
+  </si>
+  <si>
+    <t>Kill buffer and window</t>
+  </si>
+  <si>
+    <t>incremental search</t>
+  </si>
+  <si>
+    <t>regexp incremental search</t>
+  </si>
+  <si>
+    <t>arguments to grep</t>
+  </si>
+  <si>
+    <t>list bookmarks</t>
+  </si>
+  <si>
+    <t>wide/narrow (^ larger)</t>
   </si>
 </sst>
 </file>
@@ -2582,17 +2576,17 @@
   <dimension ref="A2:IV221"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F22" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2601,150 +2595,150 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>138</v>
@@ -2753,200 +2747,194 @@
         <v>139</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>220</v>
-      </c>
       <c r="C22" s="18" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,12 +2945,12 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3839,7 +3827,7 @@
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -3864,38 +3852,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4824,18 +4812,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25AD0F-1F9A-4493-B7A6-D1CB1B58381D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48895-BABA-4C2D-A370-23B7FA2991D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="262">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -266,15 +266,6 @@
     <t>Move to Window</t>
   </si>
   <si>
-    <t>Alt + Cursor</t>
-  </si>
-  <si>
-    <t>Resize</t>
-  </si>
-  <si>
-    <t>Ctrl + Alt + Cursor</t>
-  </si>
-  <si>
     <t>Split Horizontally</t>
   </si>
   <si>
@@ -284,16 +275,10 @@
     <t>Move to Split</t>
   </si>
   <si>
-    <t>Shift + Cursor</t>
-  </si>
-  <si>
     <t>Detach (no out)</t>
   </si>
   <si>
     <t>Shift + F6</t>
-  </si>
-  <si>
-    <t>Detach</t>
   </si>
   <si>
     <t>F6</t>
@@ -917,6 +902,66 @@
   </si>
   <si>
     <t>wide/narrow (^ larger)</t>
+  </si>
+  <si>
+    <t>Show Help</t>
+  </si>
+  <si>
+    <t>Shift + F1</t>
+  </si>
+  <si>
+    <t>F3 / F4 - Alt+Cursor</t>
+  </si>
+  <si>
+    <t>Move to session</t>
+  </si>
+  <si>
+    <t>Alt + up/down</t>
+  </si>
+  <si>
+    <t>Alt + left/right</t>
+  </si>
+  <si>
+    <t>Shift + Alt + Cursor</t>
+  </si>
+  <si>
+    <t>Resize Split</t>
+  </si>
+  <si>
+    <t>Detach &amp; log out</t>
+  </si>
+  <si>
+    <t>command all windows</t>
+  </si>
+  <si>
+    <t>Shift + F9</t>
+  </si>
+  <si>
+    <t>command all splits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl + F9 </t>
+  </si>
+  <si>
+    <t>Alt + F9</t>
+  </si>
+  <si>
+    <t>toggle type all splits</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Toggle keybindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + F12 </t>
+  </si>
+  <si>
+    <t>Shift + F3/F4</t>
   </si>
 </sst>
 </file>
@@ -2467,103 +2512,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7589D3-2D47-45A7-B18F-F531AE67900B}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2575,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV221"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:F22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2595,346 +2692,346 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>240</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>242</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,12 +3042,12 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3852,38 +3949,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3897,7 +3994,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,72 +4005,72 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3981,12 +4078,12 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
@@ -4079,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4090,10 +4187,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,21 +4780,21 @@
     </row>
     <row r="15" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E16" s="9"/>
       <c r="H16" s="4"/>
@@ -4705,23 +4802,23 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -4733,13 +4830,13 @@
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,7 +4847,7 @@
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="E25" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4782,48 +4879,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4836,57 +4933,58 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="18"/>
     </row>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48895-BABA-4C2D-A370-23B7FA2991D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89970B13-9B9C-44F2-BC8F-B3E5E4575664}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
     <sheet name="byobu" sheetId="4" r:id="rId2"/>
     <sheet name="emacs" sheetId="3" r:id="rId3"/>
-    <sheet name="spacemacs" sheetId="9" r:id="rId4"/>
-    <sheet name="iTerm" sheetId="5" r:id="rId5"/>
-    <sheet name="Rstudio" sheetId="2" r:id="rId6"/>
-    <sheet name="conemu" sheetId="8" r:id="rId7"/>
-    <sheet name="browser" sheetId="7" r:id="rId8"/>
+    <sheet name="org - magit" sheetId="10" r:id="rId4"/>
+    <sheet name="spacemacs" sheetId="9" r:id="rId5"/>
+    <sheet name="iTerm" sheetId="5" r:id="rId6"/>
+    <sheet name="Rstudio" sheetId="2" r:id="rId7"/>
+    <sheet name="conemu" sheetId="8" r:id="rId8"/>
+    <sheet name="browser" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -672,12 +673,6 @@
     <t>Quake</t>
   </si>
   <si>
-    <t>agenda mode</t>
-  </si>
-  <si>
-    <t>C-c a</t>
-  </si>
-  <si>
     <t>Alt + Number</t>
   </si>
   <si>
@@ -757,9 +752,6 @@
   </si>
   <si>
     <t>C-a C-e</t>
-  </si>
-  <si>
-    <t>Export agenda</t>
   </si>
   <si>
     <t>C-c h</t>
@@ -962,6 +954,39 @@
   </si>
   <si>
     <t>Shift + F3/F4</t>
+  </si>
+  <si>
+    <t>Fold/Unfold all levels</t>
+  </si>
+  <si>
+    <t>Shift - Tab</t>
+  </si>
+  <si>
+    <t>C-c a t</t>
+  </si>
+  <si>
+    <t>C-c C-s</t>
+  </si>
+  <si>
+    <t>run org-schedule</t>
+  </si>
+  <si>
+    <t>Global TODO list (t mark)(RET source)</t>
+  </si>
+  <si>
+    <t>C-c a a</t>
+  </si>
+  <si>
+    <t>agenda mode (l log display)</t>
+  </si>
+  <si>
+    <t>Export menu</t>
+  </si>
+  <si>
+    <t>C-u 6 com</t>
+  </si>
+  <si>
+    <t>Repeat six times com</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7589D3-2D47-45A7-B18F-F531AE67900B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2540,10 +2565,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,27 +2590,27 @@
         <v>81</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,24 +2621,24 @@
         <v>83</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,10 +2649,10 @@
         <v>86</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,24 +2663,24 @@
         <v>88</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>260</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2673,7 +2698,7 @@
   <dimension ref="A2:IV221"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2687,15 +2712,15 @@
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>139</v>
@@ -2703,54 +2728,36 @@
       <c r="D3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>135</v>
       </c>
@@ -2763,19 +2770,13 @@
       <c r="D6" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>145</v>
@@ -2783,39 +2784,27 @@
       <c r="D7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>147</v>
@@ -2823,19 +2812,13 @@
       <c r="D9" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>133</v>
@@ -2843,107 +2826,83 @@
       <c r="D10" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>162</v>
@@ -2951,10 +2910,8 @@
       <c r="D16" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>171</v>
       </c>
@@ -2967,15 +2924,13 @@
       <c r="D17" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>167</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>160</v>
@@ -2984,26 +2939,26 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>169</v>
@@ -3012,42 +2967,56 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="C21" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3933,6 +3902,108 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF71BC8-F7C3-4DB6-8620-8C7CB5E27098}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3949,38 +4020,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +4060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54979A9E-5E76-4250-B736-AA03D7D6CAB9}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -4095,7 +4166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
@@ -4863,7 +4934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2186A-9602-4BAA-A42F-66AD1BBF5209}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4928,11 +4999,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99839666-62E0-4D7C-B7FF-6055F88B2EDA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89970B13-9B9C-44F2-BC8F-B3E5E4575664}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117686B-151A-4C3B-8549-180C010C1D95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="282">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -742,16 +742,7 @@
     <t>C-c [</t>
   </si>
   <si>
-    <t>add Org file to agenda</t>
-  </si>
-  <si>
     <t xml:space="preserve">C-c . </t>
-  </si>
-  <si>
-    <t>add task to calendar</t>
-  </si>
-  <si>
-    <t>C-a C-e</t>
   </si>
   <si>
     <t>C-c h</t>
@@ -887,9 +878,6 @@
     <t>regexp incremental search</t>
   </si>
   <si>
-    <t>arguments to grep</t>
-  </si>
-  <si>
     <t>list bookmarks</t>
   </si>
   <si>
@@ -959,9 +947,6 @@
     <t>Fold/Unfold all levels</t>
   </si>
   <si>
-    <t>Shift - Tab</t>
-  </si>
-  <si>
     <t>C-c a t</t>
   </si>
   <si>
@@ -977,9 +962,6 @@
     <t>C-c a a</t>
   </si>
   <si>
-    <t>agenda mode (l log display)</t>
-  </si>
-  <si>
     <t>Export menu</t>
   </si>
   <si>
@@ -987,13 +969,79 @@
   </si>
   <si>
     <t>Repeat six times com</t>
+  </si>
+  <si>
+    <t>grep inside files dir</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Magit</t>
+  </si>
+  <si>
+    <t>Shift-Tab</t>
+  </si>
+  <si>
+    <t>C-h t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emacs tutorial</t>
+  </si>
+  <si>
+    <t>add Org file to agenda ] to remove</t>
+  </si>
+  <si>
+    <t>add date to tasks</t>
+  </si>
+  <si>
+    <t>add tiem and date to tasks</t>
+  </si>
+  <si>
+    <t>C-u C-c .</t>
+  </si>
+  <si>
+    <t>agenda mode (l log, t todo list)</t>
+  </si>
+  <si>
+    <t>add tag to task</t>
+  </si>
+  <si>
+    <r>
+      <t>C-x C-w</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>agenda view write</t>
+  </si>
+  <si>
+    <t>C-c C-e</t>
+  </si>
+  <si>
+    <t>l log mode, t todo list, A select view</t>
+  </si>
+  <si>
+    <t>v-spc reset views</t>
+  </si>
+  <si>
+    <t>vt-vm-vy views, o delete other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1087,6 +1135,25 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1178,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1212,6 +1279,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2379,7 +2456,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -2387,7 +2464,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -2395,7 +2472,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +2486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
@@ -2423,7 +2500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
@@ -2437,7 +2514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.25" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
@@ -2451,7 +2528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.25" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +2542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20.25" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
@@ -2477,7 +2554,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>62</v>
       </c>
@@ -2491,7 +2568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20.25" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>66</v>
       </c>
@@ -2505,7 +2582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20.25" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
@@ -2519,7 +2596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20.25" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
@@ -2543,7 +2620,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -2551,13 +2628,13 @@
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>79</v>
       </c>
@@ -2565,13 +2642,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>80</v>
       </c>
@@ -2585,35 +2662,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
@@ -2621,27 +2698,27 @@
         <v>83</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
@@ -2649,13 +2726,13 @@
         <v>86</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>87</v>
       </c>
@@ -2663,27 +2740,27 @@
         <v>88</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
@@ -2698,10 +2775,10 @@
   <dimension ref="A2:IV221"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="34" style="4" customWidth="1"/>
@@ -2712,15 +2789,15 @@
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>139</v>
@@ -2729,7 +2806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>195</v>
       </c>
@@ -2740,24 +2817,24 @@
         <v>141</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>135</v>
       </c>
@@ -2771,12 +2848,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>145</v>
@@ -2785,26 +2862,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>147</v>
@@ -2813,12 +2890,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>133</v>
@@ -2827,82 +2904,82 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>162</v>
@@ -2911,7 +2988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>171</v>
       </c>
@@ -2925,12 +3002,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>167</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>160</v>
@@ -2939,21 +3016,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>196</v>
       </c>
@@ -2967,7 +3044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>188</v>
       </c>
@@ -2981,12 +3058,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>185</v>
@@ -2995,7 +3072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>189</v>
       </c>
@@ -3003,888 +3080,888 @@
         <v>191</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="C25" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="B26" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15" customHeight="1">
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
@@ -3903,26 +3980,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>198</v>
@@ -3931,71 +4016,155 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B4" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B5" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B6" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B7" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="B11" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A14" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>259</v>
-      </c>
+      <c r="B14" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A18" s="25"/>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A22" s="25"/>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A27" s="26"/>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A29" s="26"/>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A30" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,14 +4180,14 @@
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>179</v>
       </c>
@@ -4030,7 +4199,7 @@
       </c>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>181</v>
       </c>
@@ -4040,7 +4209,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>183</v>
       </c>
@@ -4068,19 +4237,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>79</v>
       </c>
@@ -4088,7 +4257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="18" t="s">
         <v>80</v>
       </c>
@@ -4096,7 +4265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
@@ -4104,7 +4273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="18" t="s">
         <v>85</v>
       </c>
@@ -4112,7 +4281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>95</v>
       </c>
@@ -4120,7 +4289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
@@ -4128,7 +4297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="19" t="s">
         <v>102</v>
       </c>
@@ -4136,7 +4305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
@@ -4144,7 +4313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -4152,7 +4321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="18" t="s">
         <v>106</v>
       </c>
@@ -4174,7 +4343,7 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
@@ -4186,7 +4355,7 @@
     <col min="9" max="256" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
@@ -4194,7 +4363,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
@@ -4222,7 +4391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
@@ -4236,7 +4405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
@@ -4250,7 +4419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +4433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
@@ -4530,7 +4699,7 @@
       <c r="IU7" s="4"/>
       <c r="IV7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
@@ -4544,7 +4713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="15.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
@@ -4558,7 +4727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -4824,7 +4993,7 @@
       <c r="IU10" s="4"/>
       <c r="IV10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -4838,18 +5007,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:256" ht="16.5" customHeight="1">
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="16.5" customHeight="1">
       <c r="D14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:256" ht="15.75" customHeight="1">
       <c r="C15" s="13" t="s">
         <v>111</v>
       </c>
@@ -4859,7 +5028,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>108</v>
       </c>
@@ -4871,7 +5040,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>109</v>
       </c>
@@ -4884,7 +5053,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>114</v>
       </c>
@@ -4894,34 +5063,34 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="C23" s="4"/>
       <c r="D23" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="B25" s="4"/>
       <c r="E25" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
@@ -4942,19 +5111,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="19" t="s">
         <v>124</v>
       </c>
@@ -4962,7 +5131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
@@ -4970,7 +5139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>127</v>
       </c>
@@ -4978,7 +5147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4986,7 +5155,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -5003,25 +5172,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99839666-62E0-4D7C-B7FF-6055F88B2EDA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>117</v>
       </c>
@@ -5032,7 +5201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>96</v>
       </c>
@@ -5041,7 +5210,7 @@
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>100</v>
       </c>
@@ -5050,7 +5219,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>118</v>
       </c>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117686B-151A-4C3B-8549-180C010C1D95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC411E-46BE-48C2-B7A4-8D617C4B105F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="297">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -1035,6 +1035,51 @@
   </si>
   <si>
     <t>vt-vm-vy views, o delete other</t>
+  </si>
+  <si>
+    <t>md4rd</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>expand all</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>collapse all</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>backspace</t>
+  </si>
+  <si>
+    <t>backwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>toggle</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>sub map</t>
+  </si>
+  <si>
+    <t>open web</t>
   </si>
 </sst>
 </file>
@@ -3980,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
@@ -3994,15 +4039,18 @@
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>265</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E1" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>260</v>
       </c>
@@ -4015,8 +4063,14 @@
       <c r="D3" s="19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E3" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="B4" s="22" t="s">
         <v>279</v>
       </c>
@@ -4026,8 +4080,14 @@
       <c r="D4" s="22" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E4" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>281</v>
       </c>
@@ -4037,8 +4097,14 @@
       <c r="D5" s="23" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E5" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
       <c r="B6" s="22" t="s">
         <v>280</v>
       </c>
@@ -4048,32 +4114,56 @@
       <c r="D6" s="22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E6" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E7" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>278</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E8" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E9" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>257</v>
       </c>
@@ -4081,7 +4171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>201</v>
       </c>
@@ -4089,7 +4179,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>273</v>
       </c>
@@ -4097,7 +4187,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>206</v>
       </c>
@@ -4105,7 +4195,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>267</v>
       </c>
@@ -4113,7 +4203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>276</v>
       </c>
@@ -4121,7 +4211,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>268</v>
       </c>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC411E-46BE-48C2-B7A4-8D617C4B105F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058A24D-8102-415E-A35B-4CB3183324C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="304">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -986,16 +986,10 @@
     <t>C-h t</t>
   </si>
   <si>
-    <t xml:space="preserve"> Emacs tutorial</t>
-  </si>
-  <si>
     <t>add Org file to agenda ] to remove</t>
   </si>
   <si>
     <t>add date to tasks</t>
-  </si>
-  <si>
-    <t>add tiem and date to tasks</t>
   </si>
   <si>
     <t>C-u C-c .</t>
@@ -1081,12 +1075,39 @@
   <si>
     <t>open web</t>
   </si>
+  <si>
+    <t>add time and date to tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-c C-d </t>
+  </si>
+  <si>
+    <t>insert deadline (when you'll start)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-c C-s </t>
+  </si>
+  <si>
+    <t>insert schedule</t>
+  </si>
+  <si>
+    <t>M-g g</t>
+  </si>
+  <si>
+    <t>goto line</t>
+  </si>
+  <si>
+    <t>mark move cursor then copy</t>
+  </si>
+  <si>
+    <t>Emacs tutorial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1199,6 +1220,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1290,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1335,6 +1363,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2820,7 +2849,7 @@
   <dimension ref="A2:IV221"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A3" sqref="A3:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2828,7 +2857,7 @@
     <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="34" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
@@ -3124,21 +3153,33 @@
       <c r="B23" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="C25" s="17" t="s">
-        <v>173</v>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="B26" s="19" t="s">
         <v>172</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1">
@@ -4025,10 +4066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
@@ -4039,7 +4080,7 @@
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>265</v>
       </c>
@@ -4047,15 +4088,15 @@
         <v>266</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>260</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>198</v>
@@ -4063,16 +4104,16 @@
       <c r="D3" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E3" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="B4" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>204</v>
@@ -4080,16 +4121,16 @@
       <c r="D4" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="B5" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>206</v>
@@ -4097,16 +4138,16 @@
       <c r="D5" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E5" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="B6" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>208</v>
@@ -4114,56 +4155,57 @@
       <c r="D6" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E6" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+        <v>269</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E8" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+      <c r="E9" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>257</v>
       </c>
@@ -4171,31 +4213,31 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>201</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>273</v>
-      </c>
       <c r="B12" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>267</v>
       </c>
@@ -4203,31 +4245,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>268</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1">
       <c r="A21" s="26"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,27 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058A24D-8102-415E-A35B-4CB3183324C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4A565-0D6E-4759-BA29-2029D19DA6DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
     <sheet name="byobu" sheetId="4" r:id="rId2"/>
     <sheet name="emacs" sheetId="3" r:id="rId3"/>
     <sheet name="org - magit" sheetId="10" r:id="rId4"/>
-    <sheet name="spacemacs" sheetId="9" r:id="rId5"/>
-    <sheet name="iTerm" sheetId="5" r:id="rId6"/>
-    <sheet name="Rstudio" sheetId="2" r:id="rId7"/>
-    <sheet name="conemu" sheetId="8" r:id="rId8"/>
-    <sheet name="browser" sheetId="7" r:id="rId9"/>
+    <sheet name="iTerm" sheetId="5" r:id="rId5"/>
+    <sheet name="Rstudio" sheetId="2" r:id="rId6"/>
+    <sheet name="browser" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="255">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -36,9 +34,6 @@
     <t>Ctrl + F10</t>
   </si>
   <si>
-    <t>Rstudio</t>
-  </si>
-  <si>
     <t>Extract Function</t>
   </si>
   <si>
@@ -261,9 +256,6 @@
     <t>New Window</t>
   </si>
   <si>
-    <t>Byobu</t>
-  </si>
-  <si>
     <t>Move to Window</t>
   </si>
   <si>
@@ -300,9 +292,6 @@
     <t>Shift + Cmd + D</t>
   </si>
   <si>
-    <t>iTerm</t>
-  </si>
-  <si>
     <t>Cmd + D</t>
   </si>
   <si>
@@ -327,9 +316,6 @@
     <t>Ctrl + Tab</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>Reopen</t>
   </si>
   <si>
@@ -352,109 +338,6 @@
   </si>
   <si>
     <t>Cmd + cursor</t>
-  </si>
-  <si>
-    <t>VIM</t>
-  </si>
-  <si>
-    <t>copy/cut &amp; paste</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> + cursor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">       cut</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">        copy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">      paste</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete lines</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>d15</t>
   </si>
   <si>
     <t>Go to Tab</t>
@@ -493,27 +376,6 @@
     <t>Alt + Shift + T</t>
   </si>
   <si>
-    <t>Conemu</t>
-  </si>
-  <si>
-    <t>Move Focus</t>
-  </si>
-  <si>
-    <t>App + cursor</t>
-  </si>
-  <si>
-    <t>App + Shift + cursor</t>
-  </si>
-  <si>
-    <t>Resize split</t>
-  </si>
-  <si>
-    <t>App + G</t>
-  </si>
-  <si>
-    <t>Command all splits</t>
-  </si>
-  <si>
     <t>Ctrl+Shift+R/Ctrl+F12</t>
   </si>
   <si>
@@ -539,15 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">C-x k </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-x C-b </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-g </t>
-  </si>
-  <si>
-    <t>Undo changes</t>
   </si>
   <si>
     <t xml:space="preserve">C-x 0 </t>
@@ -655,45 +508,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">M-x proced </t>
-  </si>
-  <si>
-    <t>&amp; proced-toggle-auto-update</t>
-  </si>
-  <si>
-    <t>Definir: App + W / E</t>
-  </si>
-  <si>
-    <t>split horiz / vert</t>
-  </si>
-  <si>
-    <t>Definir: Win + F12</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Alt + Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move to window </t>
-  </si>
-  <si>
-    <t>M-m [0-9]</t>
-  </si>
-  <si>
-    <t>spacemacs root</t>
-  </si>
-  <si>
-    <t>M-m</t>
-  </si>
-  <si>
-    <t>C-spc</t>
-  </si>
-  <si>
-    <t>mark buffer for kill</t>
-  </si>
-  <si>
     <t>M-S-d</t>
   </si>
   <si>
@@ -706,27 +520,12 @@
     <t>M-x</t>
   </si>
   <si>
-    <t>C-x z</t>
-  </si>
-  <si>
     <t>eval-buffer</t>
   </si>
   <si>
-    <t>repeat (z z z….)</t>
-  </si>
-  <si>
     <t>C-x { }</t>
   </si>
   <si>
-    <t>C-x C-v</t>
-  </si>
-  <si>
-    <t>Insert content into buffer</t>
-  </si>
-  <si>
-    <t>C-x i</t>
-  </si>
-  <si>
     <t>m/n/p/u/back</t>
   </si>
   <si>
@@ -745,12 +544,6 @@
     <t xml:space="preserve">C-c . </t>
   </si>
   <si>
-    <t>C-c h</t>
-  </si>
-  <si>
-    <t>from helm-find-files session</t>
-  </si>
-  <si>
     <t>s - u - c</t>
   </si>
   <si>
@@ -769,9 +562,6 @@
     <t>Push</t>
   </si>
   <si>
-    <t>Replace bufffer contents</t>
-  </si>
-  <si>
     <t>C-x C-w</t>
   </si>
   <si>
@@ -779,9 +569,6 @@
   </si>
   <si>
     <t>Kill a buffer</t>
-  </si>
-  <si>
-    <t>show all open buffers</t>
   </si>
   <si>
     <t>forward s-expression</t>
@@ -845,9 +632,6 @@
     <t>C-M-&lt;SPC&gt;</t>
   </si>
   <si>
-    <t>Deactivates region C-g</t>
-  </si>
-  <si>
     <t>C-&lt;SPC&gt;</t>
   </si>
   <si>
@@ -972,12 +756,6 @@
   </si>
   <si>
     <t>grep inside files dir</t>
-  </si>
-  <si>
-    <t>Org</t>
-  </si>
-  <si>
-    <t>Magit</t>
   </si>
   <si>
     <t>Shift-Tab</t>
@@ -1031,9 +809,6 @@
     <t>vt-vm-vy views, o delete other</t>
   </si>
   <si>
-    <t>md4rd</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -1097,17 +872,17 @@
     <t>goto line</t>
   </si>
   <si>
-    <t>mark move cursor then copy</t>
-  </si>
-  <si>
     <t>Emacs tutorial</t>
+  </si>
+  <si>
+    <t>Mark region, move cursor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1127,35 +902,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
@@ -1165,13 +911,6 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1318,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1326,44 +1065,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2524,13 +2255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4841571A-CE26-4BC9-B013-5B695EB6D772}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -2538,147 +2269,147 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="17" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="17" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="17" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="17" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="3"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,155 +2419,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7589D3-2D47-45A7-B18F-F531AE67900B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="B4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C7" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="C8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>249</v>
+      <c r="C9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>252</v>
+      <c r="A10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2846,17 +2571,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:IV221"/>
+  <dimension ref="A2:IV209"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
@@ -2864,327 +2589,356 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="16"/>
+      <c r="A2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="C14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="C15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B18" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="B19" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="B26" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>173</v>
-      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1">
       <c r="A98" s="5"/>
@@ -3943,118 +3697,28 @@
       <c r="E205" s="6"/>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1">
-      <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1">
-      <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1">
-      <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1">
-      <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
+    <row r="209" spans="3:5" ht="15" customHeight="1">
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1">
-      <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-    </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1">
-      <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-    </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1">
-      <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-    </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1">
-      <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-    </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1">
-      <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-    </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1">
-      <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-    </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1">
-      <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-    </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1">
-      <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-    </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-    </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1">
-      <c r="A219" s="5"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-    </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1">
-      <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-    </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1">
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
+    <hyperlink ref="A10" r:id="rId1" display="C-M-@ " xr:uid="{480A0750-6164-460E-8A84-EF622B39FC99}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -4066,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
@@ -4080,233 +3744,222 @@
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>280</v>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>282</v>
+      <c r="B3" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B4" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>294</v>
+      <c r="B4" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B5" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>285</v>
+      <c r="B5" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="B6" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="A6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>255</v>
+      <c r="A14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>275</v>
+      <c r="A15" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>303</v>
+      <c r="A16" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>297</v>
+      <c r="A17" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="18"/>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A22" s="19"/>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A24" s="18"/>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A26" s="26"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A27" s="26"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A29" s="26"/>
-    </row>
-    <row r="30" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A30" s="26"/>
+      <c r="A29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4315,69 +3968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF71BC8-F7C3-4DB6-8620-8C7CB5E27098}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54979A9E-5E76-4250-B736-AA03D7D6CAB9}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -4386,89 +3980,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="19" t="s">
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="19" t="s">
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4477,13 +4069,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4498,95 +4088,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="18"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>121</v>
+      <c r="C6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4842,45 +4430,45 @@
       <c r="IV7" s="4"/>
     </row>
     <row r="8" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5136,17 +4724,17 @@
       <c r="IV10" s="4"/>
     </row>
     <row r="11" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="15.75" customHeight="1"/>
@@ -5156,85 +4744,38 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:256" ht="16.5" customHeight="1">
-      <c r="D14" s="9"/>
+      <c r="A14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="15.75" customHeight="1">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="1:256" ht="15" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:256" ht="15" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="C23" s="4"/>
-      <c r="D23" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="E25" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -5245,130 +4786,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2186A-9602-4BAA-A42F-66AD1BBF5209}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99839666-62E0-4D7C-B7FF-6055F88B2EDA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="A1" s="7"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4A565-0D6E-4759-BA29-2029D19DA6DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13B79A-A716-49A6-9C7C-F6A0CAD4899A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -2573,7 +2573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
@@ -3730,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
@@ -3822,6 +3822,12 @@
       <c r="B6" s="15" t="s">
         <v>221</v>
       </c>
+      <c r="C6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>239</v>
       </c>
@@ -3830,10 +3836,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>215</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -3859,10 +3865,10 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3883,65 +3889,60 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>253</v>
+      <c r="A15" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>248</v>
+      <c r="A16" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A21" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1">
       <c r="A24" s="18"/>
@@ -3958,12 +3959,9 @@
     <row r="28" spans="1:2" ht="13.5" customHeight="1">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A29" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13B79A-A716-49A6-9C7C-F6A0CAD4899A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65712E66-5DA6-446A-B3D5-38C4012ABA19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="265">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -265,12 +265,6 @@
     <t>Split Vertically</t>
   </si>
   <si>
-    <t>Move to Split</t>
-  </si>
-  <si>
-    <t>Detach (no out)</t>
-  </si>
-  <si>
     <t>Shift + F6</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
   </si>
   <si>
     <t>Kill Window/Split</t>
-  </si>
-  <si>
-    <t>Ctrl + F6</t>
   </si>
   <si>
     <t>Rename Window</t>
@@ -674,24 +665,6 @@
     <t>Shift + F1</t>
   </si>
   <si>
-    <t>F3 / F4 - Alt+Cursor</t>
-  </si>
-  <si>
-    <t>Move to session</t>
-  </si>
-  <si>
-    <t>Alt + up/down</t>
-  </si>
-  <si>
-    <t>Alt + left/right</t>
-  </si>
-  <si>
-    <t>Shift + Alt + Cursor</t>
-  </si>
-  <si>
-    <t>Resize Split</t>
-  </si>
-  <si>
     <t>Detach &amp; log out</t>
   </si>
   <si>
@@ -716,16 +689,10 @@
     <t>F12</t>
   </si>
   <si>
-    <t>Escape</t>
-  </si>
-  <si>
     <t>Toggle keybindings</t>
   </si>
   <si>
     <t xml:space="preserve">Shift + F12 </t>
-  </si>
-  <si>
-    <t>Shift + F3/F4</t>
   </si>
   <si>
     <t>Fold/Unfold all levels</t>
@@ -876,6 +843,69 @@
   </si>
   <si>
     <t>Mark region, move cursor</t>
+  </si>
+  <si>
+    <t>Shift + right/left</t>
+  </si>
+  <si>
+    <t>Show numbers</t>
+  </si>
+  <si>
+    <t>Ctrl + D (exit RET)</t>
+  </si>
+  <si>
+    <t>Alt + left/right (F3-F4)</t>
+  </si>
+  <si>
+    <t>Move to Split r/l</t>
+  </si>
+  <si>
+    <t>c  create window</t>
+  </si>
+  <si>
+    <t>w  list windows</t>
+  </si>
+  <si>
+    <t>n  next window</t>
+  </si>
+  <si>
+    <t>p  previous window</t>
+  </si>
+  <si>
+    <t>f  find window</t>
+  </si>
+  <si>
+    <t>,  name window</t>
+  </si>
+  <si>
+    <t>&amp;  kill window</t>
+  </si>
+  <si>
+    <t>| Split horiz</t>
+  </si>
+  <si>
+    <t>% split vert</t>
+  </si>
+  <si>
+    <t>o  swap panes</t>
+  </si>
+  <si>
+    <t>q  show pane numbers</t>
+  </si>
+  <si>
+    <t>k  kill pane</t>
+  </si>
+  <si>
+    <t>d  detach</t>
+  </si>
+  <si>
+    <t>t  big clock</t>
+  </si>
+  <si>
+    <t>?  list shortcuts</t>
+  </si>
+  <si>
+    <t>:  prompt</t>
   </si>
 </sst>
 </file>
@@ -2419,153 +2449,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7589D3-2D47-45A7-B18F-F531AE67900B}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>190</v>
+        <v>244</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>191</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>193</v>
+        <v>83</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>206</v>
+        <v>189</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D14" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D15" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D16" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="17.25" customHeight="1">
+      <c r="D17" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2590,254 +2645,254 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
@@ -3732,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
@@ -3746,186 +3801,186 @@
   <sheetData>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">
@@ -3986,7 +4041,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -3994,55 +4049,55 @@
         <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -4050,12 +4105,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>57</v>
@@ -4144,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="15.75" customHeight="1">
@@ -4155,10 +4210,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="15.75" customHeight="1">
@@ -4743,7 +4798,7 @@
     </row>
     <row r="14" spans="1:256" ht="16.5" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="8"/>
       <c r="G14" s="1"/>
@@ -4751,10 +4806,10 @@
     </row>
     <row r="15" spans="1:256" ht="15" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -4806,18 +4861,18 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>40</v>
@@ -4826,19 +4881,19 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12"/>
     </row>

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65712E66-5DA6-446A-B3D5-38C4012ABA19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58FBF6-BD80-487F-B974-75343A426B2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -647,9 +647,6 @@
     <t>Kill buffer and window</t>
   </si>
   <si>
-    <t>incremental search</t>
-  </si>
-  <si>
     <t>regexp incremental search</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
   </si>
   <si>
     <t>C-u C-c .</t>
-  </si>
-  <si>
-    <t>agenda mode (l log, t todo list)</t>
   </si>
   <si>
     <t>add tag to task</t>
@@ -906,6 +900,12 @@
   </si>
   <si>
     <t>:  prompt</t>
+  </si>
+  <si>
+    <t>search C-M-s/r or M-r after C-s</t>
+  </si>
+  <si>
+    <t>agenda mode</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7589D3-2D47-45A7-B18F-F531AE67900B}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2465,38 +2465,38 @@
   <sheetData>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
@@ -2504,10 +2504,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
@@ -2518,18 +2518,18 @@
         <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1">
@@ -2540,7 +2540,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1">
@@ -2548,74 +2548,74 @@
         <v>76</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1">
       <c r="A12" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" customHeight="1">
       <c r="D14" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1">
       <c r="D15" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1">
       <c r="D16" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="17.25" customHeight="1">
       <c r="D17" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2629,7 @@
   <dimension ref="A2:IV209"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2637,7 +2637,7 @@
     <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
@@ -2724,7 +2724,7 @@
         <v>151</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -2749,10 +2749,10 @@
         <v>176</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -2774,7 +2774,7 @@
         <v>174</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>124</v>
@@ -2794,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -2808,7 +2808,7 @@
         <v>129</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -2822,7 +2822,7 @@
         <v>128</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -2886,13 +2886,13 @@
         <v>142</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
@@ -3787,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1"/>
@@ -3801,10 +3801,10 @@
   <sheetData>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>154</v>
@@ -3813,15 +3813,15 @@
         <v>155</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>158</v>
@@ -3830,15 +3830,15 @@
         <v>159</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>160</v>
@@ -3847,15 +3847,15 @@
         <v>161</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>162</v>
@@ -3864,10 +3864,10 @@
         <v>163</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
@@ -3875,56 +3875,56 @@
         <v>156</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
       <c r="A9" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1">
@@ -3932,15 +3932,15 @@
         <v>157</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
@@ -3948,39 +3948,39 @@
         <v>160</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">

--- a/keyShort.xlsx
+++ b/keyShort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\shortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58FBF6-BD80-487F-B974-75343A426B2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63083F4B-909D-4479-A351-54DD2A79ACD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atom" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="273">
   <si>
     <t>Navigate Forward</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">C-M-s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-s </t>
   </si>
   <si>
     <t>C-x h</t>
@@ -902,10 +899,37 @@
     <t>:  prompt</t>
   </si>
   <si>
-    <t>search C-M-s/r or M-r after C-s</t>
-  </si>
-  <si>
     <t>agenda mode</t>
+  </si>
+  <si>
+    <t>M-%</t>
+  </si>
+  <si>
+    <t>Query replace</t>
+  </si>
+  <si>
+    <t>search forward / backwards</t>
+  </si>
+  <si>
+    <t>C-s  / C-r</t>
+  </si>
+  <si>
+    <t>undo tree</t>
+  </si>
+  <si>
+    <t>Cycle dotspacemacs-themes</t>
+  </si>
+  <si>
+    <t>C-x u</t>
+  </si>
+  <si>
+    <t>&lt;SPC&gt;</t>
+  </si>
+  <si>
+    <t>M-m</t>
+  </si>
+  <si>
+    <t>M-m T n</t>
   </si>
 </sst>
 </file>
@@ -2465,38 +2489,38 @@
   <sheetData>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
@@ -2504,10 +2528,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
@@ -2518,18 +2542,18 @@
         <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1">
@@ -2540,7 +2564,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1">
@@ -2548,74 +2572,74 @@
         <v>76</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>190</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1">
       <c r="A12" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" customHeight="1">
       <c r="D14" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1">
       <c r="D15" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1">
       <c r="D16" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="17.25" customHeight="1">
       <c r="D17" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2628,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IV209"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2637,7 +2661,7 @@
     <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="4" customWidth="1"/>
     <col min="7" max="256" width="10.85546875" style="4" customWidth="1"/>
@@ -2645,10 +2669,10 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>110</v>
@@ -2668,7 +2692,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -2676,21 +2700,21 @@
         <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>117</v>
@@ -2704,7 +2728,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>119</v>
@@ -2718,13 +2742,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -2732,7 +2756,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>121</v>
@@ -2743,156 +2767,184 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="C16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>205</v>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
@@ -3787,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC396C-36A3-4263-AE8B-A7BFAF2AFAEC}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3801,186 +3853,186 @@
   <sheetData>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="B4" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>161</v>
-      </c>
       <c r="E4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="E5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
       <c r="A9" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
       <c r="A16" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1">
